--- a/leetcode solved.xlsx
+++ b/leetcode solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_4148941535628924160/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{C1A55483-AB76-F94B-BBD6-8ADDF97EB37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5769DFC6-A16C-4987-9E8E-83FC1C735806}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{C1A55483-AB76-F94B-BBD6-8ADDF97EB37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD6389D-87E2-44C7-B223-2E6F7D5EAE18}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="657" xr2:uid="{91E0AC5C-A444-432A-817A-1683DD81F561}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="385">
   <si>
     <t>number</t>
   </si>
@@ -1180,6 +1180,51 @@
   </si>
   <si>
     <t>validate binary search tree</t>
+  </si>
+  <si>
+    <t>diameter of binary tree</t>
+  </si>
+  <si>
+    <t>minimum cost to reach every position</t>
+  </si>
+  <si>
+    <t>minimum time visiting all points</t>
+  </si>
+  <si>
+    <t>last stone weight</t>
+  </si>
+  <si>
+    <t>largest substring between two equal characters</t>
+  </si>
+  <si>
+    <t>longest strictly increasing or strictly decreasing subarray</t>
+  </si>
+  <si>
+    <t>richest customer wealth</t>
+  </si>
+  <si>
+    <t>find words that can be formed by characters</t>
+  </si>
+  <si>
+    <t>sum of unique elements</t>
+  </si>
+  <si>
+    <t>a number after a double reversal</t>
+  </si>
+  <si>
+    <t>find all numbers disappeared in an array</t>
+  </si>
+  <si>
+    <t>find the distinct difference array</t>
+  </si>
+  <si>
+    <t>average of levels in binary tree</t>
+  </si>
+  <si>
+    <t>shortest distance to a character</t>
+  </si>
+  <si>
+    <t>count largest group</t>
   </si>
 </sst>
 </file>
@@ -1624,11 +1669,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B397E5-2FB9-4768-8CC2-2F3499152878}">
-  <dimension ref="A1:O355"/>
+  <dimension ref="A1:O370"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B370" sqref="B370"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6199,10 +6244,10 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B98" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -6214,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="1" t="b">
         <v>0</v>
@@ -6226,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="1" t="b">
         <v>0</v>
@@ -6246,10 +6291,10 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -6273,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="1" t="b">
         <v>0</v>
@@ -6293,16 +6338,16 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1" t="b">
         <v>0</v>
@@ -6311,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="b">
         <v>0</v>
@@ -6340,25 +6385,25 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F101" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" s="1" t="b">
         <v>0</v>
@@ -6370,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" s="1" t="b">
         <v>0</v>
@@ -6387,10 +6432,10 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -6417,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" s="1" t="b">
         <v>0</v>
@@ -6434,10 +6479,10 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -6449,10 +6494,10 @@
         <v>0</v>
       </c>
       <c r="F103" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1" t="b">
         <v>0</v>
@@ -6481,16 +6526,16 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="1" t="b">
         <v>0</v>
@@ -6499,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="1" t="b">
         <v>0</v>
@@ -6528,13 +6573,13 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D105" s="1" t="b">
         <v>1</v>
@@ -6575,16 +6620,16 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D106" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1" t="b">
         <v>0</v>
@@ -6622,10 +6667,10 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -6640,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" s="1" t="b">
         <v>0</v>
@@ -6669,10 +6714,10 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -6681,13 +6726,13 @@
         <v>0</v>
       </c>
       <c r="E108" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G108" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" s="1" t="b">
         <v>0</v>
@@ -6716,10 +6761,10 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>370</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -6763,10 +6808,10 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -6775,10 +6820,10 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" s="1" t="b">
         <v>0</v>
@@ -6810,10 +6855,10 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -6857,10 +6902,10 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -6872,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" s="1" t="b">
         <v>0</v>
@@ -6904,10 +6949,10 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -6919,10 +6964,10 @@
         <v>0</v>
       </c>
       <c r="F113" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" s="1" t="b">
         <v>0</v>
@@ -6951,10 +6996,10 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -6969,10 +7014,10 @@
         <v>0</v>
       </c>
       <c r="G114" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" s="1" t="b">
         <v>0</v>
@@ -6998,10 +7043,10 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>643</v>
+        <v>599</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -7013,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="1" t="b">
         <v>0</v>
@@ -7037,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="N115" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O115" s="1" t="b">
         <v>0</v>
@@ -7045,10 +7090,10 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -7060,13 +7105,13 @@
         <v>0</v>
       </c>
       <c r="F116" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" s="1" t="b">
         <v>0</v>
@@ -7092,28 +7137,28 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>382</v>
       </c>
       <c r="C117" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D117" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G117" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" s="1" t="b">
         <v>0</v>
@@ -7139,10 +7184,10 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B118" t="s">
-        <v>366</v>
+        <v>113</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -7157,10 +7202,10 @@
         <v>0</v>
       </c>
       <c r="G118" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" s="1" t="b">
         <v>0</v>
@@ -7178,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="N118" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O118" s="1" t="b">
         <v>0</v>
@@ -7186,13 +7231,13 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="B119" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C119" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D119" s="1" t="b">
         <v>0</v>
@@ -7201,13 +7246,13 @@
         <v>0</v>
       </c>
       <c r="F119" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" s="1" t="b">
         <v>0</v>
@@ -7233,25 +7278,25 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="B120" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D120" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G120" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -7280,10 +7325,10 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="B121" t="s">
-        <v>118</v>
+        <v>366</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -7292,22 +7337,22 @@
         <v>0</v>
       </c>
       <c r="E121" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G121" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J121" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" s="1" t="b">
         <v>0</v>
@@ -7327,10 +7372,10 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="B122" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C122" t="s">
         <v>3</v>
@@ -7374,10 +7419,10 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>700</v>
+        <v>671</v>
       </c>
       <c r="B123" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -7395,7 +7440,7 @@
         <v>1</v>
       </c>
       <c r="H123" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" s="1" t="b">
         <v>0</v>
@@ -7421,10 +7466,10 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -7433,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E124" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" s="1" t="b">
         <v>0</v>
@@ -7448,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" s="1" t="b">
         <v>0</v>
@@ -7457,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124" s="1" t="b">
         <v>0</v>
@@ -7468,16 +7513,16 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="B125" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C125" t="s">
         <v>3</v>
       </c>
       <c r="D125" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" s="1" t="b">
         <v>0</v>
@@ -7486,10 +7531,10 @@
         <v>0</v>
       </c>
       <c r="G125" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" s="1" t="b">
         <v>0</v>
@@ -7515,10 +7560,10 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>744</v>
+        <v>700</v>
       </c>
       <c r="B126" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -7533,10 +7578,10 @@
         <v>0</v>
       </c>
       <c r="G126" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" s="1" t="b">
         <v>0</v>
@@ -7551,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N126" s="1" t="b">
         <v>0</v>
@@ -7562,16 +7607,16 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>746</v>
+        <v>704</v>
       </c>
       <c r="B127" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" s="1" t="b">
         <v>0</v>
@@ -7598,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127" s="1" t="b">
         <v>0</v>
@@ -7609,16 +7654,16 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="B128" t="s">
-        <v>359</v>
+        <v>121</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D128" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" s="1" t="b">
         <v>0</v>
@@ -7633,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" s="1" t="b">
         <v>0</v>
@@ -7656,10 +7701,10 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B129" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -7671,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="F129" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="1" t="b">
         <v>0</v>
@@ -7692,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129" s="1" t="b">
         <v>0</v>
@@ -7703,22 +7748,22 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
       </c>
       <c r="D130" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F130" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" s="1" t="b">
         <v>0</v>
@@ -7750,13 +7795,13 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>785</v>
+        <v>747</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
+        <v>359</v>
       </c>
       <c r="C131" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D131" s="1" t="b">
         <v>0</v>
@@ -7768,13 +7813,13 @@
         <v>0</v>
       </c>
       <c r="G131" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="1" t="b">
         <v>0</v>
@@ -7797,10 +7842,10 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>830</v>
+        <v>748</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -7812,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="F132" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" s="1" t="b">
         <v>0</v>
@@ -7844,23 +7889,22 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>844</v>
+        <v>771</v>
       </c>
       <c r="B133" t="s">
-        <v>364</v>
+        <v>125</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="1" t="b">
-        <f>O133</f>
         <v>0</v>
       </c>
       <c r="E133" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F133" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" s="1" t="b">
         <v>0</v>
@@ -7875,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133" s="1" t="b">
         <v>0</v>
@@ -7892,28 +7936,28 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>860</v>
+        <v>785</v>
       </c>
       <c r="B134" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E134" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G134" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" s="1" t="b">
         <v>0</v>
@@ -7939,16 +7983,16 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>867</v>
+        <v>821</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>383</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" s="1" t="b">
         <v>0</v>
@@ -7986,10 +8030,10 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>868</v>
+        <v>830</v>
       </c>
       <c r="B136" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -8033,22 +8077,23 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>873</v>
+        <v>844</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="C137" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D137" s="1" t="b">
-        <v>1</v>
+        <f>O137</f>
+        <v>0</v>
       </c>
       <c r="E137" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F137" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" s="1" t="b">
         <v>0</v>
@@ -8063,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" s="1" t="b">
         <v>0</v>
@@ -8080,10 +8125,10 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="B138" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -8092,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" s="1" t="b">
         <v>0</v>
@@ -8107,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" s="1" t="b">
         <v>0</v>
@@ -8127,16 +8172,16 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="B139" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C139" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D139" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" s="1" t="b">
         <v>0</v>
@@ -8174,16 +8219,16 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D140" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" s="1" t="b">
         <v>0</v>
@@ -8221,22 +8266,22 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>908</v>
+        <v>873</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D141" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F141" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" s="1" t="b">
         <v>0</v>
@@ -8268,10 +8313,10 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>917</v>
+        <v>876</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
+        <v>336</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -8315,16 +8360,16 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>922</v>
+        <v>877</v>
       </c>
       <c r="B143" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D143" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" s="1" t="b">
         <v>0</v>
@@ -8342,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" s="1" t="b">
         <v>0</v>
@@ -8362,16 +8407,16 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>925</v>
+        <v>887</v>
       </c>
       <c r="B144" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D144" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" s="1" t="b">
         <v>0</v>
@@ -8389,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" s="1" t="b">
         <v>0</v>
@@ -8409,25 +8454,25 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>949</v>
+        <v>908</v>
       </c>
       <c r="B145" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C145" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D145" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E145" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G145" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" s="1" t="b">
         <v>0</v>
@@ -8456,13 +8501,13 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>966</v>
+        <v>917</v>
       </c>
       <c r="B146" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C146" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D146" s="1" t="b">
         <v>0</v>
@@ -8471,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="F146" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" s="1" t="b">
         <v>0</v>
@@ -8483,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" s="1" t="b">
         <v>0</v>
@@ -8503,10 +8548,10 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>976</v>
+        <v>922</v>
       </c>
       <c r="B147" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -8515,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" s="1" t="b">
         <v>0</v>
@@ -8530,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" s="1" t="b">
         <v>0</v>
@@ -8550,16 +8595,16 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>983</v>
+        <v>925</v>
       </c>
       <c r="B148" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C148" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D148" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148" s="1" t="b">
         <v>0</v>
@@ -8577,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" s="1" t="b">
         <v>0</v>
@@ -8586,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="M148" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N148" s="1" t="b">
         <v>0</v>
@@ -8597,19 +8642,19 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>993</v>
+        <v>949</v>
       </c>
       <c r="B149" t="s">
-        <v>358</v>
+        <v>138</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D149" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E149" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" s="1" t="b">
         <v>0</v>
@@ -8618,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="H149" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" s="1" t="b">
         <v>0</v>
@@ -8644,13 +8689,13 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>999</v>
+        <v>966</v>
       </c>
       <c r="B150" t="s">
-        <v>362</v>
+        <v>139</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D150" s="1" t="b">
         <v>0</v>
@@ -8659,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="F150" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" s="1" t="b">
         <v>0</v>
@@ -8691,10 +8736,10 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>1005</v>
+        <v>976</v>
       </c>
       <c r="B151" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -8703,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" s="1" t="b">
         <v>0</v>
@@ -8715,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" s="1" t="b">
         <v>0</v>
@@ -8738,16 +8783,16 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>1009</v>
+        <v>983</v>
       </c>
       <c r="B152" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C152" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D152" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" s="1" t="b">
         <v>0</v>
@@ -8774,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="M152" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152" s="1" t="b">
         <v>0</v>
@@ -8785,10 +8830,10 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>1013</v>
+        <v>993</v>
       </c>
       <c r="B153" t="s">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -8803,10 +8848,10 @@
         <v>0</v>
       </c>
       <c r="G153" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" s="1" t="b">
         <v>0</v>
@@ -8827,21 +8872,21 @@
         <v>0</v>
       </c>
       <c r="O153" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="B154" t="s">
-        <v>145</v>
+        <v>362</v>
       </c>
       <c r="C154" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D154" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" s="1" t="b">
         <v>0</v>
@@ -8879,10 +8924,10 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>1025</v>
+        <v>1005</v>
       </c>
       <c r="B155" t="s">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -8903,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" s="1" t="b">
         <v>0</v>
@@ -8926,10 +8971,10 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>1037</v>
+        <v>1009</v>
       </c>
       <c r="B156" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -8973,10 +9018,10 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>1047</v>
+        <v>1013</v>
       </c>
       <c r="B157" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -9003,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="K157" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L157" s="1" t="b">
         <v>0</v>
@@ -9015,21 +9060,21 @@
         <v>0</v>
       </c>
       <c r="O157" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>1051</v>
+        <v>1014</v>
       </c>
       <c r="B158" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D158" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" s="1" t="b">
         <v>0</v>
@@ -9067,10 +9112,10 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>1078</v>
+        <v>1025</v>
       </c>
       <c r="B159" t="s">
-        <v>149</v>
+        <v>328</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -9114,10 +9159,10 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>1089</v>
+        <v>1037</v>
       </c>
       <c r="B160" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -9141,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" s="1" t="b">
         <v>0</v>
@@ -9161,10 +9206,10 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>1103</v>
+        <v>1046</v>
       </c>
       <c r="B161" t="s">
-        <v>151</v>
+        <v>373</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -9185,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" s="1" t="b">
         <v>0</v>
@@ -9208,10 +9253,10 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>1128</v>
+        <v>1047</v>
       </c>
       <c r="B162" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -9223,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="F162" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" s="1" t="b">
         <v>0</v>
@@ -9238,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="K162" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L162" s="1" t="b">
         <v>0</v>
@@ -9255,16 +9300,16 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>1140</v>
+        <v>1051</v>
       </c>
       <c r="B163" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C163" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D163" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" s="1" t="b">
         <v>0</v>
@@ -9297,15 +9342,15 @@
         <v>0</v>
       </c>
       <c r="O163" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>1154</v>
+        <v>1078</v>
       </c>
       <c r="B164" t="s">
-        <v>360</v>
+        <v>149</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -9349,10 +9394,10 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>1175</v>
+        <v>1089</v>
       </c>
       <c r="B165" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -9376,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165" s="1" t="b">
         <v>0</v>
@@ -9396,10 +9441,10 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>1185</v>
+        <v>1103</v>
       </c>
       <c r="B166" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -9443,10 +9488,10 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>1189</v>
+        <v>1128</v>
       </c>
       <c r="B167" t="s">
-        <v>327</v>
+        <v>152</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -9490,16 +9535,16 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>1200</v>
+        <v>1140</v>
       </c>
       <c r="B168" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D168" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" s="1" t="b">
         <v>0</v>
@@ -9532,27 +9577,27 @@
         <v>0</v>
       </c>
       <c r="O168" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>1218</v>
+        <v>1154</v>
       </c>
       <c r="B169" t="s">
-        <v>157</v>
+        <v>360</v>
       </c>
       <c r="C169" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D169" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F169" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" s="1" t="b">
         <v>0</v>
@@ -9584,13 +9629,13 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>1254</v>
+        <v>1160</v>
       </c>
       <c r="B170" t="s">
-        <v>158</v>
+        <v>377</v>
       </c>
       <c r="C170" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D170" s="1" t="b">
         <v>0</v>
@@ -9599,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="F170" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" s="1" t="b">
         <v>0</v>
@@ -9631,10 +9676,10 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>1281</v>
+        <v>1175</v>
       </c>
       <c r="B171" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -9678,10 +9723,10 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>1287</v>
+        <v>1185</v>
       </c>
       <c r="B172" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -9725,10 +9770,10 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>1290</v>
+        <v>1189</v>
       </c>
       <c r="B173" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -9740,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="F173" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" s="1" t="b">
         <v>0</v>
@@ -9772,10 +9817,10 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>1304</v>
+        <v>1200</v>
       </c>
       <c r="B174" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -9819,22 +9864,22 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>1313</v>
+        <v>1218</v>
       </c>
       <c r="B175" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D175" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F175" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" s="1" t="b">
         <v>0</v>
@@ -9866,13 +9911,13 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>1317</v>
+        <v>1254</v>
       </c>
       <c r="B176" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D176" s="1" t="b">
         <v>0</v>
@@ -9884,10 +9929,10 @@
         <v>0</v>
       </c>
       <c r="G176" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" s="1" t="b">
         <v>0</v>
@@ -9913,10 +9958,10 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>1331</v>
+        <v>1266</v>
       </c>
       <c r="B177" t="s">
-        <v>165</v>
+        <v>372</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -9928,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="F177" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" s="1" t="b">
         <v>0</v>
@@ -9960,10 +10005,10 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>1332</v>
+        <v>1281</v>
       </c>
       <c r="B178" t="s">
-        <v>357</v>
+        <v>159</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -9987,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178" s="1" t="b">
         <v>0</v>
@@ -10007,10 +10052,10 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>1337</v>
+        <v>1287</v>
       </c>
       <c r="B179" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -10031,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" s="1" t="b">
         <v>0</v>
@@ -10043,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="M179" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N179" s="1" t="b">
         <v>0</v>
@@ -10054,10 +10099,10 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>1342</v>
+        <v>1290</v>
       </c>
       <c r="B180" t="s">
-        <v>350</v>
+        <v>161</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -10101,10 +10146,10 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>1346</v>
+        <v>1304</v>
       </c>
       <c r="B181" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -10116,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="F181" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" s="1" t="b">
         <v>0</v>
@@ -10148,10 +10193,10 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>1356</v>
+        <v>1313</v>
       </c>
       <c r="B182" t="s">
-        <v>363</v>
+        <v>163</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -10195,10 +10240,10 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>1374</v>
+        <v>1317</v>
       </c>
       <c r="B183" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -10242,10 +10287,10 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>1389</v>
+        <v>1331</v>
       </c>
       <c r="B184" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -10257,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="F184" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" s="1" t="b">
         <v>0</v>
@@ -10289,10 +10334,10 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>1394</v>
+        <v>1332</v>
       </c>
       <c r="B185" t="s">
-        <v>169</v>
+        <v>357</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -10304,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="F185" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" s="1" t="b">
         <v>0</v>
@@ -10316,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K185" s="1" t="b">
         <v>0</v>
@@ -10336,16 +10381,16 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>1406</v>
+        <v>1337</v>
       </c>
       <c r="B186" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C186" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D186" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186" s="1" t="b">
         <v>0</v>
@@ -10360,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" s="1" t="b">
         <v>0</v>
@@ -10372,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="M186" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N186" s="1" t="b">
         <v>0</v>
@@ -10383,10 +10428,10 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>1417</v>
+        <v>1342</v>
       </c>
       <c r="B187" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -10430,10 +10475,10 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>1431</v>
+        <v>1346</v>
       </c>
       <c r="B188" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -10445,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="F188" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" s="1" t="b">
         <v>0</v>
@@ -10477,10 +10522,10 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>1464</v>
+        <v>1356</v>
       </c>
       <c r="B189" t="s">
-        <v>173</v>
+        <v>363</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -10501,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" s="1" t="b">
         <v>0</v>
@@ -10524,10 +10569,10 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>1502</v>
+        <v>1374</v>
       </c>
       <c r="B190" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -10571,10 +10616,10 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>1507</v>
+        <v>1389</v>
       </c>
       <c r="B191" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -10586,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="F191" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" s="1" t="b">
         <v>0</v>
@@ -10618,22 +10663,22 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>1510</v>
+        <v>1394</v>
       </c>
       <c r="B192" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C192" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D192" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F192" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" s="1" t="b">
         <v>0</v>
@@ -10665,10 +10710,10 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>1523</v>
+        <v>1399</v>
       </c>
       <c r="B193" t="s">
-        <v>176</v>
+        <v>384</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -10680,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193" s="1" t="b">
         <v>0</v>
@@ -10712,13 +10757,13 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>1524</v>
+        <v>1406</v>
       </c>
       <c r="B194" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C194" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D194" s="1" t="b">
         <v>1</v>
@@ -10754,15 +10799,15 @@
         <v>0</v>
       </c>
       <c r="O194" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>1534</v>
+        <v>1417</v>
       </c>
       <c r="B195" t="s">
-        <v>326</v>
+        <v>171</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -10806,10 +10851,10 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>1539</v>
+        <v>1431</v>
       </c>
       <c r="B196" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -10842,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="M196" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N196" s="1" t="b">
         <v>0</v>
@@ -10853,10 +10898,10 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>1544</v>
+        <v>1464</v>
       </c>
       <c r="B197" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -10877,13 +10922,13 @@
         <v>0</v>
       </c>
       <c r="I197" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K197" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197" s="1" t="b">
         <v>0</v>
@@ -10900,10 +10945,10 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>1560</v>
+        <v>1502</v>
       </c>
       <c r="B198" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -10947,22 +10992,22 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>1594</v>
+        <v>1507</v>
       </c>
       <c r="B199" t="s">
-        <v>181</v>
+        <v>345</v>
       </c>
       <c r="C199" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D199" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F199" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199" s="1" t="b">
         <v>0</v>
@@ -10994,16 +11039,16 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>1598</v>
+        <v>1510</v>
       </c>
       <c r="B200" t="s">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="C200" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D200" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" s="1" t="b">
         <v>0</v>
@@ -11024,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="K200" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L200" s="1" t="b">
         <v>0</v>
@@ -11041,10 +11086,10 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>1619</v>
+        <v>1523</v>
       </c>
       <c r="B201" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -11088,10 +11133,10 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>1621</v>
+        <v>1524</v>
       </c>
       <c r="B202" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C202" t="s">
         <v>3</v>
@@ -11130,15 +11175,15 @@
         <v>0</v>
       </c>
       <c r="O202" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>1640</v>
+        <v>1534</v>
       </c>
       <c r="B203" t="s">
-        <v>184</v>
+        <v>326</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -11150,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="F203" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203" s="1" t="b">
         <v>0</v>
@@ -11182,16 +11227,16 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>1641</v>
+        <v>1539</v>
       </c>
       <c r="B204" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C204" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D204" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" s="1" t="b">
         <v>0</v>
@@ -11218,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="M204" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N204" s="1" t="b">
         <v>0</v>
@@ -11229,16 +11274,16 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>1646</v>
+        <v>1544</v>
       </c>
       <c r="B205" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
       </c>
       <c r="D205" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E205" s="1" t="b">
         <v>0</v>
@@ -11259,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="K205" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205" s="1" t="b">
         <v>0</v>
@@ -11276,10 +11321,10 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>1652</v>
+        <v>1560</v>
       </c>
       <c r="B206" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -11315,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="N206" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O206" s="1" t="b">
         <v>0</v>
@@ -11323,13 +11368,13 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>1668</v>
+        <v>1594</v>
       </c>
       <c r="B207" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D207" s="1" t="b">
         <v>1</v>
@@ -11370,10 +11415,10 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>1704</v>
+        <v>1598</v>
       </c>
       <c r="B208" t="s">
-        <v>189</v>
+        <v>346</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -11400,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="K208" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L208" s="1" t="b">
         <v>0</v>
@@ -11417,10 +11462,10 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>1710</v>
+        <v>1619</v>
       </c>
       <c r="B209" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -11429,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="E209" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" s="1" t="b">
         <v>0</v>
@@ -11464,16 +11509,16 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>1716</v>
+        <v>1621</v>
       </c>
       <c r="B210" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D210" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210" s="1" t="b">
         <v>0</v>
@@ -11511,10 +11556,10 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>1720</v>
+        <v>1624</v>
       </c>
       <c r="B211" t="s">
-        <v>192</v>
+        <v>374</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -11526,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="F211" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211" s="1" t="b">
         <v>0</v>
@@ -11558,10 +11603,10 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>1725</v>
+        <v>1640</v>
       </c>
       <c r="B212" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -11573,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="F212" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212" s="1" t="b">
         <v>0</v>
@@ -11605,22 +11650,22 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>1733</v>
+        <v>1641</v>
       </c>
       <c r="B213" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C213" t="s">
         <v>3</v>
       </c>
       <c r="D213" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G213" s="1" t="b">
         <v>0</v>
@@ -11652,16 +11697,16 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>1752</v>
+        <v>1646</v>
       </c>
       <c r="B214" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
       </c>
       <c r="D214" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" s="1" t="b">
         <v>0</v>
@@ -11699,10 +11744,10 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>1768</v>
+        <v>1652</v>
       </c>
       <c r="B215" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -11726,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="J215" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215" s="1" t="b">
         <v>0</v>
@@ -11738,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="N215" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O215" s="1" t="b">
         <v>0</v>
@@ -11746,22 +11791,22 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>1790</v>
+        <v>1668</v>
       </c>
       <c r="B216" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
       </c>
       <c r="D216" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F216" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G216" s="1" t="b">
         <v>0</v>
@@ -11793,10 +11838,10 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>1791</v>
+        <v>1672</v>
       </c>
       <c r="B217" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -11840,16 +11885,16 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>1800</v>
+        <v>1704</v>
       </c>
       <c r="B218" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
       </c>
       <c r="D218" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218" s="1" t="b">
         <v>0</v>
@@ -11887,10 +11932,10 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>1805</v>
+        <v>1710</v>
       </c>
       <c r="B219" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -11899,10 +11944,10 @@
         <v>0</v>
       </c>
       <c r="E219" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219" s="1" t="b">
         <v>0</v>
@@ -11934,10 +11979,10 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>1812</v>
+        <v>1716</v>
       </c>
       <c r="B220" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -11981,10 +12026,10 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>1822</v>
+        <v>1720</v>
       </c>
       <c r="B221" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -12028,10 +12073,10 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>1837</v>
+        <v>1725</v>
       </c>
       <c r="B222" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -12075,22 +12120,22 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>1880</v>
+        <v>1733</v>
       </c>
       <c r="B223" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C223" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E223" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223" s="1" t="b">
         <v>0</v>
@@ -12122,10 +12167,10 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>1903</v>
+        <v>1748</v>
       </c>
       <c r="B224" t="s">
-        <v>203</v>
+        <v>378</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -12134,10 +12179,10 @@
         <v>0</v>
       </c>
       <c r="E224" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224" s="1" t="b">
         <v>0</v>
@@ -12169,13 +12214,13 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>1912</v>
+        <v>1752</v>
       </c>
       <c r="B225" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="C225" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>0</v>
@@ -12184,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="F225" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225" s="1" t="b">
         <v>0</v>
@@ -12193,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="I225" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="1" t="b">
         <v>0</v>
@@ -12216,10 +12261,10 @@
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>1935</v>
+        <v>1768</v>
       </c>
       <c r="B226" t="s">
-        <v>204</v>
+        <v>340</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -12231,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="F226" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G226" s="1" t="b">
         <v>0</v>
@@ -12243,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="J226" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K226" s="1" t="b">
         <v>0</v>
@@ -12263,10 +12308,10 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>1952</v>
+        <v>1790</v>
       </c>
       <c r="B227" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -12278,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="F227" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" s="1" t="b">
         <v>0</v>
@@ -12310,10 +12355,10 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>1957</v>
+        <v>1791</v>
       </c>
       <c r="B228" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -12357,16 +12402,16 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>1961</v>
+        <v>1800</v>
       </c>
       <c r="B229" t="s">
-        <v>335</v>
+        <v>197</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
       </c>
       <c r="D229" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229" s="1" t="b">
         <v>0</v>
@@ -12384,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="J229" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K229" s="1" t="b">
         <v>0</v>
@@ -12404,10 +12449,10 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>1974</v>
+        <v>1805</v>
       </c>
       <c r="B230" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -12416,10 +12461,10 @@
         <v>0</v>
       </c>
       <c r="E230" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230" s="1" t="b">
         <v>0</v>
@@ -12451,10 +12496,10 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>1984</v>
+        <v>1812</v>
       </c>
       <c r="B231" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -12478,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="J231" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231" s="1" t="b">
         <v>0</v>
@@ -12490,7 +12535,7 @@
         <v>0</v>
       </c>
       <c r="N231" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O231" s="1" t="b">
         <v>0</v>
@@ -12498,10 +12543,10 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>1991</v>
+        <v>1822</v>
       </c>
       <c r="B232" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -12540,21 +12585,21 @@
         <v>0</v>
       </c>
       <c r="O232" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>2016</v>
+        <v>1837</v>
       </c>
       <c r="B233" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
       </c>
       <c r="D233" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233" s="1" t="b">
         <v>0</v>
@@ -12592,10 +12637,10 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>2027</v>
+        <v>1880</v>
       </c>
       <c r="B234" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -12604,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="E234" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234" s="1" t="b">
         <v>0</v>
@@ -12639,10 +12684,10 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>2037</v>
+        <v>1903</v>
       </c>
       <c r="B235" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -12686,13 +12731,13 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>2047</v>
+        <v>1912</v>
       </c>
       <c r="B236" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="C236" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>0</v>
@@ -12701,7 +12746,7 @@
         <v>0</v>
       </c>
       <c r="F236" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236" s="1" t="b">
         <v>0</v>
@@ -12710,7 +12755,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="1" t="b">
         <v>0</v>
@@ -12733,22 +12778,22 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>2063</v>
+        <v>1935</v>
       </c>
       <c r="B237" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C237" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D237" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E237" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F237" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237" s="1" t="b">
         <v>0</v>
@@ -12780,10 +12825,10 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>2078</v>
+        <v>1952</v>
       </c>
       <c r="B238" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -12792,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="E238" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238" s="1" t="b">
         <v>0</v>
@@ -12827,10 +12872,10 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>2133</v>
+        <v>1957</v>
       </c>
       <c r="B239" t="s">
-        <v>215</v>
+        <v>361</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -12842,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="F239" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G239" s="1" t="b">
         <v>0</v>
@@ -12874,16 +12919,16 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>2138</v>
+        <v>1961</v>
       </c>
       <c r="B240" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
       </c>
       <c r="D240" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E240" s="1" t="b">
         <v>0</v>
@@ -12901,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="J240" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K240" s="1" t="b">
         <v>0</v>
@@ -12921,19 +12966,19 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>2145</v>
+        <v>1974</v>
       </c>
       <c r="B241" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C241" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E241" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241" s="1" t="b">
         <v>0</v>
@@ -12963,15 +13008,15 @@
         <v>0</v>
       </c>
       <c r="O241" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>2148</v>
+        <v>1984</v>
       </c>
       <c r="B242" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -12995,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="J242" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K242" s="1" t="b">
         <v>0</v>
@@ -13007,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="N242" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O242" s="1" t="b">
         <v>0</v>
@@ -13015,10 +13060,10 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>2164</v>
+        <v>1991</v>
       </c>
       <c r="B243" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -13057,21 +13102,21 @@
         <v>0</v>
       </c>
       <c r="O243" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>2169</v>
+        <v>2016</v>
       </c>
       <c r="B244" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
       </c>
       <c r="D244" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244" s="1" t="b">
         <v>0</v>
@@ -13109,10 +13154,10 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>2176</v>
+        <v>2027</v>
       </c>
       <c r="B245" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -13121,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="E245" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245" s="1" t="b">
         <v>0</v>
@@ -13156,19 +13201,19 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>2197</v>
+        <v>2037</v>
       </c>
       <c r="B246" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C246" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E246" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246" s="1" t="b">
         <v>0</v>
@@ -13186,7 +13231,7 @@
         <v>0</v>
       </c>
       <c r="K246" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L246" s="1" t="b">
         <v>0</v>
@@ -13203,10 +13248,10 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>2200</v>
+        <v>2047</v>
       </c>
       <c r="B247" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -13230,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="J247" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K247" s="1" t="b">
         <v>0</v>
@@ -13250,22 +13295,22 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>2206</v>
+        <v>2063</v>
       </c>
       <c r="B248" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C248" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D248" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E248" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F248" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G248" s="1" t="b">
         <v>0</v>
@@ -13297,10 +13342,10 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>2210</v>
+        <v>2078</v>
       </c>
       <c r="B249" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -13309,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="E249" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249" s="1" t="b">
         <v>0</v>
@@ -13344,10 +13389,10 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>2220</v>
+        <v>2119</v>
       </c>
       <c r="B250" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -13391,10 +13436,10 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>2231</v>
+        <v>2133</v>
       </c>
       <c r="B251" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -13406,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="F251" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251" s="1" t="b">
         <v>0</v>
@@ -13415,7 +13460,7 @@
         <v>0</v>
       </c>
       <c r="I251" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" s="1" t="b">
         <v>0</v>
@@ -13438,16 +13483,16 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>2239</v>
+        <v>2138</v>
       </c>
       <c r="B252" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
       </c>
       <c r="D252" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E252" s="1" t="b">
         <v>0</v>
@@ -13485,13 +13530,13 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>2243</v>
+        <v>2145</v>
       </c>
       <c r="B253" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C253" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>0</v>
@@ -13527,15 +13572,15 @@
         <v>0</v>
       </c>
       <c r="O253" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>2255</v>
+        <v>2148</v>
       </c>
       <c r="B254" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -13579,10 +13624,10 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>2264</v>
+        <v>2164</v>
       </c>
       <c r="B255" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -13626,10 +13671,10 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>2273</v>
+        <v>2169</v>
       </c>
       <c r="B256" t="s">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -13641,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="F256" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G256" s="1" t="b">
         <v>0</v>
@@ -13653,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="J256" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K256" s="1" t="b">
         <v>0</v>
@@ -13673,10 +13718,10 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>2283</v>
+        <v>2176</v>
       </c>
       <c r="B257" t="s">
-        <v>349</v>
+        <v>221</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -13688,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="F257" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G257" s="1" t="b">
         <v>0</v>
@@ -13720,16 +13765,16 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>2327</v>
+        <v>2197</v>
       </c>
       <c r="B258" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C258" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D258" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E258" s="1" t="b">
         <v>0</v>
@@ -13750,10 +13795,10 @@
         <v>0</v>
       </c>
       <c r="K258" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L258" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M258" s="1" t="b">
         <v>0</v>
@@ -13767,10 +13812,10 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>2331</v>
+        <v>2200</v>
       </c>
       <c r="B259" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -13785,7 +13830,7 @@
         <v>0</v>
       </c>
       <c r="G259" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259" s="1" t="b">
         <v>0</v>
@@ -13794,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="J259" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K259" s="1" t="b">
         <v>0</v>
@@ -13814,13 +13859,13 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>2353</v>
+        <v>2206</v>
       </c>
       <c r="B260" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C260" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D260" s="1" t="b">
         <v>0</v>
@@ -13838,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="I260" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" s="1" t="b">
         <v>0</v>
@@ -13861,10 +13906,10 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>2389</v>
+        <v>2210</v>
       </c>
       <c r="B261" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -13873,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="E261" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F261" s="1" t="b">
         <v>0</v>
@@ -13897,21 +13942,21 @@
         <v>0</v>
       </c>
       <c r="M261" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N261" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O261" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>2395</v>
+        <v>2220</v>
       </c>
       <c r="B262" t="s">
-        <v>235</v>
+        <v>353</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -13923,7 +13968,7 @@
         <v>0</v>
       </c>
       <c r="F262" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G262" s="1" t="b">
         <v>0</v>
@@ -13955,10 +14000,10 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>2427</v>
+        <v>2231</v>
       </c>
       <c r="B263" t="s">
-        <v>329</v>
+        <v>226</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -13979,7 +14024,7 @@
         <v>0</v>
       </c>
       <c r="I263" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" s="1" t="b">
         <v>0</v>
@@ -14002,10 +14047,10 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>2432</v>
+        <v>2239</v>
       </c>
       <c r="B264" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -14049,10 +14094,10 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>2446</v>
+        <v>2243</v>
       </c>
       <c r="B265" t="s">
-        <v>321</v>
+        <v>228</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -14096,10 +14141,10 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>2451</v>
+        <v>2255</v>
       </c>
       <c r="B266" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -14111,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="F266" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G266" s="1" t="b">
         <v>0</v>
@@ -14143,10 +14188,10 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>2455</v>
+        <v>2264</v>
       </c>
       <c r="B267" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -14190,10 +14235,10 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>2460</v>
+        <v>2273</v>
       </c>
       <c r="B268" t="s">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -14205,7 +14250,7 @@
         <v>0</v>
       </c>
       <c r="F268" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" s="1" t="b">
         <v>0</v>
@@ -14237,10 +14282,10 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>2465</v>
+        <v>2283</v>
       </c>
       <c r="B269" t="s">
-        <v>239</v>
+        <v>349</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -14264,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="J269" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K269" s="1" t="b">
         <v>0</v>
@@ -14284,16 +14329,16 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>2469</v>
+        <v>2327</v>
       </c>
       <c r="B270" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C270" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D270" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E270" s="1" t="b">
         <v>0</v>
@@ -14317,7 +14362,7 @@
         <v>0</v>
       </c>
       <c r="L270" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M270" s="1" t="b">
         <v>0</v>
@@ -14331,10 +14376,10 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271">
-        <v>2481</v>
+        <v>2331</v>
       </c>
       <c r="B271" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -14349,7 +14394,7 @@
         <v>0</v>
       </c>
       <c r="G271" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271" s="1" t="b">
         <v>0</v>
@@ -14378,13 +14423,13 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>2485</v>
+        <v>2353</v>
       </c>
       <c r="B272" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C272" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D272" s="1" t="b">
         <v>0</v>
@@ -14393,7 +14438,7 @@
         <v>0</v>
       </c>
       <c r="F272" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272" s="1" t="b">
         <v>0</v>
@@ -14402,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="I272" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272" s="1" t="b">
         <v>0</v>
@@ -14420,27 +14465,27 @@
         <v>0</v>
       </c>
       <c r="O272" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>2501</v>
+        <v>2389</v>
       </c>
       <c r="B273" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C273" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D273" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E273" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F273" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="1" t="b">
         <v>0</v>
@@ -14467,15 +14512,15 @@
         <v>0</v>
       </c>
       <c r="O273" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>2506</v>
+        <v>2395</v>
       </c>
       <c r="B274" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -14519,10 +14564,10 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275">
-        <v>2520</v>
+        <v>2427</v>
       </c>
       <c r="B275" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -14566,10 +14611,10 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>2544</v>
+        <v>2432</v>
       </c>
       <c r="B276" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -14613,10 +14658,10 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>2562</v>
+        <v>2446</v>
       </c>
       <c r="B277" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -14640,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="J277" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K277" s="1" t="b">
         <v>0</v>
@@ -14660,10 +14705,10 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278">
-        <v>2570</v>
+        <v>2451</v>
       </c>
       <c r="B278" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -14687,7 +14732,7 @@
         <v>0</v>
       </c>
       <c r="J278" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K278" s="1" t="b">
         <v>0</v>
@@ -14707,10 +14752,10 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279">
-        <v>2595</v>
+        <v>2455</v>
       </c>
       <c r="B279" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -14754,10 +14799,10 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>2600</v>
+        <v>2460</v>
       </c>
       <c r="B280" t="s">
-        <v>355</v>
+        <v>238</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -14766,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="E280" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F280" s="1" t="b">
         <v>0</v>
@@ -14781,7 +14826,7 @@
         <v>0</v>
       </c>
       <c r="J280" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K280" s="1" t="b">
         <v>0</v>
@@ -14801,10 +14846,10 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281">
-        <v>2614</v>
+        <v>2465</v>
       </c>
       <c r="B281" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -14816,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="F281" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281" s="1" t="b">
         <v>0</v>
@@ -14828,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="J281" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K281" s="1" t="b">
         <v>0</v>
@@ -14848,10 +14893,10 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>2639</v>
+        <v>2469</v>
       </c>
       <c r="B282" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -14895,10 +14940,10 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>2643</v>
+        <v>2481</v>
       </c>
       <c r="B283" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -14942,10 +14987,10 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>2644</v>
+        <v>2485</v>
       </c>
       <c r="B284" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -14984,27 +15029,27 @@
         <v>0</v>
       </c>
       <c r="O284" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>2651</v>
+        <v>2501</v>
       </c>
       <c r="B285" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C285" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D285" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E285" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F285" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G285" s="1" t="b">
         <v>0</v>
@@ -15025,7 +15070,7 @@
         <v>0</v>
       </c>
       <c r="M285" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N285" s="1" t="b">
         <v>0</v>
@@ -15036,10 +15081,10 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>2656</v>
+        <v>2506</v>
       </c>
       <c r="B286" t="s">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -15048,10 +15093,10 @@
         <v>0</v>
       </c>
       <c r="E286" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F286" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286" s="1" t="b">
         <v>0</v>
@@ -15083,10 +15128,10 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287">
-        <v>2678</v>
+        <v>2520</v>
       </c>
       <c r="B287" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -15130,10 +15175,10 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>2682</v>
+        <v>2544</v>
       </c>
       <c r="B288" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -15145,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="F288" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" s="1" t="b">
         <v>0</v>
@@ -15177,10 +15222,10 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289">
-        <v>2696</v>
+        <v>2562</v>
       </c>
       <c r="B289" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -15204,10 +15249,10 @@
         <v>0</v>
       </c>
       <c r="J289" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K289" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L289" s="1" t="b">
         <v>0</v>
@@ -15224,10 +15269,10 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290">
-        <v>2697</v>
+        <v>2570</v>
       </c>
       <c r="B290" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -15236,10 +15281,10 @@
         <v>0</v>
       </c>
       <c r="E290" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F290" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G290" s="1" t="b">
         <v>0</v>
@@ -15271,10 +15316,10 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>2710</v>
+        <v>2595</v>
       </c>
       <c r="B291" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -15318,10 +15363,10 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292">
-        <v>2744</v>
+        <v>2600</v>
       </c>
       <c r="B292" t="s">
-        <v>260</v>
+        <v>355</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -15330,10 +15375,10 @@
         <v>0</v>
       </c>
       <c r="E292" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F292" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G292" s="1" t="b">
         <v>0</v>
@@ -15365,16 +15410,16 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293">
-        <v>2765</v>
+        <v>2614</v>
       </c>
       <c r="B293" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
       </c>
       <c r="D293" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E293" s="1" t="b">
         <v>0</v>
@@ -15412,10 +15457,10 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>2784</v>
+        <v>2639</v>
       </c>
       <c r="B294" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -15427,7 +15472,7 @@
         <v>0</v>
       </c>
       <c r="F294" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G294" s="1" t="b">
         <v>0</v>
@@ -15459,13 +15504,13 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>2785</v>
+        <v>2643</v>
       </c>
       <c r="B295" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C295" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D295" s="1" t="b">
         <v>0</v>
@@ -15506,16 +15551,16 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>2786</v>
+        <v>2644</v>
       </c>
       <c r="B296" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C296" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D296" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E296" s="1" t="b">
         <v>0</v>
@@ -15553,10 +15598,10 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297">
-        <v>2806</v>
+        <v>2651</v>
       </c>
       <c r="B297" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -15600,10 +15645,10 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>2810</v>
+        <v>2656</v>
       </c>
       <c r="B298" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -15612,7 +15657,7 @@
         <v>0</v>
       </c>
       <c r="E298" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F298" s="1" t="b">
         <v>0</v>
@@ -15647,10 +15692,10 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>2815</v>
+        <v>2670</v>
       </c>
       <c r="B299" t="s">
-        <v>267</v>
+        <v>381</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -15694,10 +15739,10 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300">
-        <v>2839</v>
+        <v>2678</v>
       </c>
       <c r="B300" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -15709,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="F300" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G300" s="1" t="b">
         <v>0</v>
@@ -15741,10 +15786,10 @@
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>2855</v>
+        <v>2682</v>
       </c>
       <c r="B301" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -15756,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="F301" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G301" s="1" t="b">
         <v>0</v>
@@ -15788,10 +15833,10 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>2864</v>
+        <v>2696</v>
       </c>
       <c r="B302" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -15800,7 +15845,7 @@
         <v>0</v>
       </c>
       <c r="E302" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F302" s="1" t="b">
         <v>0</v>
@@ -15818,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="K302" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L302" s="1" t="b">
         <v>0</v>
@@ -15835,19 +15880,19 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>2873</v>
+        <v>2697</v>
       </c>
       <c r="B303" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
       </c>
       <c r="D303" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E303" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F303" s="1" t="b">
         <v>0</v>
@@ -15862,7 +15907,7 @@
         <v>0</v>
       </c>
       <c r="J303" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K303" s="1" t="b">
         <v>0</v>
@@ -15882,10 +15927,10 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>2899</v>
+        <v>2710</v>
       </c>
       <c r="B304" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -15929,22 +15974,22 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>2900</v>
+        <v>2744</v>
       </c>
       <c r="B305" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
       </c>
       <c r="D305" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E305" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F305" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G305" s="1" t="b">
         <v>0</v>
@@ -15976,16 +16021,16 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>2928</v>
+        <v>2765</v>
       </c>
       <c r="B306" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
       </c>
       <c r="D306" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E306" s="1" t="b">
         <v>0</v>
@@ -16023,13 +16068,13 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>2929</v>
+        <v>2784</v>
       </c>
       <c r="B307" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C307" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D307" s="1" t="b">
         <v>0</v>
@@ -16038,7 +16083,7 @@
         <v>0</v>
       </c>
       <c r="F307" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G307" s="1" t="b">
         <v>0</v>
@@ -16070,16 +16115,16 @@
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>2944</v>
+        <v>2785</v>
       </c>
       <c r="B308" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C308" t="s">
         <v>3</v>
       </c>
       <c r="D308" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E308" s="1" t="b">
         <v>0</v>
@@ -16094,7 +16139,7 @@
         <v>0</v>
       </c>
       <c r="I308" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" s="1" t="b">
         <v>0</v>
@@ -16103,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="L308" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M308" s="1" t="b">
         <v>0</v>
@@ -16117,16 +16162,16 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>2960</v>
+        <v>2786</v>
       </c>
       <c r="B309" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="C309" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D309" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E309" s="1" t="b">
         <v>0</v>
@@ -16164,10 +16209,10 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>2965</v>
+        <v>2806</v>
       </c>
       <c r="B310" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -16179,7 +16224,7 @@
         <v>0</v>
       </c>
       <c r="F310" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G310" s="1" t="b">
         <v>0</v>
@@ -16211,10 +16256,10 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>2974</v>
+        <v>2810</v>
       </c>
       <c r="B311" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -16235,7 +16280,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" s="1" t="b">
         <v>0</v>
@@ -16258,10 +16303,10 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>3005</v>
+        <v>2815</v>
       </c>
       <c r="B312" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -16305,10 +16350,10 @@
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>3014</v>
+        <v>2839</v>
       </c>
       <c r="B313" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -16317,10 +16362,10 @@
         <v>0</v>
       </c>
       <c r="E313" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F313" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G313" s="1" t="b">
         <v>0</v>
@@ -16352,10 +16397,10 @@
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314">
-        <v>3019</v>
+        <v>2855</v>
       </c>
       <c r="B314" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -16399,10 +16444,10 @@
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315">
-        <v>3079</v>
+        <v>2864</v>
       </c>
       <c r="B315" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -16411,7 +16456,7 @@
         <v>0</v>
       </c>
       <c r="E315" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F315" s="1" t="b">
         <v>0</v>
@@ -16446,22 +16491,22 @@
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>3090</v>
+        <v>2873</v>
       </c>
       <c r="B316" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
       </c>
       <c r="D316" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E316" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F316" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G316" s="1" t="b">
         <v>0</v>
@@ -16485,7 +16530,7 @@
         <v>0</v>
       </c>
       <c r="N316" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O316" s="1" t="b">
         <v>0</v>
@@ -16493,10 +16538,10 @@
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317">
-        <v>3110</v>
+        <v>2899</v>
       </c>
       <c r="B317" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -16540,22 +16585,22 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>3120</v>
+        <v>2900</v>
       </c>
       <c r="B318" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
       </c>
       <c r="D318" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E318" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F318" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G318" s="1" t="b">
         <v>0</v>
@@ -16587,10 +16632,10 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319">
-        <v>3142</v>
+        <v>2928</v>
       </c>
       <c r="B319" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -16634,13 +16679,13 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320">
-        <v>3158</v>
+        <v>2929</v>
       </c>
       <c r="B320" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C320" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D320" s="1" t="b">
         <v>0</v>
@@ -16649,7 +16694,7 @@
         <v>0</v>
       </c>
       <c r="F320" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G320" s="1" t="b">
         <v>0</v>
@@ -16681,16 +16726,16 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321">
-        <v>3174</v>
+        <v>2944</v>
       </c>
       <c r="B321" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D321" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E321" s="1" t="b">
         <v>0</v>
@@ -16705,16 +16750,16 @@
         <v>0</v>
       </c>
       <c r="I321" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J321" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K321" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L321" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M321" s="1" t="b">
         <v>0</v>
@@ -16728,10 +16773,10 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322">
-        <v>3190</v>
+        <v>2960</v>
       </c>
       <c r="B322" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -16775,10 +16820,10 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323">
-        <v>3194</v>
+        <v>2965</v>
       </c>
       <c r="B323" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -16790,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="F323" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G323" s="1" t="b">
         <v>0</v>
@@ -16802,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="J323" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K323" s="1" t="b">
         <v>0</v>
@@ -16822,16 +16867,16 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>3201</v>
+        <v>2974</v>
       </c>
       <c r="B324" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C324" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D324" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E324" s="1" t="b">
         <v>0</v>
@@ -16846,7 +16891,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J324" s="1" t="b">
         <v>0</v>
@@ -16869,10 +16914,10 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325">
-        <v>3210</v>
+        <v>3005</v>
       </c>
       <c r="B325" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -16884,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="F325" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G325" s="1" t="b">
         <v>0</v>
@@ -16916,10 +16961,10 @@
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>3222</v>
+        <v>3014</v>
       </c>
       <c r="B326" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -16928,7 +16973,7 @@
         <v>0</v>
       </c>
       <c r="E326" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F326" s="1" t="b">
         <v>0</v>
@@ -16963,13 +17008,13 @@
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>3227</v>
+        <v>3019</v>
       </c>
       <c r="B327" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C327" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D327" s="1" t="b">
         <v>0</v>
@@ -17010,10 +17055,10 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>3258</v>
+        <v>3079</v>
       </c>
       <c r="B328" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -17049,7 +17094,7 @@
         <v>0</v>
       </c>
       <c r="N328" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O328" s="1" t="b">
         <v>0</v>
@@ -17057,10 +17102,10 @@
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>3264</v>
+        <v>3090</v>
       </c>
       <c r="B329" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -17072,7 +17117,7 @@
         <v>0</v>
       </c>
       <c r="F329" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G329" s="1" t="b">
         <v>0</v>
@@ -17081,7 +17126,7 @@
         <v>0</v>
       </c>
       <c r="I329" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" s="1" t="b">
         <v>0</v>
@@ -17096,7 +17141,7 @@
         <v>0</v>
       </c>
       <c r="N329" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O329" s="1" t="b">
         <v>0</v>
@@ -17104,16 +17149,16 @@
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>3270</v>
+        <v>3105</v>
       </c>
       <c r="B330" t="s">
-        <v>291</v>
+        <v>375</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
       </c>
       <c r="D330" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E330" s="1" t="b">
         <v>0</v>
@@ -17151,13 +17196,13 @@
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331">
-        <v>3286</v>
+        <v>3110</v>
       </c>
       <c r="B331" t="s">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="C331" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D331" s="1" t="b">
         <v>0</v>
@@ -17172,10 +17217,10 @@
         <v>0</v>
       </c>
       <c r="H331" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" s="1" t="b">
         <v>0</v>
@@ -17198,10 +17243,10 @@
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332">
-        <v>3314</v>
+        <v>3120</v>
       </c>
       <c r="B332" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -17213,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="F332" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G332" s="1" t="b">
         <v>0</v>
@@ -17245,10 +17290,10 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333">
-        <v>3330</v>
+        <v>3142</v>
       </c>
       <c r="B333" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -17292,10 +17337,10 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334">
-        <v>3360</v>
+        <v>3158</v>
       </c>
       <c r="B334" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -17307,7 +17352,7 @@
         <v>0</v>
       </c>
       <c r="F334" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334" s="1" t="b">
         <v>0</v>
@@ -17339,10 +17384,10 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335">
-        <v>3379</v>
+        <v>3174</v>
       </c>
       <c r="B335" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -17369,7 +17414,7 @@
         <v>0</v>
       </c>
       <c r="K335" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L335" s="1" t="b">
         <v>0</v>
@@ -17386,10 +17431,10 @@
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336">
-        <v>3392</v>
+        <v>3190</v>
       </c>
       <c r="B336" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -17433,10 +17478,10 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337">
-        <v>3396</v>
+        <v>3194</v>
       </c>
       <c r="B337" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -17448,7 +17493,7 @@
         <v>0</v>
       </c>
       <c r="F337" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G337" s="1" t="b">
         <v>0</v>
@@ -17460,7 +17505,7 @@
         <v>0</v>
       </c>
       <c r="J337" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K337" s="1" t="b">
         <v>0</v>
@@ -17480,22 +17525,22 @@
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338">
-        <v>3408</v>
+        <v>3201</v>
       </c>
       <c r="B338" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C338" t="s">
         <v>3</v>
       </c>
       <c r="D338" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E338" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F338" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G338" s="1" t="b">
         <v>0</v>
@@ -17504,7 +17549,7 @@
         <v>0</v>
       </c>
       <c r="I338" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J338" s="1" t="b">
         <v>0</v>
@@ -17527,10 +17572,10 @@
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339">
-        <v>3423</v>
+        <v>3210</v>
       </c>
       <c r="B339" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -17574,10 +17619,10 @@
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340">
-        <v>3438</v>
+        <v>3222</v>
       </c>
       <c r="B340" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -17589,7 +17634,7 @@
         <v>0</v>
       </c>
       <c r="F340" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G340" s="1" t="b">
         <v>0</v>
@@ -17621,13 +17666,13 @@
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341">
-        <v>3442</v>
+        <v>3227</v>
       </c>
       <c r="B341" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C341" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D341" s="1" t="b">
         <v>0</v>
@@ -17636,7 +17681,7 @@
         <v>0</v>
       </c>
       <c r="F341" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G341" s="1" t="b">
         <v>0</v>
@@ -17668,10 +17713,10 @@
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342">
-        <v>3452</v>
+        <v>3258</v>
       </c>
       <c r="B342" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -17707,7 +17752,7 @@
         <v>0</v>
       </c>
       <c r="N342" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O342" s="1" t="b">
         <v>0</v>
@@ -17715,10 +17760,10 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343">
-        <v>3467</v>
+        <v>3264</v>
       </c>
       <c r="B343" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -17739,7 +17784,7 @@
         <v>0</v>
       </c>
       <c r="I343" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J343" s="1" t="b">
         <v>0</v>
@@ -17762,16 +17807,16 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344">
-        <v>3469</v>
+        <v>3270</v>
       </c>
       <c r="B344" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C344" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D344" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E344" s="1" t="b">
         <v>0</v>
@@ -17809,13 +17854,13 @@
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345">
-        <v>3483</v>
+        <v>3286</v>
       </c>
       <c r="B345" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C345" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D345" s="1" t="b">
         <v>0</v>
@@ -17824,16 +17869,16 @@
         <v>0</v>
       </c>
       <c r="F345" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G345" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H345" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I345" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" s="1" t="b">
         <v>0</v>
@@ -17856,13 +17901,13 @@
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346">
-        <v>3484</v>
+        <v>3314</v>
       </c>
       <c r="B346" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C346" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D346" s="1" t="b">
         <v>0</v>
@@ -17871,7 +17916,7 @@
         <v>0</v>
       </c>
       <c r="F346" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G346" s="1" t="b">
         <v>0</v>
@@ -17903,10 +17948,10 @@
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>3492</v>
+        <v>3330</v>
       </c>
       <c r="B347" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -17950,13 +17995,13 @@
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348">
-        <v>3508</v>
+        <v>3360</v>
       </c>
       <c r="B348" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C348" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D348" s="1" t="b">
         <v>0</v>
@@ -17965,7 +18010,7 @@
         <v>0</v>
       </c>
       <c r="F348" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G348" s="1" t="b">
         <v>0</v>
@@ -17983,10 +18028,10 @@
         <v>0</v>
       </c>
       <c r="L348" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M348" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N348" s="1" t="b">
         <v>0</v>
@@ -17997,10 +18042,10 @@
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349">
-        <v>3516</v>
+        <v>3379</v>
       </c>
       <c r="B349" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -18044,10 +18089,10 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>3541</v>
+        <v>3392</v>
       </c>
       <c r="B350" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -18059,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="F350" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G350" s="1" t="b">
         <v>0</v>
@@ -18091,10 +18136,10 @@
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>3602</v>
+        <v>3396</v>
       </c>
       <c r="B351" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -18138,13 +18183,13 @@
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>3606</v>
+        <v>3408</v>
       </c>
       <c r="B352" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C352" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D352" s="1" t="b">
         <v>0</v>
@@ -18162,7 +18207,7 @@
         <v>0</v>
       </c>
       <c r="I352" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J352" s="1" t="b">
         <v>0</v>
@@ -18185,10 +18230,10 @@
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353">
-        <v>3622</v>
+        <v>3423</v>
       </c>
       <c r="B353" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -18232,10 +18277,10 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354">
-        <v>3633</v>
+        <v>3438</v>
       </c>
       <c r="B354" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -18244,10 +18289,10 @@
         <v>0</v>
       </c>
       <c r="E354" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F354" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G354" s="1" t="b">
         <v>0</v>
@@ -18259,7 +18304,7 @@
         <v>0</v>
       </c>
       <c r="J354" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K354" s="1" t="b">
         <v>0</v>
@@ -18268,7 +18313,7 @@
         <v>0</v>
       </c>
       <c r="M354" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N354" s="1" t="b">
         <v>0</v>
@@ -18279,54 +18324,759 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355">
+        <v>3442</v>
+      </c>
+      <c r="B355" t="s">
+        <v>302</v>
+      </c>
+      <c r="C355" t="s">
+        <v>5</v>
+      </c>
+      <c r="D355" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E355" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F355" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G355" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H355" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I355" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J355" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K355" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L355" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M355" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N355" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O355" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>3452</v>
+      </c>
+      <c r="B356" t="s">
+        <v>322</v>
+      </c>
+      <c r="C356" t="s">
+        <v>5</v>
+      </c>
+      <c r="D356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O356" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>3467</v>
+      </c>
+      <c r="B357" t="s">
+        <v>303</v>
+      </c>
+      <c r="C357" t="s">
+        <v>5</v>
+      </c>
+      <c r="D357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O357" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>3469</v>
+      </c>
+      <c r="B358" t="s">
+        <v>304</v>
+      </c>
+      <c r="C358" t="s">
+        <v>3</v>
+      </c>
+      <c r="D358" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E358" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F358" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G358" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H358" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I358" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J358" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K358" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L358" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M358" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N358" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O358" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>3483</v>
+      </c>
+      <c r="B359" t="s">
+        <v>305</v>
+      </c>
+      <c r="C359" t="s">
+        <v>5</v>
+      </c>
+      <c r="D359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F359" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O359" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>3484</v>
+      </c>
+      <c r="B360" t="s">
+        <v>306</v>
+      </c>
+      <c r="C360" t="s">
+        <v>3</v>
+      </c>
+      <c r="D360" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E360" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F360" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G360" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H360" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I360" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J360" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K360" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L360" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M360" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N360" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O360" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>3492</v>
+      </c>
+      <c r="B361" t="s">
+        <v>344</v>
+      </c>
+      <c r="C361" t="s">
+        <v>5</v>
+      </c>
+      <c r="D361" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E361" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F361" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G361" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H361" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I361" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J361" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K361" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L361" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M361" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N361" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O361" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>3502</v>
+      </c>
+      <c r="B362" t="s">
+        <v>371</v>
+      </c>
+      <c r="C362" t="s">
+        <v>5</v>
+      </c>
+      <c r="D362" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E362" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F362" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G362" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H362" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I362" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J362" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K362" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L362" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M362" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N362" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O362" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>3508</v>
+      </c>
+      <c r="B363" t="s">
+        <v>313</v>
+      </c>
+      <c r="C363" t="s">
+        <v>3</v>
+      </c>
+      <c r="D363" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E363" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F363" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G363" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H363" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I363" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J363" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K363" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L363" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M363" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N363" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O363" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>3516</v>
+      </c>
+      <c r="B364" t="s">
+        <v>307</v>
+      </c>
+      <c r="C364" t="s">
+        <v>5</v>
+      </c>
+      <c r="D364" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E364" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F364" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G364" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H364" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I364" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J364" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K364" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L364" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M364" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N364" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O364" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>3541</v>
+      </c>
+      <c r="B365" t="s">
+        <v>308</v>
+      </c>
+      <c r="C365" t="s">
+        <v>5</v>
+      </c>
+      <c r="D365" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E365" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F365" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G365" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H365" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I365" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J365" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K365" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L365" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M365" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N365" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O365" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>3602</v>
+      </c>
+      <c r="B366" t="s">
+        <v>323</v>
+      </c>
+      <c r="C366" t="s">
+        <v>5</v>
+      </c>
+      <c r="D366" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E366" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F366" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G366" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H366" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I366" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J366" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K366" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L366" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M366" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N366" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O366" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>3606</v>
+      </c>
+      <c r="B367" t="s">
+        <v>309</v>
+      </c>
+      <c r="C367" t="s">
+        <v>5</v>
+      </c>
+      <c r="D367" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E367" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F367" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G367" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H367" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I367" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J367" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K367" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L367" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M367" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N367" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O367" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>3622</v>
+      </c>
+      <c r="B368" t="s">
+        <v>310</v>
+      </c>
+      <c r="C368" t="s">
+        <v>5</v>
+      </c>
+      <c r="D368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O368" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>3633</v>
+      </c>
+      <c r="B369" t="s">
+        <v>311</v>
+      </c>
+      <c r="C369" t="s">
+        <v>5</v>
+      </c>
+      <c r="D369" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E369" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F369" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G369" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H369" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I369" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J369" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K369" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L369" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M369" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N369" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O369" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A370">
         <v>3637</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B370" t="s">
         <v>312</v>
       </c>
-      <c r="C355" t="s">
-        <v>5</v>
-      </c>
-      <c r="D355" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E355" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F355" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G355" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H355" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I355" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J355" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K355" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L355" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M355" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N355" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O355" s="1" t="b">
+      <c r="C370" t="s">
+        <v>5</v>
+      </c>
+      <c r="D370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O370" s="1" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O355">
-    <sortCondition ref="A2:A355"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O370">
+    <sortCondition ref="A2:A370"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18788,7 +19538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790A8F57-0B16-477D-8506-F68AF8EF6B65}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -18813,7 +19563,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:C63">_xlfn._xlws.FILTER(all!A:C,all!D:D=TRUE)</f>
+        <f t="array" ref="A2:C65">_xlfn._xlws.FILTER(all!A:C,all!D:D=TRUE)</f>
         <v>45</v>
       </c>
       <c r="B2" t="str">
@@ -19188,21 +19938,21 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>873</v>
+        <v>821</v>
       </c>
       <c r="B36" t="str">
-        <v>length of longest fibonacci subsequence</v>
+        <v>shortest distance to a character</v>
       </c>
       <c r="C36" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B37" t="str">
-        <v>stone game</v>
+        <v>length of longest fibonacci subsequence</v>
       </c>
       <c r="C37" t="str">
         <v>medium</v>
@@ -19210,32 +19960,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="B38" t="str">
-        <v>super egg drop</v>
+        <v>stone game</v>
       </c>
       <c r="C38" t="str">
-        <v>hard</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>983</v>
+        <v>887</v>
       </c>
       <c r="B39" t="str">
-        <v>minimum cost for tickets</v>
+        <v>super egg drop</v>
       </c>
       <c r="C39" t="str">
-        <v>medium</v>
+        <v>hard</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>1014</v>
+        <v>983</v>
       </c>
       <c r="B40" t="str">
-        <v>best sightseeing pair</v>
+        <v>minimum cost for tickets</v>
       </c>
       <c r="C40" t="str">
         <v>medium</v>
@@ -19243,10 +19993,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>1140</v>
+        <v>1014</v>
       </c>
       <c r="B41" t="str">
-        <v>stone game ii</v>
+        <v>best sightseeing pair</v>
       </c>
       <c r="C41" t="str">
         <v>medium</v>
@@ -19254,10 +20004,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>1218</v>
+        <v>1140</v>
       </c>
       <c r="B42" t="str">
-        <v>longest arithmetic subsequence of given difference</v>
+        <v>stone game ii</v>
       </c>
       <c r="C42" t="str">
         <v>medium</v>
@@ -19265,21 +20015,21 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>1406</v>
+        <v>1218</v>
       </c>
       <c r="B43" t="str">
-        <v>stone game iii</v>
+        <v>longest arithmetic subsequence of given difference</v>
       </c>
       <c r="C43" t="str">
-        <v>hard</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>1510</v>
+        <v>1406</v>
       </c>
       <c r="B44" t="str">
-        <v>stone game iv</v>
+        <v>stone game iii</v>
       </c>
       <c r="C44" t="str">
         <v>hard</v>
@@ -19287,21 +20037,21 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>1524</v>
+        <v>1510</v>
       </c>
       <c r="B45" t="str">
-        <v>number of sub arrays with odd sum</v>
+        <v>stone game iv</v>
       </c>
       <c r="C45" t="str">
-        <v>medium</v>
+        <v>hard</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>1594</v>
+        <v>1524</v>
       </c>
       <c r="B46" t="str">
-        <v>maximum non negative product in a matrix</v>
+        <v>number of sub arrays with odd sum</v>
       </c>
       <c r="C46" t="str">
         <v>medium</v>
@@ -19309,10 +20059,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>1621</v>
+        <v>1594</v>
       </c>
       <c r="B47" t="str">
-        <v>number of sets of k non overlapping line segments</v>
+        <v>maximum non negative product in a matrix</v>
       </c>
       <c r="C47" t="str">
         <v>medium</v>
@@ -19320,10 +20070,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>1641</v>
+        <v>1621</v>
       </c>
       <c r="B48" t="str">
-        <v>count sorted vowel strings</v>
+        <v>number of sets of k non overlapping line segments</v>
       </c>
       <c r="C48" t="str">
         <v>medium</v>
@@ -19331,21 +20081,21 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="B49" t="str">
-        <v>get maximum in generated array</v>
+        <v>count sorted vowel strings</v>
       </c>
       <c r="C49" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>1668</v>
+        <v>1646</v>
       </c>
       <c r="B50" t="str">
-        <v>maximum repeating substring</v>
+        <v>get maximum in generated array</v>
       </c>
       <c r="C50" t="str">
         <v>easy</v>
@@ -19353,10 +20103,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>1800</v>
+        <v>1668</v>
       </c>
       <c r="B51" t="str">
-        <v>maximum ascending subarray sum</v>
+        <v>maximum repeating substring</v>
       </c>
       <c r="C51" t="str">
         <v>easy</v>
@@ -19364,10 +20114,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2016</v>
+        <v>1800</v>
       </c>
       <c r="B52" t="str">
-        <v>maximum difference between increasing elements</v>
+        <v>maximum ascending subarray sum</v>
       </c>
       <c r="C52" t="str">
         <v>easy</v>
@@ -19375,43 +20125,43 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2063</v>
+        <v>2016</v>
       </c>
       <c r="B53" t="str">
-        <v>vowels of all substrings</v>
+        <v>maximum difference between increasing elements</v>
       </c>
       <c r="C53" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2138</v>
+        <v>2063</v>
       </c>
       <c r="B54" t="str">
-        <v>divide a string into groups of size k</v>
+        <v>vowels of all substrings</v>
       </c>
       <c r="C54" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2327</v>
+        <v>2138</v>
       </c>
       <c r="B55" t="str">
-        <v>number of people aware of a secret</v>
+        <v>divide a string into groups of size k</v>
       </c>
       <c r="C55" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2501</v>
+        <v>2327</v>
       </c>
       <c r="B56" t="str">
-        <v>longest square streak in an array</v>
+        <v>number of people aware of a secret</v>
       </c>
       <c r="C56" t="str">
         <v>medium</v>
@@ -19419,43 +20169,43 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2765</v>
+        <v>2501</v>
       </c>
       <c r="B57" t="str">
-        <v>longest alternating subarray</v>
+        <v>longest square streak in an array</v>
       </c>
       <c r="C57" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2786</v>
+        <v>2765</v>
       </c>
       <c r="B58" t="str">
-        <v>visit array positions to maximize score</v>
+        <v>longest alternating subarray</v>
       </c>
       <c r="C58" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2873</v>
+        <v>2786</v>
       </c>
       <c r="B59" t="str">
-        <v>maximum value of an ordered triplet i</v>
+        <v>visit array positions to maximize score</v>
       </c>
       <c r="C59" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2900</v>
+        <v>2873</v>
       </c>
       <c r="B60" t="str">
-        <v>longest unequal adjacent groups subsequence i</v>
+        <v>maximum value of an ordered triplet i</v>
       </c>
       <c r="C60" t="str">
         <v>easy</v>
@@ -19463,21 +20213,21 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2944</v>
+        <v>2900</v>
       </c>
       <c r="B61" t="str">
-        <v>minimum number of coins for fruits</v>
+        <v>longest unequal adjacent groups subsequence i</v>
       </c>
       <c r="C61" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>3201</v>
+        <v>2944</v>
       </c>
       <c r="B62" t="str">
-        <v>find the maximum length of valid subsequence i</v>
+        <v>minimum number of coins for fruits</v>
       </c>
       <c r="C62" t="str">
         <v>medium</v>
@@ -19485,12 +20235,34 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
+        <v>3105</v>
+      </c>
+      <c r="B63" t="str">
+        <v>longest strictly increasing or strictly decreasing subarray</v>
+      </c>
+      <c r="C63" t="str">
+        <v>easy</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>3201</v>
+      </c>
+      <c r="B64" t="str">
+        <v>find the maximum length of valid subsequence i</v>
+      </c>
+      <c r="C64" t="str">
+        <v>medium</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>3469</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B65" t="str">
         <v>find minimum cost to remove array elements</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C65" t="str">
         <v>medium</v>
       </c>
     </row>
@@ -19807,7 +20579,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5445672E-B545-49AE-922B-8D6F36FDAC2C}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19832,7 +20604,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:C69">_xlfn._xlws.FILTER(all!A:C,all!F:F=TRUE)</f>
+        <f t="array" ref="A2:C75">_xlfn._xlws.FILTER(all!A:C,all!F:F=TRUE)</f>
         <v>1</v>
       </c>
       <c r="B2" t="str">
@@ -19998,10 +20770,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="B17" t="str">
-        <v>next greater element i</v>
+        <v>find all numbers disappeared in an array</v>
       </c>
       <c r="C17" t="str">
         <v>easy</v>
@@ -20009,10 +20781,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B18" t="str">
-        <v>keyboard row</v>
+        <v>next greater element i</v>
       </c>
       <c r="C18" t="str">
         <v>easy</v>
@@ -20020,10 +20792,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="B19" t="str">
-        <v>distribute candies</v>
+        <v>keyboard row</v>
       </c>
       <c r="C19" t="str">
         <v>easy</v>
@@ -20031,10 +20803,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="B20" t="str">
-        <v>minimum index sum of two lists</v>
+        <v>distribute candies</v>
       </c>
       <c r="C20" t="str">
         <v>easy</v>
@@ -20042,10 +20814,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>645</v>
+        <v>599</v>
       </c>
       <c r="B21" t="str">
-        <v>set mismatch</v>
+        <v>minimum index sum of two lists</v>
       </c>
       <c r="C21" t="str">
         <v>easy</v>
@@ -20053,10 +20825,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>748</v>
+        <v>645</v>
       </c>
       <c r="B22" t="str">
-        <v>shortest completing word</v>
+        <v>set mismatch</v>
       </c>
       <c r="C22" t="str">
         <v>easy</v>
@@ -20064,10 +20836,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="B23" t="str">
-        <v>jewels and stones</v>
+        <v>shortest completing word</v>
       </c>
       <c r="C23" t="str">
         <v>easy</v>
@@ -20075,21 +20847,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>873</v>
+        <v>771</v>
       </c>
       <c r="B24" t="str">
-        <v>length of longest fibonacci subsequence</v>
+        <v>jewels and stones</v>
       </c>
       <c r="C24" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>966</v>
+        <v>873</v>
       </c>
       <c r="B25" t="str">
-        <v>vowel spellchecker</v>
+        <v>length of longest fibonacci subsequence</v>
       </c>
       <c r="C25" t="str">
         <v>medium</v>
@@ -20097,21 +20869,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>1128</v>
+        <v>966</v>
       </c>
       <c r="B26" t="str">
-        <v>number of equivalent domino pairs</v>
+        <v>vowel spellchecker</v>
       </c>
       <c r="C26" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1189</v>
+        <v>1128</v>
       </c>
       <c r="B27" t="str">
-        <v>maximum number of balloons</v>
+        <v>number of equivalent domino pairs</v>
       </c>
       <c r="C27" t="str">
         <v>easy</v>
@@ -20119,21 +20891,21 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>1218</v>
+        <v>1160</v>
       </c>
       <c r="B28" t="str">
-        <v>longest arithmetic subsequence of given difference</v>
+        <v>find words that can be formed by characters</v>
       </c>
       <c r="C28" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>1331</v>
+        <v>1189</v>
       </c>
       <c r="B29" t="str">
-        <v>rank transform of an array</v>
+        <v>maximum number of balloons</v>
       </c>
       <c r="C29" t="str">
         <v>easy</v>
@@ -20141,21 +20913,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>1346</v>
+        <v>1218</v>
       </c>
       <c r="B30" t="str">
-        <v>check if n and its double exist</v>
+        <v>longest arithmetic subsequence of given difference</v>
       </c>
       <c r="C30" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>1394</v>
+        <v>1331</v>
       </c>
       <c r="B31" t="str">
-        <v>find lucky integer in an array</v>
+        <v>rank transform of an array</v>
       </c>
       <c r="C31" t="str">
         <v>easy</v>
@@ -20163,10 +20935,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>1507</v>
+        <v>1346</v>
       </c>
       <c r="B32" t="str">
-        <v>reformat date</v>
+        <v>check if n and its double exist</v>
       </c>
       <c r="C32" t="str">
         <v>easy</v>
@@ -20174,10 +20946,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>1640</v>
+        <v>1394</v>
       </c>
       <c r="B33" t="str">
-        <v>check array formation through concatenation</v>
+        <v>find lucky integer in an array</v>
       </c>
       <c r="C33" t="str">
         <v>easy</v>
@@ -20185,21 +20957,21 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>1733</v>
+        <v>1399</v>
       </c>
       <c r="B34" t="str">
-        <v>minimum number of people to teach</v>
+        <v>count largest group</v>
       </c>
       <c r="C34" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>1790</v>
+        <v>1507</v>
       </c>
       <c r="B35" t="str">
-        <v>check if one string swap can make strings equal</v>
+        <v>reformat date</v>
       </c>
       <c r="C35" t="str">
         <v>easy</v>
@@ -20207,10 +20979,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>1805</v>
+        <v>1624</v>
       </c>
       <c r="B36" t="str">
-        <v>number of different integers in a string</v>
+        <v>largest substring between two equal characters</v>
       </c>
       <c r="C36" t="str">
         <v>easy</v>
@@ -20218,32 +20990,32 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>1912</v>
+        <v>1640</v>
       </c>
       <c r="B37" t="str">
-        <v>design movie rental system</v>
+        <v>check array formation through concatenation</v>
       </c>
       <c r="C37" t="str">
-        <v>hard</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>1935</v>
+        <v>1733</v>
       </c>
       <c r="B38" t="str">
-        <v>maximum number of words you can type</v>
+        <v>minimum number of people to teach</v>
       </c>
       <c r="C38" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2133</v>
+        <v>1748</v>
       </c>
       <c r="B39" t="str">
-        <v>check if every row and column contains all numbers</v>
+        <v>sum of unique elements</v>
       </c>
       <c r="C39" t="str">
         <v>easy</v>
@@ -20251,10 +21023,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2206</v>
+        <v>1790</v>
       </c>
       <c r="B40" t="str">
-        <v>divide array into equal pairs</v>
+        <v>check if one string swap can make strings equal</v>
       </c>
       <c r="C40" t="str">
         <v>easy</v>
@@ -20262,10 +21034,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2273</v>
+        <v>1805</v>
       </c>
       <c r="B41" t="str">
-        <v>find resultant array after removing anagrams</v>
+        <v>number of different integers in a string</v>
       </c>
       <c r="C41" t="str">
         <v>easy</v>
@@ -20273,32 +21045,32 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2283</v>
+        <v>1912</v>
       </c>
       <c r="B42" t="str">
-        <v>check if number has equal digit count and digit value</v>
+        <v>design movie rental system</v>
       </c>
       <c r="C42" t="str">
-        <v>easy</v>
+        <v>hard</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2353</v>
+        <v>1935</v>
       </c>
       <c r="B43" t="str">
-        <v>design a food rating system</v>
+        <v>maximum number of words you can type</v>
       </c>
       <c r="C43" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2395</v>
+        <v>2133</v>
       </c>
       <c r="B44" t="str">
-        <v>find subarrays with equal sum</v>
+        <v>check if every row and column contains all numbers</v>
       </c>
       <c r="C44" t="str">
         <v>easy</v>
@@ -20306,10 +21078,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2451</v>
+        <v>2206</v>
       </c>
       <c r="B45" t="str">
-        <v>check if n and its double exist</v>
+        <v>divide array into equal pairs</v>
       </c>
       <c r="C45" t="str">
         <v>easy</v>
@@ -20317,10 +21089,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2465</v>
+        <v>2273</v>
       </c>
       <c r="B46" t="str">
-        <v>number of distinct averages</v>
+        <v>find resultant array after removing anagrams</v>
       </c>
       <c r="C46" t="str">
         <v>easy</v>
@@ -20328,32 +21100,32 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2501</v>
+        <v>2283</v>
       </c>
       <c r="B47" t="str">
-        <v>longest square streak in an array</v>
+        <v>check if number has equal digit count and digit value</v>
       </c>
       <c r="C47" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2506</v>
+        <v>2353</v>
       </c>
       <c r="B48" t="str">
-        <v>count pairs of similar strings</v>
+        <v>design a food rating system</v>
       </c>
       <c r="C48" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2570</v>
+        <v>2395</v>
       </c>
       <c r="B49" t="str">
-        <v>merge two 2d arrays by summing values</v>
+        <v>find subarrays with equal sum</v>
       </c>
       <c r="C49" t="str">
         <v>easy</v>
@@ -20361,10 +21133,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2682</v>
+        <v>2451</v>
       </c>
       <c r="B50" t="str">
-        <v>find the losers of the circular game</v>
+        <v>check if n and its double exist</v>
       </c>
       <c r="C50" t="str">
         <v>easy</v>
@@ -20372,10 +21144,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2744</v>
+        <v>2465</v>
       </c>
       <c r="B51" t="str">
-        <v>find maximum number of string pairs</v>
+        <v>number of distinct averages</v>
       </c>
       <c r="C51" t="str">
         <v>easy</v>
@@ -20383,21 +21155,21 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2784</v>
+        <v>2501</v>
       </c>
       <c r="B52" t="str">
-        <v>check if array is good</v>
+        <v>longest square streak in an array</v>
       </c>
       <c r="C52" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2815</v>
+        <v>2506</v>
       </c>
       <c r="B53" t="str">
-        <v>max pair sum in an array</v>
+        <v>count pairs of similar strings</v>
       </c>
       <c r="C53" t="str">
         <v>easy</v>
@@ -20405,10 +21177,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2839</v>
+        <v>2570</v>
       </c>
       <c r="B54" t="str">
-        <v>check if strings can be made equal with operations i</v>
+        <v>merge two 2d arrays by summing values</v>
       </c>
       <c r="C54" t="str">
         <v>easy</v>
@@ -20416,10 +21188,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2965</v>
+        <v>2670</v>
       </c>
       <c r="B55" t="str">
-        <v>find missing and repeated values</v>
+        <v>find the distinct difference array</v>
       </c>
       <c r="C55" t="str">
         <v>easy</v>
@@ -20427,10 +21199,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>3005</v>
+        <v>2682</v>
       </c>
       <c r="B56" t="str">
-        <v>count elements with maximum frequency</v>
+        <v>find the losers of the circular game</v>
       </c>
       <c r="C56" t="str">
         <v>easy</v>
@@ -20438,10 +21210,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>3090</v>
+        <v>2744</v>
       </c>
       <c r="B57" t="str">
-        <v>maximum length substring with two occurrences</v>
+        <v>find maximum number of string pairs</v>
       </c>
       <c r="C57" t="str">
         <v>easy</v>
@@ -20449,10 +21221,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>3120</v>
+        <v>2784</v>
       </c>
       <c r="B58" t="str">
-        <v>count the number of special characters i</v>
+        <v>check if array is good</v>
       </c>
       <c r="C58" t="str">
         <v>easy</v>
@@ -20460,10 +21232,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>3158</v>
+        <v>2815</v>
       </c>
       <c r="B59" t="str">
-        <v>find the xor of numbers which appear twice</v>
+        <v>max pair sum in an array</v>
       </c>
       <c r="C59" t="str">
         <v>easy</v>
@@ -20471,10 +21243,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>3396</v>
+        <v>2839</v>
       </c>
       <c r="B60" t="str">
-        <v>minimum number of operations to make elements in array distinct</v>
+        <v>check if strings can be made equal with operations i</v>
       </c>
       <c r="C60" t="str">
         <v>easy</v>
@@ -20482,21 +21254,21 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>3408</v>
+        <v>2965</v>
       </c>
       <c r="B61" t="str">
-        <v>design task manager</v>
+        <v>find missing and repeated values</v>
       </c>
       <c r="C61" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>3438</v>
+        <v>3005</v>
       </c>
       <c r="B62" t="str">
-        <v>find valid pair of adjacent digits in string</v>
+        <v>count elements with maximum frequency</v>
       </c>
       <c r="C62" t="str">
         <v>easy</v>
@@ -20504,10 +21276,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>3442</v>
+        <v>3090</v>
       </c>
       <c r="B63" t="str">
-        <v>maximum difference between even and odd frequency i</v>
+        <v>maximum length substring with two occurrences</v>
       </c>
       <c r="C63" t="str">
         <v>easy</v>
@@ -20515,10 +21287,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>3483</v>
+        <v>3120</v>
       </c>
       <c r="B64" t="str">
-        <v>unique 3 digit even numbers</v>
+        <v>count the number of special characters i</v>
       </c>
       <c r="C64" t="str">
         <v>easy</v>
@@ -20526,43 +21298,43 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>3484</v>
+        <v>3158</v>
       </c>
       <c r="B65" t="str">
-        <v>design spreadsheet</v>
+        <v>find the xor of numbers which appear twice</v>
       </c>
       <c r="C65" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>3508</v>
+        <v>3396</v>
       </c>
       <c r="B66" t="str">
-        <v>implement router</v>
+        <v>minimum number of operations to make elements in array distinct</v>
       </c>
       <c r="C66" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>3541</v>
+        <v>3408</v>
       </c>
       <c r="B67" t="str">
-        <v>find most frequent vowel and consonant</v>
+        <v>design task manager</v>
       </c>
       <c r="C67" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>3602</v>
+        <v>3438</v>
       </c>
       <c r="B68" t="str">
-        <v>hexadecimal and hexatrigesimal conversion</v>
+        <v>find valid pair of adjacent digits in string</v>
       </c>
       <c r="C68" t="str">
         <v>easy</v>
@@ -20570,12 +21342,78 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
+        <v>3442</v>
+      </c>
+      <c r="B69" t="str">
+        <v>maximum difference between even and odd frequency i</v>
+      </c>
+      <c r="C69" t="str">
+        <v>easy</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>3483</v>
+      </c>
+      <c r="B70" t="str">
+        <v>unique 3 digit even numbers</v>
+      </c>
+      <c r="C70" t="str">
+        <v>easy</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>3484</v>
+      </c>
+      <c r="B71" t="str">
+        <v>design spreadsheet</v>
+      </c>
+      <c r="C71" t="str">
+        <v>medium</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>3508</v>
+      </c>
+      <c r="B72" t="str">
+        <v>implement router</v>
+      </c>
+      <c r="C72" t="str">
+        <v>medium</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>3541</v>
+      </c>
+      <c r="B73" t="str">
+        <v>find most frequent vowel and consonant</v>
+      </c>
+      <c r="C73" t="str">
+        <v>easy</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>3602</v>
+      </c>
+      <c r="B74" t="str">
+        <v>hexadecimal and hexatrigesimal conversion</v>
+      </c>
+      <c r="C74" t="str">
+        <v>easy</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>3606</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B75" t="str">
         <v>coupon code validator</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C75" t="str">
         <v>easy</v>
       </c>
     </row>
@@ -20586,7 +21424,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15705E4-6725-4E7D-BB54-F142158F63B3}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20611,7 +21449,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:C41">_xlfn._xlws.FILTER(all!A:C,all!G:G=TRUE)</f>
+        <f t="array" ref="A2:C43">_xlfn._xlws.FILTER(all!A:C,all!G:G=TRUE)</f>
         <v>46</v>
       </c>
       <c r="B2" t="str">
@@ -20909,10 +21747,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="B29" t="str">
-        <v>subtree of another tree</v>
+        <v>diameter of binary tree</v>
       </c>
       <c r="C29" t="str">
         <v>easy</v>
@@ -20920,10 +21758,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="B30" t="str">
-        <v>n ary tree postorder traversal</v>
+        <v>subtree of another tree</v>
       </c>
       <c r="C30" t="str">
         <v>easy</v>
@@ -20931,10 +21769,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="B31" t="str">
-        <v>merge two binary trees</v>
+        <v>n ary tree postorder traversal</v>
       </c>
       <c r="C31" t="str">
         <v>easy</v>
@@ -20942,10 +21780,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="B32" t="str">
-        <v>two sum iv input is a bst</v>
+        <v>merge two binary trees</v>
       </c>
       <c r="C32" t="str">
         <v>easy</v>
@@ -20953,21 +21791,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="B33" t="str">
-        <v>maximum width of binary tree</v>
+        <v>average of levels in binary tree</v>
       </c>
       <c r="C33" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="B34" t="str">
-        <v>second minimum node in a binary tree</v>
+        <v>two sum iv input is a bst</v>
       </c>
       <c r="C34" t="str">
         <v>easy</v>
@@ -20975,10 +21813,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="B35" t="str">
-        <v>max area of island</v>
+        <v>maximum width of binary tree</v>
       </c>
       <c r="C35" t="str">
         <v>medium</v>
@@ -20986,10 +21824,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>700</v>
+        <v>671</v>
       </c>
       <c r="B36" t="str">
-        <v>search in a binary search tree</v>
+        <v>second minimum node in a binary tree</v>
       </c>
       <c r="C36" t="str">
         <v>easy</v>
@@ -20997,10 +21835,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>785</v>
+        <v>695</v>
       </c>
       <c r="B37" t="str">
-        <v>is graph bipartite</v>
+        <v>max area of island</v>
       </c>
       <c r="C37" t="str">
         <v>medium</v>
@@ -21008,32 +21846,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>949</v>
+        <v>700</v>
       </c>
       <c r="B38" t="str">
-        <v>largest time for given digits</v>
+        <v>search in a binary search tree</v>
       </c>
       <c r="C38" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>993</v>
+        <v>785</v>
       </c>
       <c r="B39" t="str">
-        <v>cousins in binary tree</v>
+        <v>is graph bipartite</v>
       </c>
       <c r="C39" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>1254</v>
+        <v>949</v>
       </c>
       <c r="B40" t="str">
-        <v>number of closed islands</v>
+        <v>largest time for given digits</v>
       </c>
       <c r="C40" t="str">
         <v>medium</v>
@@ -21041,12 +21879,34 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
+        <v>993</v>
+      </c>
+      <c r="B41" t="str">
+        <v>cousins in binary tree</v>
+      </c>
+      <c r="C41" t="str">
+        <v>easy</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1254</v>
+      </c>
+      <c r="B42" t="str">
+        <v>number of closed islands</v>
+      </c>
+      <c r="C42" t="str">
+        <v>medium</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>2331</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B43" t="str">
         <v>evaluate boolean binary tree</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C43" t="str">
         <v>easy</v>
       </c>
     </row>
@@ -21057,7 +21917,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A381B61-99A9-49DB-8CD0-8F54D570C992}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21082,7 +21942,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:C21">_xlfn._xlws.FILTER(all!A:C,all!H:H=TRUE)</f>
+        <f t="array" ref="A2:C22">_xlfn._xlws.FILTER(all!A:C,all!H:H=TRUE)</f>
         <v>100</v>
       </c>
       <c r="B2" t="str">
@@ -21215,10 +22075,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B14" t="str">
-        <v>two sum iv input is a bst</v>
+        <v>average of levels in binary tree</v>
       </c>
       <c r="C14" t="str">
         <v>easy</v>
@@ -21226,21 +22086,21 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B15" t="str">
-        <v>maximum width of binary tree</v>
+        <v>two sum iv input is a bst</v>
       </c>
       <c r="C15" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="B16" t="str">
-        <v>max area of island</v>
+        <v>maximum width of binary tree</v>
       </c>
       <c r="C16" t="str">
         <v>medium</v>
@@ -21248,56 +22108,67 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B17" t="str">
-        <v>search in a binary search tree</v>
+        <v>max area of island</v>
       </c>
       <c r="C17" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>785</v>
+        <v>700</v>
       </c>
       <c r="B18" t="str">
-        <v>is graph bipartite</v>
+        <v>search in a binary search tree</v>
       </c>
       <c r="C18" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>993</v>
+        <v>785</v>
       </c>
       <c r="B19" t="str">
-        <v>cousins in binary tree</v>
+        <v>is graph bipartite</v>
       </c>
       <c r="C19" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1254</v>
+        <v>993</v>
       </c>
       <c r="B20" t="str">
-        <v>number of closed islands</v>
+        <v>cousins in binary tree</v>
       </c>
       <c r="C20" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
+        <v>1254</v>
+      </c>
+      <c r="B21" t="str">
+        <v>number of closed islands</v>
+      </c>
+      <c r="C21" t="str">
+        <v>medium</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>3286</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B22" t="str">
         <v>find a safe walk through a grid</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C22" t="str">
         <v>medium</v>
       </c>
     </row>
@@ -21308,7 +22179,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4919AE2-1BF6-4BDB-9B93-F94C04EF5ACE}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21333,7 +22204,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:C16">_xlfn._xlws.FILTER(all!A:C,all!I:I=TRUE)</f>
+        <f t="array" ref="A2:C17">_xlfn._xlws.FILTER(all!A:C,all!I:I=TRUE)</f>
         <v>264</v>
       </c>
       <c r="B2" t="str">
@@ -21389,10 +22260,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1337</v>
+        <v>1046</v>
       </c>
       <c r="B7" t="str">
-        <v>the k weakest rows in a matrix</v>
+        <v>last stone weight</v>
       </c>
       <c r="C7" t="str">
         <v>easy</v>
@@ -21400,10 +22271,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1464</v>
+        <v>1337</v>
       </c>
       <c r="B8" t="str">
-        <v>maximum product of two elements in an array</v>
+        <v>the k weakest rows in a matrix</v>
       </c>
       <c r="C8" t="str">
         <v>easy</v>
@@ -21411,43 +22282,43 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1912</v>
+        <v>1464</v>
       </c>
       <c r="B9" t="str">
-        <v>design movie rental system</v>
+        <v>maximum product of two elements in an array</v>
       </c>
       <c r="C9" t="str">
-        <v>hard</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2231</v>
+        <v>1912</v>
       </c>
       <c r="B10" t="str">
-        <v>largest number after digit swaps by parity</v>
+        <v>design movie rental system</v>
       </c>
       <c r="C10" t="str">
-        <v>easy</v>
+        <v>hard</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2353</v>
+        <v>2231</v>
       </c>
       <c r="B11" t="str">
-        <v>design a food rating system</v>
+        <v>largest number after digit swaps by parity</v>
       </c>
       <c r="C11" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2944</v>
+        <v>2353</v>
       </c>
       <c r="B12" t="str">
-        <v>minimum number of coins for fruits</v>
+        <v>design a food rating system</v>
       </c>
       <c r="C12" t="str">
         <v>medium</v>
@@ -21455,21 +22326,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2974</v>
+        <v>2944</v>
       </c>
       <c r="B13" t="str">
-        <v>minimum number game</v>
+        <v>minimum number of coins for fruits</v>
       </c>
       <c r="C13" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>3264</v>
+        <v>2974</v>
       </c>
       <c r="B14" t="str">
-        <v>final array state after k multiplication operations i</v>
+        <v>minimum number game</v>
       </c>
       <c r="C14" t="str">
         <v>easy</v>
@@ -21477,23 +22348,34 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>3286</v>
+        <v>3264</v>
       </c>
       <c r="B15" t="str">
-        <v>find a safe walk through a grid</v>
+        <v>final array state after k multiplication operations i</v>
       </c>
       <c r="C15" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
+        <v>3286</v>
+      </c>
+      <c r="B16" t="str">
+        <v>find a safe walk through a grid</v>
+      </c>
+      <c r="C16" t="str">
+        <v>medium</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>3408</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B17" t="str">
         <v>design task manager</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C17" t="str">
         <v>medium</v>
       </c>
     </row>

--- a/leetcode solved.xlsx
+++ b/leetcode solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_4148941535628924160/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{C1A55483-AB76-F94B-BBD6-8ADDF97EB37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD6389D-87E2-44C7-B223-2E6F7D5EAE18}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="13_ncr:1_{C1A55483-AB76-F94B-BBD6-8ADDF97EB37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE15E65C-DF7B-457C-8104-133C4CC5094B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="657" xr2:uid="{91E0AC5C-A444-432A-817A-1683DD81F561}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="389">
   <si>
     <t>number</t>
   </si>
@@ -1225,6 +1225,18 @@
   </si>
   <si>
     <t>count largest group</t>
+  </si>
+  <si>
+    <t>power of two</t>
+  </si>
+  <si>
+    <t>valid triangle number</t>
+  </si>
+  <si>
+    <t>greatest common divisor of strings</t>
+  </si>
+  <si>
+    <t>largest triangle area</t>
   </si>
 </sst>
 </file>
@@ -1669,11 +1681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B397E5-2FB9-4768-8CC2-2F3499152878}">
-  <dimension ref="A1:O370"/>
+  <dimension ref="A1:O374"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4787,10 +4799,10 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B67" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -4814,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1" t="b">
         <v>0</v>
@@ -4834,10 +4846,10 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>339</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -4849,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1" t="b">
         <v>0</v>
@@ -4861,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1" t="b">
         <v>0</v>
@@ -4881,10 +4893,10 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -4896,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="F69" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>0</v>
@@ -4928,10 +4940,10 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -4946,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="1" t="b">
         <v>0</v>
@@ -4975,22 +4987,22 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F71" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1" t="b">
         <v>0</v>
@@ -4999,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="1" t="b">
         <v>0</v>
@@ -5022,22 +5034,22 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="1" t="b">
         <v>0</v>
@@ -5046,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="1" t="b">
         <v>0</v>
@@ -5069,16 +5081,16 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" s="1" t="b">
         <v>0</v>
@@ -5090,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="1" t="b">
         <v>0</v>
@@ -5116,16 +5128,16 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1" t="b">
         <v>0</v>
@@ -5137,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="H74" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J74" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1" t="b">
         <v>0</v>
@@ -5163,10 +5175,10 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -5190,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1" t="b">
         <v>0</v>
@@ -5210,16 +5222,16 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1" t="b">
         <v>0</v>
@@ -5246,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76" s="1" t="b">
         <v>0</v>
@@ -5257,10 +5269,10 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -5293,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" s="1" t="b">
         <v>0</v>
@@ -5304,10 +5316,10 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -5328,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="1" t="b">
         <v>0</v>
@@ -5351,10 +5363,10 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -5372,10 +5384,10 @@
         <v>0</v>
       </c>
       <c r="H79" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" s="1" t="b">
         <v>0</v>
@@ -5398,13 +5410,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>1</v>
@@ -5416,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" s="1" t="b">
         <v>1</v>
@@ -5445,13 +5457,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B81" t="s">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>1</v>
@@ -5466,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="1" t="b">
         <v>0</v>
@@ -5492,13 +5504,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>1</v>
@@ -5510,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>0</v>
@@ -5539,16 +5551,16 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="1" t="b">
         <v>0</v>
@@ -5586,10 +5598,10 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -5613,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="1" t="b">
         <v>0</v>
@@ -5633,10 +5645,10 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -5680,10 +5692,10 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -5695,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="1" t="b">
         <v>0</v>
@@ -5707,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="1" t="b">
         <v>0</v>
@@ -5727,10 +5739,10 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -5774,10 +5786,10 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -5789,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="1" t="b">
         <v>0</v>
@@ -5810,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" s="1" t="b">
         <v>0</v>
@@ -5821,10 +5833,10 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -5836,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="1" t="b">
         <v>0</v>
@@ -5854,10 +5866,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89" s="1" t="b">
         <v>0</v>
@@ -5868,10 +5880,10 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B90" t="s">
-        <v>316</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -5901,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" s="1" t="b">
         <v>0</v>
@@ -5915,22 +5927,22 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F91" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="1" t="b">
         <v>0</v>
@@ -5942,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" s="1" t="b">
         <v>0</v>
@@ -5962,19 +5974,19 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E92" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" s="1" t="b">
         <v>0</v>
@@ -5989,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="1" t="b">
         <v>0</v>
@@ -6009,28 +6021,28 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G93" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="1" t="b">
         <v>0</v>
@@ -6056,10 +6068,10 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -6074,10 +6086,10 @@
         <v>0</v>
       </c>
       <c r="G94" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="1" t="b">
         <v>0</v>
@@ -6103,10 +6115,10 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -6115,10 +6127,10 @@
         <v>0</v>
       </c>
       <c r="E95" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" s="1" t="b">
         <v>0</v>
@@ -6150,10 +6162,10 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -6162,10 +6174,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="1" t="b">
         <v>0</v>
@@ -6174,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="1" t="b">
         <v>0</v>
@@ -6197,13 +6209,13 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" s="1" t="b">
         <v>0</v>
@@ -6215,13 +6227,13 @@
         <v>0</v>
       </c>
       <c r="G97" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I97" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" s="1" t="b">
         <v>0</v>
@@ -6244,13 +6256,13 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="B98" t="s">
-        <v>380</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" s="1" t="b">
         <v>0</v>
@@ -6259,10 +6271,10 @@
         <v>0</v>
       </c>
       <c r="F98" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" s="1" t="b">
         <v>0</v>
@@ -6291,10 +6303,10 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B99" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -6306,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="1" t="b">
         <v>0</v>
@@ -6318,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="1" t="b">
         <v>0</v>
@@ -6338,10 +6350,10 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -6365,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="1" t="b">
         <v>0</v>
@@ -6385,16 +6397,16 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1" t="b">
         <v>0</v>
@@ -6403,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="b">
         <v>0</v>
@@ -6432,25 +6444,25 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D102" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F102" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" s="1" t="b">
         <v>0</v>
@@ -6462,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" s="1" t="b">
         <v>0</v>
@@ -6479,10 +6491,10 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -6509,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" s="1" t="b">
         <v>0</v>
@@ -6526,10 +6538,10 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -6541,10 +6553,10 @@
         <v>0</v>
       </c>
       <c r="F104" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1" t="b">
         <v>0</v>
@@ -6573,16 +6585,16 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" s="1" t="b">
         <v>0</v>
@@ -6591,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" s="1" t="b">
         <v>0</v>
@@ -6620,13 +6632,13 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D106" s="1" t="b">
         <v>1</v>
@@ -6667,16 +6679,16 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D107" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" s="1" t="b">
         <v>0</v>
@@ -6714,10 +6726,10 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -6732,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" s="1" t="b">
         <v>0</v>
@@ -6761,10 +6773,10 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B109" t="s">
-        <v>370</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -6808,10 +6820,10 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>370</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -6820,13 +6832,13 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G110" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" s="1" t="b">
         <v>0</v>
@@ -6855,10 +6867,10 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -6867,13 +6879,13 @@
         <v>0</v>
       </c>
       <c r="E111" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G111" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" s="1" t="b">
         <v>0</v>
@@ -6902,10 +6914,10 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -6917,10 +6929,10 @@
         <v>0</v>
       </c>
       <c r="F112" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -6949,10 +6961,10 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -6964,10 +6976,10 @@
         <v>0</v>
       </c>
       <c r="F113" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" s="1" t="b">
         <v>0</v>
@@ -6996,10 +7008,10 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -7014,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" s="1" t="b">
         <v>0</v>
@@ -7043,10 +7055,10 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -7058,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" s="1" t="b">
         <v>0</v>
@@ -7090,10 +7102,10 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="B116" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -7105,13 +7117,13 @@
         <v>0</v>
       </c>
       <c r="F116" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" s="1" t="b">
         <v>0</v>
@@ -7137,13 +7149,13 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="B117" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D117" s="1" t="b">
         <v>0</v>
@@ -7155,16 +7167,16 @@
         <v>0</v>
       </c>
       <c r="G117" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J117" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117" s="1" t="b">
         <v>0</v>
@@ -7173,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N117" s="1" t="b">
         <v>0</v>
@@ -7184,10 +7196,10 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -7202,10 +7214,10 @@
         <v>0</v>
       </c>
       <c r="G118" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" s="1" t="b">
         <v>0</v>
@@ -7223,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="N118" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O118" s="1" t="b">
         <v>0</v>
@@ -7231,10 +7243,10 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>382</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -7246,13 +7258,13 @@
         <v>0</v>
       </c>
       <c r="F119" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" s="1" t="b">
         <v>0</v>
@@ -7278,19 +7290,19 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C120" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D120" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" s="1" t="b">
         <v>0</v>
@@ -7317,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O120" s="1" t="b">
         <v>0</v>
@@ -7325,10 +7337,10 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B121" t="s">
-        <v>366</v>
+        <v>114</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -7340,13 +7352,13 @@
         <v>0</v>
       </c>
       <c r="F121" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" s="1" t="b">
         <v>0</v>
@@ -7372,28 +7384,28 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C122" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G122" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" s="1" t="b">
         <v>0</v>
@@ -7419,10 +7431,10 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="B123" t="s">
-        <v>117</v>
+        <v>366</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -7440,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="H123" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" s="1" t="b">
         <v>0</v>
@@ -7466,34 +7478,34 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D124" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E124" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G124" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J124" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" s="1" t="b">
         <v>0</v>
@@ -7513,13 +7525,13 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="B125" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C125" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D125" s="1" t="b">
         <v>0</v>
@@ -7534,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="H125" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" s="1" t="b">
         <v>0</v>
@@ -7560,10 +7572,10 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -7572,22 +7584,22 @@
         <v>0</v>
       </c>
       <c r="E126" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G126" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J126" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" s="1" t="b">
         <v>0</v>
@@ -7607,13 +7619,13 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D127" s="1" t="b">
         <v>0</v>
@@ -7625,10 +7637,10 @@
         <v>0</v>
       </c>
       <c r="G127" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" s="1" t="b">
         <v>0</v>
@@ -7643,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127" s="1" t="b">
         <v>0</v>
@@ -7654,16 +7666,16 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="B128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D128" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" s="1" t="b">
         <v>0</v>
@@ -7672,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="G128" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" s="1" t="b">
         <v>0</v>
@@ -7701,10 +7713,10 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="B129" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -7748,13 +7760,13 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>746</v>
+        <v>714</v>
       </c>
       <c r="B130" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D130" s="1" t="b">
         <v>1</v>
@@ -7795,10 +7807,10 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B131" t="s">
-        <v>359</v>
+        <v>122</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -7819,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" s="1" t="b">
         <v>0</v>
@@ -7831,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" s="1" t="b">
         <v>0</v>
@@ -7842,22 +7854,22 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F132" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" s="1" t="b">
         <v>0</v>
@@ -7889,10 +7901,10 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>771</v>
+        <v>747</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>359</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -7904,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="F133" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" s="1" t="b">
         <v>0</v>
@@ -7913,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" s="1" t="b">
         <v>0</v>
@@ -7936,13 +7948,13 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>785</v>
+        <v>748</v>
       </c>
       <c r="B134" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C134" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D134" s="1" t="b">
         <v>0</v>
@@ -7951,13 +7963,13 @@
         <v>0</v>
       </c>
       <c r="F134" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" s="1" t="b">
         <v>0</v>
@@ -7983,22 +7995,22 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>821</v>
+        <v>771</v>
       </c>
       <c r="B135" t="s">
-        <v>383</v>
+        <v>125</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F135" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" s="1" t="b">
         <v>0</v>
@@ -8030,13 +8042,13 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>830</v>
+        <v>785</v>
       </c>
       <c r="B136" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D136" s="1" t="b">
         <v>0</v>
@@ -8048,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="G136" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" s="1" t="b">
         <v>0</v>
@@ -8077,16 +8089,15 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="B137" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="1" t="b">
-        <f>O137</f>
         <v>0</v>
       </c>
       <c r="E137" s="1" t="b">
@@ -8108,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137" s="1" t="b">
         <v>0</v>
@@ -8125,19 +8136,19 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>860</v>
+        <v>821</v>
       </c>
       <c r="B138" t="s">
-        <v>128</v>
+        <v>383</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
       </c>
       <c r="D138" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" s="1" t="b">
         <v>0</v>
@@ -8172,10 +8183,10 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>867</v>
+        <v>830</v>
       </c>
       <c r="B139" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -8219,15 +8230,16 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>868</v>
+        <v>844</v>
       </c>
       <c r="B140" t="s">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="1" t="b">
+        <f>O140</f>
         <v>0</v>
       </c>
       <c r="E140" s="1" t="b">
@@ -8249,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" s="1" t="b">
         <v>0</v>
@@ -8266,22 +8278,22 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="B141" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C141" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D141" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" s="1" t="b">
         <v>0</v>
@@ -8313,10 +8325,10 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="B142" t="s">
-        <v>336</v>
+        <v>129</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -8340,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" s="1" t="b">
         <v>0</v>
@@ -8360,16 +8372,16 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="B143" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C143" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D143" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" s="1" t="b">
         <v>0</v>
@@ -8407,13 +8419,13 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="B144" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D144" s="1" t="b">
         <v>1</v>
@@ -8422,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="F144" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" s="1" t="b">
         <v>0</v>
@@ -8454,10 +8466,10 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>908</v>
+        <v>876</v>
       </c>
       <c r="B145" t="s">
-        <v>134</v>
+        <v>336</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -8481,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" s="1" t="b">
         <v>0</v>
@@ -8501,16 +8513,16 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>917</v>
+        <v>877</v>
       </c>
       <c r="B146" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D146" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" s="1" t="b">
         <v>0</v>
@@ -8528,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" s="1" t="b">
         <v>0</v>
@@ -8548,16 +8560,16 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>922</v>
+        <v>887</v>
       </c>
       <c r="B147" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D147" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" s="1" t="b">
         <v>0</v>
@@ -8575,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" s="1" t="b">
         <v>0</v>
@@ -8595,10 +8607,10 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="B148" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -8622,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148" s="1" t="b">
         <v>0</v>
@@ -8642,25 +8654,25 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>949</v>
+        <v>917</v>
       </c>
       <c r="B149" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C149" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D149" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E149" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G149" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" s="1" t="b">
         <v>0</v>
@@ -8669,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" s="1" t="b">
         <v>0</v>
@@ -8689,13 +8701,13 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>966</v>
+        <v>922</v>
       </c>
       <c r="B150" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C150" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D150" s="1" t="b">
         <v>0</v>
@@ -8704,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="F150" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" s="1" t="b">
         <v>0</v>
@@ -8716,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" s="1" t="b">
         <v>0</v>
@@ -8736,10 +8748,10 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>976</v>
+        <v>925</v>
       </c>
       <c r="B151" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -8748,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" s="1" t="b">
         <v>0</v>
@@ -8763,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" s="1" t="b">
         <v>0</v>
@@ -8783,25 +8795,25 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="B152" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C152" t="s">
         <v>3</v>
       </c>
       <c r="D152" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G152" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" s="1" t="b">
         <v>0</v>
@@ -8819,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="M152" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N152" s="1" t="b">
         <v>0</v>
@@ -8830,13 +8842,13 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>993</v>
+        <v>966</v>
       </c>
       <c r="B153" t="s">
-        <v>358</v>
+        <v>139</v>
       </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D153" s="1" t="b">
         <v>0</v>
@@ -8845,13 +8857,13 @@
         <v>0</v>
       </c>
       <c r="F153" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" s="1" t="b">
         <v>0</v>
@@ -8877,10 +8889,10 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>999</v>
+        <v>976</v>
       </c>
       <c r="B154" t="s">
-        <v>362</v>
+        <v>140</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -8889,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" s="1" t="b">
         <v>0</v>
@@ -8924,16 +8936,16 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="B155" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D155" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" s="1" t="b">
         <v>0</v>
@@ -8948,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" s="1" t="b">
         <v>0</v>
@@ -8960,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="M155" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155" s="1" t="b">
         <v>0</v>
@@ -8971,10 +8983,10 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="B156" t="s">
-        <v>143</v>
+        <v>358</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -8989,10 +9001,10 @@
         <v>0</v>
       </c>
       <c r="G156" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" s="1" t="b">
         <v>0</v>
@@ -9018,10 +9030,10 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="B157" t="s">
-        <v>144</v>
+        <v>362</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -9060,21 +9072,21 @@
         <v>0</v>
       </c>
       <c r="O157" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="B158" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C158" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D158" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" s="1" t="b">
         <v>0</v>
@@ -9089,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" s="1" t="b">
         <v>0</v>
@@ -9112,10 +9124,10 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="B159" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -9159,10 +9171,10 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>1037</v>
+        <v>1013</v>
       </c>
       <c r="B160" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -9201,21 +9213,21 @@
         <v>0</v>
       </c>
       <c r="O160" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>1046</v>
+        <v>1014</v>
       </c>
       <c r="B161" t="s">
-        <v>373</v>
+        <v>145</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D161" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" s="1" t="b">
         <v>0</v>
@@ -9230,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" s="1" t="b">
         <v>0</v>
@@ -9253,10 +9265,10 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>1047</v>
+        <v>1025</v>
       </c>
       <c r="B162" t="s">
-        <v>147</v>
+        <v>328</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -9283,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="K162" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L162" s="1" t="b">
         <v>0</v>
@@ -9300,10 +9312,10 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="B163" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -9347,10 +9359,10 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>1078</v>
+        <v>1046</v>
       </c>
       <c r="B164" t="s">
-        <v>149</v>
+        <v>373</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -9371,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" s="1" t="b">
         <v>0</v>
@@ -9394,10 +9406,10 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>1089</v>
+        <v>1047</v>
       </c>
       <c r="B165" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -9421,10 +9433,10 @@
         <v>0</v>
       </c>
       <c r="J165" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L165" s="1" t="b">
         <v>0</v>
@@ -9441,10 +9453,10 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>1103</v>
+        <v>1051</v>
       </c>
       <c r="B166" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -9488,10 +9500,10 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>1128</v>
+        <v>1071</v>
       </c>
       <c r="B167" t="s">
-        <v>152</v>
+        <v>387</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -9503,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="F167" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" s="1" t="b">
         <v>0</v>
@@ -9535,16 +9547,16 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>1140</v>
+        <v>1078</v>
       </c>
       <c r="B168" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C168" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D168" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168" s="1" t="b">
         <v>0</v>
@@ -9577,15 +9589,15 @@
         <v>0</v>
       </c>
       <c r="O168" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>1154</v>
+        <v>1089</v>
       </c>
       <c r="B169" t="s">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -9609,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169" s="1" t="b">
         <v>0</v>
@@ -9629,10 +9641,10 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>1160</v>
+        <v>1103</v>
       </c>
       <c r="B170" t="s">
-        <v>377</v>
+        <v>151</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -9644,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="F170" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170" s="1" t="b">
         <v>0</v>
@@ -9676,10 +9688,10 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>1175</v>
+        <v>1128</v>
       </c>
       <c r="B171" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -9691,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" s="1" t="b">
         <v>0</v>
@@ -9723,16 +9735,16 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>1185</v>
+        <v>1140</v>
       </c>
       <c r="B172" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D172" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172" s="1" t="b">
         <v>0</v>
@@ -9765,15 +9777,15 @@
         <v>0</v>
       </c>
       <c r="O172" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>1189</v>
+        <v>1154</v>
       </c>
       <c r="B173" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -9785,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="F173" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" s="1" t="b">
         <v>0</v>
@@ -9817,10 +9829,10 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="B174" t="s">
-        <v>156</v>
+        <v>377</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -9832,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" s="1" t="b">
         <v>0</v>
@@ -9864,22 +9876,22 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>1218</v>
+        <v>1175</v>
       </c>
       <c r="B175" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C175" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D175" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F175" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" s="1" t="b">
         <v>0</v>
@@ -9911,13 +9923,13 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>1254</v>
+        <v>1185</v>
       </c>
       <c r="B176" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C176" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D176" s="1" t="b">
         <v>0</v>
@@ -9929,10 +9941,10 @@
         <v>0</v>
       </c>
       <c r="G176" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" s="1" t="b">
         <v>0</v>
@@ -9958,10 +9970,10 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>1266</v>
+        <v>1189</v>
       </c>
       <c r="B177" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -9973,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="F177" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" s="1" t="b">
         <v>0</v>
@@ -10005,10 +10017,10 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>1281</v>
+        <v>1200</v>
       </c>
       <c r="B178" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -10052,22 +10064,22 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>1287</v>
+        <v>1218</v>
       </c>
       <c r="B179" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D179" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F179" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" s="1" t="b">
         <v>0</v>
@@ -10099,13 +10111,13 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>1290</v>
+        <v>1254</v>
       </c>
       <c r="B180" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D180" s="1" t="b">
         <v>0</v>
@@ -10117,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="G180" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" s="1" t="b">
         <v>0</v>
@@ -10146,10 +10158,10 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>1304</v>
+        <v>1266</v>
       </c>
       <c r="B181" t="s">
-        <v>162</v>
+        <v>372</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -10193,10 +10205,10 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>1313</v>
+        <v>1281</v>
       </c>
       <c r="B182" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -10240,10 +10252,10 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>1317</v>
+        <v>1287</v>
       </c>
       <c r="B183" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -10287,10 +10299,10 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>1331</v>
+        <v>1290</v>
       </c>
       <c r="B184" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -10302,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="F184" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" s="1" t="b">
         <v>0</v>
@@ -10334,10 +10346,10 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>1332</v>
+        <v>1304</v>
       </c>
       <c r="B185" t="s">
-        <v>357</v>
+        <v>162</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -10361,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K185" s="1" t="b">
         <v>0</v>
@@ -10381,10 +10393,10 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>1337</v>
+        <v>1313</v>
       </c>
       <c r="B186" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -10405,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" s="1" t="b">
         <v>0</v>
@@ -10417,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="M186" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N186" s="1" t="b">
         <v>0</v>
@@ -10428,10 +10440,10 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>1342</v>
+        <v>1317</v>
       </c>
       <c r="B187" t="s">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -10475,10 +10487,10 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>1346</v>
+        <v>1331</v>
       </c>
       <c r="B188" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -10522,10 +10534,10 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>1356</v>
+        <v>1332</v>
       </c>
       <c r="B189" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -10549,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K189" s="1" t="b">
         <v>0</v>
@@ -10569,10 +10581,10 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>1374</v>
+        <v>1337</v>
       </c>
       <c r="B190" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -10593,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" s="1" t="b">
         <v>0</v>
@@ -10605,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="M190" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N190" s="1" t="b">
         <v>0</v>
@@ -10616,10 +10628,10 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>1389</v>
+        <v>1342</v>
       </c>
       <c r="B191" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -10663,10 +10675,10 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>1394</v>
+        <v>1346</v>
       </c>
       <c r="B192" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -10710,10 +10722,10 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>1399</v>
+        <v>1356</v>
       </c>
       <c r="B193" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -10725,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" s="1" t="b">
         <v>0</v>
@@ -10757,16 +10769,16 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>1406</v>
+        <v>1374</v>
       </c>
       <c r="B194" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D194" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194" s="1" t="b">
         <v>0</v>
@@ -10804,10 +10816,10 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>1417</v>
+        <v>1389</v>
       </c>
       <c r="B195" t="s">
-        <v>171</v>
+        <v>347</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -10851,10 +10863,10 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>1431</v>
+        <v>1394</v>
       </c>
       <c r="B196" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -10866,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" s="1" t="b">
         <v>0</v>
@@ -10898,10 +10910,10 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>1464</v>
+        <v>1399</v>
       </c>
       <c r="B197" t="s">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -10913,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" s="1" t="b">
         <v>0</v>
@@ -10922,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" s="1" t="b">
         <v>0</v>
@@ -10945,16 +10957,16 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>1502</v>
+        <v>1406</v>
       </c>
       <c r="B198" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D198" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" s="1" t="b">
         <v>0</v>
@@ -10992,10 +11004,10 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>1507</v>
+        <v>1417</v>
       </c>
       <c r="B199" t="s">
-        <v>345</v>
+        <v>171</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -11007,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="F199" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199" s="1" t="b">
         <v>0</v>
@@ -11039,16 +11051,16 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>1510</v>
+        <v>1431</v>
       </c>
       <c r="B200" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C200" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D200" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200" s="1" t="b">
         <v>0</v>
@@ -11086,10 +11098,10 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>1523</v>
+        <v>1464</v>
       </c>
       <c r="B201" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -11110,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" s="1" t="b">
         <v>0</v>
@@ -11133,16 +11145,16 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>1524</v>
+        <v>1502</v>
       </c>
       <c r="B202" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C202" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D202" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202" s="1" t="b">
         <v>0</v>
@@ -11175,15 +11187,15 @@
         <v>0</v>
       </c>
       <c r="O202" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>1534</v>
+        <v>1507</v>
       </c>
       <c r="B203" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -11195,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="F203" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G203" s="1" t="b">
         <v>0</v>
@@ -11227,16 +11239,16 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>1539</v>
+        <v>1510</v>
       </c>
       <c r="B204" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D204" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E204" s="1" t="b">
         <v>0</v>
@@ -11263,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="M204" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N204" s="1" t="b">
         <v>0</v>
@@ -11274,10 +11286,10 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>1544</v>
+        <v>1523</v>
       </c>
       <c r="B205" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -11304,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="K205" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L205" s="1" t="b">
         <v>0</v>
@@ -11321,16 +11333,16 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>1560</v>
+        <v>1524</v>
       </c>
       <c r="B206" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C206" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D206" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206" s="1" t="b">
         <v>0</v>
@@ -11363,21 +11375,21 @@
         <v>0</v>
       </c>
       <c r="O206" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>1594</v>
+        <v>1534</v>
       </c>
       <c r="B207" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="C207" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D207" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" s="1" t="b">
         <v>0</v>
@@ -11415,10 +11427,10 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>1598</v>
+        <v>1539</v>
       </c>
       <c r="B208" t="s">
-        <v>346</v>
+        <v>178</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -11445,13 +11457,13 @@
         <v>0</v>
       </c>
       <c r="K208" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L208" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M208" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N208" s="1" t="b">
         <v>0</v>
@@ -11462,10 +11474,10 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>1619</v>
+        <v>1544</v>
       </c>
       <c r="B209" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -11492,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="K209" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L209" s="1" t="b">
         <v>0</v>
@@ -11509,16 +11521,16 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>1621</v>
+        <v>1560</v>
       </c>
       <c r="B210" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C210" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D210" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210" s="1" t="b">
         <v>0</v>
@@ -11556,22 +11568,22 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>1624</v>
+        <v>1594</v>
       </c>
       <c r="B211" t="s">
-        <v>374</v>
+        <v>181</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D211" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F211" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G211" s="1" t="b">
         <v>0</v>
@@ -11603,10 +11615,10 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>1640</v>
+        <v>1598</v>
       </c>
       <c r="B212" t="s">
-        <v>184</v>
+        <v>346</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -11618,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="F212" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212" s="1" t="b">
         <v>0</v>
@@ -11633,7 +11645,7 @@
         <v>0</v>
       </c>
       <c r="K212" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L212" s="1" t="b">
         <v>0</v>
@@ -11650,16 +11662,16 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>1641</v>
+        <v>1619</v>
       </c>
       <c r="B213" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C213" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D213" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E213" s="1" t="b">
         <v>0</v>
@@ -11697,13 +11709,13 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>1646</v>
+        <v>1621</v>
       </c>
       <c r="B214" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C214" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D214" s="1" t="b">
         <v>1</v>
@@ -11744,10 +11756,10 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>1652</v>
+        <v>1624</v>
       </c>
       <c r="B215" t="s">
-        <v>187</v>
+        <v>374</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -11759,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="F215" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215" s="1" t="b">
         <v>0</v>
@@ -11783,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="N215" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O215" s="1" t="b">
         <v>0</v>
@@ -11791,22 +11803,22 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>1668</v>
+        <v>1640</v>
       </c>
       <c r="B216" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
       </c>
       <c r="D216" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F216" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G216" s="1" t="b">
         <v>0</v>
@@ -11838,16 +11850,16 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>1672</v>
+        <v>1641</v>
       </c>
       <c r="B217" t="s">
-        <v>376</v>
+        <v>185</v>
       </c>
       <c r="C217" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D217" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" s="1" t="b">
         <v>0</v>
@@ -11885,16 +11897,16 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>1704</v>
+        <v>1646</v>
       </c>
       <c r="B218" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
       </c>
       <c r="D218" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" s="1" t="b">
         <v>0</v>
@@ -11932,10 +11944,10 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>1710</v>
+        <v>1652</v>
       </c>
       <c r="B219" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -11944,7 +11956,7 @@
         <v>0</v>
       </c>
       <c r="E219" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219" s="1" t="b">
         <v>0</v>
@@ -11971,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="N219" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O219" s="1" t="b">
         <v>0</v>
@@ -11979,16 +11991,16 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>1716</v>
+        <v>1668</v>
       </c>
       <c r="B220" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
       </c>
       <c r="D220" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220" s="1" t="b">
         <v>0</v>
@@ -12026,10 +12038,10 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>1720</v>
+        <v>1672</v>
       </c>
       <c r="B221" t="s">
-        <v>192</v>
+        <v>376</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -12073,10 +12085,10 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>1725</v>
+        <v>1704</v>
       </c>
       <c r="B222" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -12120,13 +12132,13 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>1733</v>
+        <v>1710</v>
       </c>
       <c r="B223" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C223" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>0</v>
@@ -12135,7 +12147,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G223" s="1" t="b">
         <v>0</v>
@@ -12167,10 +12179,10 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>1748</v>
+        <v>1716</v>
       </c>
       <c r="B224" t="s">
-        <v>378</v>
+        <v>191</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -12182,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="F224" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224" s="1" t="b">
         <v>0</v>
@@ -12214,10 +12226,10 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>1752</v>
+        <v>1720</v>
       </c>
       <c r="B225" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -12261,10 +12273,10 @@
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>1768</v>
+        <v>1725</v>
       </c>
       <c r="B226" t="s">
-        <v>340</v>
+        <v>193</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -12288,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="J226" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K226" s="1" t="b">
         <v>0</v>
@@ -12308,19 +12320,19 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>1790</v>
+        <v>1733</v>
       </c>
       <c r="B227" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D227" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E227" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227" s="1" t="b">
         <v>1</v>
@@ -12355,10 +12367,10 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>1791</v>
+        <v>1748</v>
       </c>
       <c r="B228" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -12370,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="F228" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228" s="1" t="b">
         <v>0</v>
@@ -12402,16 +12414,16 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>1800</v>
+        <v>1752</v>
       </c>
       <c r="B229" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
       </c>
       <c r="D229" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229" s="1" t="b">
         <v>0</v>
@@ -12449,10 +12461,10 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>1805</v>
+        <v>1768</v>
       </c>
       <c r="B230" t="s">
-        <v>198</v>
+        <v>340</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -12464,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="F230" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230" s="1" t="b">
         <v>0</v>
@@ -12476,7 +12488,7 @@
         <v>0</v>
       </c>
       <c r="J230" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K230" s="1" t="b">
         <v>0</v>
@@ -12496,10 +12508,10 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="B231" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -12511,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="F231" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231" s="1" t="b">
         <v>0</v>
@@ -12543,10 +12555,10 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>1822</v>
+        <v>1791</v>
       </c>
       <c r="B232" t="s">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -12590,16 +12602,16 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>1837</v>
+        <v>1800</v>
       </c>
       <c r="B233" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
       </c>
       <c r="D233" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233" s="1" t="b">
         <v>0</v>
@@ -12637,10 +12649,10 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>1880</v>
+        <v>1805</v>
       </c>
       <c r="B234" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -12652,7 +12664,7 @@
         <v>0</v>
       </c>
       <c r="F234" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234" s="1" t="b">
         <v>0</v>
@@ -12684,10 +12696,10 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>1903</v>
+        <v>1812</v>
       </c>
       <c r="B235" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -12696,7 +12708,7 @@
         <v>0</v>
       </c>
       <c r="E235" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235" s="1" t="b">
         <v>0</v>
@@ -12731,13 +12743,13 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>1912</v>
+        <v>1822</v>
       </c>
       <c r="B236" t="s">
-        <v>325</v>
+        <v>200</v>
       </c>
       <c r="C236" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>0</v>
@@ -12746,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="F236" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G236" s="1" t="b">
         <v>0</v>
@@ -12755,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="1" t="b">
         <v>0</v>
@@ -12778,10 +12790,10 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>1935</v>
+        <v>1837</v>
       </c>
       <c r="B237" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -12793,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="F237" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G237" s="1" t="b">
         <v>0</v>
@@ -12825,10 +12837,10 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>1952</v>
+        <v>1880</v>
       </c>
       <c r="B238" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -12872,10 +12884,10 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>1957</v>
+        <v>1903</v>
       </c>
       <c r="B239" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -12884,7 +12896,7 @@
         <v>0</v>
       </c>
       <c r="E239" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239" s="1" t="b">
         <v>0</v>
@@ -12919,13 +12931,13 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>1961</v>
+        <v>1912</v>
       </c>
       <c r="B240" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C240" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D240" s="1" t="b">
         <v>0</v>
@@ -12934,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="F240" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G240" s="1" t="b">
         <v>0</v>
@@ -12943,10 +12955,10 @@
         <v>0</v>
       </c>
       <c r="I240" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K240" s="1" t="b">
         <v>0</v>
@@ -12966,10 +12978,10 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>1974</v>
+        <v>1935</v>
       </c>
       <c r="B241" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -12978,10 +12990,10 @@
         <v>0</v>
       </c>
       <c r="E241" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G241" s="1" t="b">
         <v>0</v>
@@ -13013,10 +13025,10 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>1984</v>
+        <v>1952</v>
       </c>
       <c r="B242" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -13040,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="J242" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K242" s="1" t="b">
         <v>0</v>
@@ -13052,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="N242" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O242" s="1" t="b">
         <v>0</v>
@@ -13060,10 +13072,10 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>1991</v>
+        <v>1957</v>
       </c>
       <c r="B243" t="s">
-        <v>208</v>
+        <v>361</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -13102,21 +13114,21 @@
         <v>0</v>
       </c>
       <c r="O243" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>2016</v>
+        <v>1961</v>
       </c>
       <c r="B244" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
       </c>
       <c r="D244" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E244" s="1" t="b">
         <v>0</v>
@@ -13134,7 +13146,7 @@
         <v>0</v>
       </c>
       <c r="J244" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K244" s="1" t="b">
         <v>0</v>
@@ -13154,10 +13166,10 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>2027</v>
+        <v>1974</v>
       </c>
       <c r="B245" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -13201,10 +13213,10 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>2037</v>
+        <v>1984</v>
       </c>
       <c r="B246" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -13213,7 +13225,7 @@
         <v>0</v>
       </c>
       <c r="E246" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246" s="1" t="b">
         <v>0</v>
@@ -13228,7 +13240,7 @@
         <v>0</v>
       </c>
       <c r="J246" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K246" s="1" t="b">
         <v>0</v>
@@ -13240,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="N246" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O246" s="1" t="b">
         <v>0</v>
@@ -13248,10 +13260,10 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>2047</v>
+        <v>1991</v>
       </c>
       <c r="B247" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -13290,18 +13302,18 @@
         <v>0</v>
       </c>
       <c r="O247" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>2063</v>
+        <v>2016</v>
       </c>
       <c r="B248" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C248" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
@@ -13342,10 +13354,10 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>2078</v>
+        <v>2027</v>
       </c>
       <c r="B249" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -13389,10 +13401,10 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>2119</v>
+        <v>2037</v>
       </c>
       <c r="B250" t="s">
-        <v>379</v>
+        <v>211</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -13401,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="E250" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250" s="1" t="b">
         <v>0</v>
@@ -13436,10 +13448,10 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>2133</v>
+        <v>2047</v>
       </c>
       <c r="B251" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -13451,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F251" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G251" s="1" t="b">
         <v>0</v>
@@ -13483,13 +13495,13 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>2138</v>
+        <v>2063</v>
       </c>
       <c r="B252" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C252" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
@@ -13530,19 +13542,19 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>2145</v>
+        <v>2078</v>
       </c>
       <c r="B253" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C253" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E253" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253" s="1" t="b">
         <v>0</v>
@@ -13572,15 +13584,15 @@
         <v>0</v>
       </c>
       <c r="O253" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>2148</v>
+        <v>2119</v>
       </c>
       <c r="B254" t="s">
-        <v>218</v>
+        <v>379</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -13624,10 +13636,10 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>2164</v>
+        <v>2133</v>
       </c>
       <c r="B255" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -13639,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="F255" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G255" s="1" t="b">
         <v>0</v>
@@ -13671,16 +13683,16 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>2169</v>
+        <v>2138</v>
       </c>
       <c r="B256" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
       </c>
       <c r="D256" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E256" s="1" t="b">
         <v>0</v>
@@ -13718,13 +13730,13 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>2176</v>
+        <v>2145</v>
       </c>
       <c r="B257" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C257" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D257" s="1" t="b">
         <v>0</v>
@@ -13760,18 +13772,18 @@
         <v>0</v>
       </c>
       <c r="O257" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>2197</v>
+        <v>2148</v>
       </c>
       <c r="B258" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C258" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D258" s="1" t="b">
         <v>0</v>
@@ -13795,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="K258" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L258" s="1" t="b">
         <v>0</v>
@@ -13812,10 +13824,10 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>2200</v>
+        <v>2164</v>
       </c>
       <c r="B259" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -13839,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="J259" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K259" s="1" t="b">
         <v>0</v>
@@ -13859,10 +13871,10 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>2206</v>
+        <v>2169</v>
       </c>
       <c r="B260" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -13874,7 +13886,7 @@
         <v>0</v>
       </c>
       <c r="F260" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G260" s="1" t="b">
         <v>0</v>
@@ -13906,10 +13918,10 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>2210</v>
+        <v>2176</v>
       </c>
       <c r="B261" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -13953,13 +13965,13 @@
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>2220</v>
+        <v>2197</v>
       </c>
       <c r="B262" t="s">
-        <v>353</v>
+        <v>222</v>
       </c>
       <c r="C262" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D262" s="1" t="b">
         <v>0</v>
@@ -13983,7 +13995,7 @@
         <v>0</v>
       </c>
       <c r="K262" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L262" s="1" t="b">
         <v>0</v>
@@ -14000,10 +14012,10 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>2231</v>
+        <v>2200</v>
       </c>
       <c r="B263" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -14024,10 +14036,10 @@
         <v>0</v>
       </c>
       <c r="I263" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K263" s="1" t="b">
         <v>0</v>
@@ -14047,10 +14059,10 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>2239</v>
+        <v>2206</v>
       </c>
       <c r="B264" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -14062,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="F264" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G264" s="1" t="b">
         <v>0</v>
@@ -14094,10 +14106,10 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>2243</v>
+        <v>2210</v>
       </c>
       <c r="B265" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -14141,10 +14153,10 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>2255</v>
+        <v>2220</v>
       </c>
       <c r="B266" t="s">
-        <v>229</v>
+        <v>353</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -14188,10 +14200,10 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>2264</v>
+        <v>2231</v>
       </c>
       <c r="B267" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -14212,7 +14224,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267" s="1" t="b">
         <v>0</v>
@@ -14235,10 +14247,10 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>2273</v>
+        <v>2239</v>
       </c>
       <c r="B268" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -14250,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="F268" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G268" s="1" t="b">
         <v>0</v>
@@ -14262,7 +14274,7 @@
         <v>0</v>
       </c>
       <c r="J268" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K268" s="1" t="b">
         <v>0</v>
@@ -14282,10 +14294,10 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>2283</v>
+        <v>2243</v>
       </c>
       <c r="B269" t="s">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -14297,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="F269" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269" s="1" t="b">
         <v>0</v>
@@ -14329,16 +14341,16 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>2327</v>
+        <v>2255</v>
       </c>
       <c r="B270" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C270" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D270" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E270" s="1" t="b">
         <v>0</v>
@@ -14362,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="L270" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M270" s="1" t="b">
         <v>0</v>
@@ -14376,10 +14388,10 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271">
-        <v>2331</v>
+        <v>2264</v>
       </c>
       <c r="B271" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -14394,7 +14406,7 @@
         <v>0</v>
       </c>
       <c r="G271" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271" s="1" t="b">
         <v>0</v>
@@ -14423,13 +14435,13 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>2353</v>
+        <v>2273</v>
       </c>
       <c r="B272" t="s">
-        <v>233</v>
+        <v>343</v>
       </c>
       <c r="C272" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D272" s="1" t="b">
         <v>0</v>
@@ -14447,10 +14459,10 @@
         <v>0</v>
       </c>
       <c r="I272" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K272" s="1" t="b">
         <v>0</v>
@@ -14470,10 +14482,10 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>2389</v>
+        <v>2283</v>
       </c>
       <c r="B273" t="s">
-        <v>234</v>
+        <v>349</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -14482,10 +14494,10 @@
         <v>0</v>
       </c>
       <c r="E273" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F273" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="1" t="b">
         <v>0</v>
@@ -14506,33 +14518,33 @@
         <v>0</v>
       </c>
       <c r="M273" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N273" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O273" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>2395</v>
+        <v>2327</v>
       </c>
       <c r="B274" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C274" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D274" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E274" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F274" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G274" s="1" t="b">
         <v>0</v>
@@ -14550,7 +14562,7 @@
         <v>0</v>
       </c>
       <c r="L274" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M274" s="1" t="b">
         <v>0</v>
@@ -14564,10 +14576,10 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275">
-        <v>2427</v>
+        <v>2331</v>
       </c>
       <c r="B275" t="s">
-        <v>329</v>
+        <v>232</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -14582,7 +14594,7 @@
         <v>0</v>
       </c>
       <c r="G275" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275" s="1" t="b">
         <v>0</v>
@@ -14611,13 +14623,13 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>2432</v>
+        <v>2353</v>
       </c>
       <c r="B276" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C276" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D276" s="1" t="b">
         <v>0</v>
@@ -14626,7 +14638,7 @@
         <v>0</v>
       </c>
       <c r="F276" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G276" s="1" t="b">
         <v>0</v>
@@ -14635,7 +14647,7 @@
         <v>0</v>
       </c>
       <c r="I276" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" s="1" t="b">
         <v>0</v>
@@ -14658,10 +14670,10 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>2446</v>
+        <v>2389</v>
       </c>
       <c r="B277" t="s">
-        <v>321</v>
+        <v>234</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -14670,7 +14682,7 @@
         <v>0</v>
       </c>
       <c r="E277" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277" s="1" t="b">
         <v>0</v>
@@ -14694,21 +14706,21 @@
         <v>0</v>
       </c>
       <c r="M277" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N277" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O277" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278">
-        <v>2451</v>
+        <v>2395</v>
       </c>
       <c r="B278" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -14752,10 +14764,10 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279">
-        <v>2455</v>
+        <v>2427</v>
       </c>
       <c r="B279" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -14799,10 +14811,10 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>2460</v>
+        <v>2432</v>
       </c>
       <c r="B280" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -14826,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="J280" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K280" s="1" t="b">
         <v>0</v>
@@ -14846,10 +14858,10 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281">
-        <v>2465</v>
+        <v>2446</v>
       </c>
       <c r="B281" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -14861,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="F281" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281" s="1" t="b">
         <v>0</v>
@@ -14873,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="J281" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K281" s="1" t="b">
         <v>0</v>
@@ -14893,10 +14905,10 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>2469</v>
+        <v>2451</v>
       </c>
       <c r="B282" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -14908,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="F282" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G282" s="1" t="b">
         <v>0</v>
@@ -14940,10 +14952,10 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>2481</v>
+        <v>2455</v>
       </c>
       <c r="B283" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -14987,10 +14999,10 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>2485</v>
+        <v>2460</v>
       </c>
       <c r="B284" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -15014,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="J284" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K284" s="1" t="b">
         <v>0</v>
@@ -15029,21 +15041,21 @@
         <v>0</v>
       </c>
       <c r="O284" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>2501</v>
+        <v>2465</v>
       </c>
       <c r="B285" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C285" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D285" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E285" s="1" t="b">
         <v>0</v>
@@ -15061,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="J285" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K285" s="1" t="b">
         <v>0</v>
@@ -15070,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="M285" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N285" s="1" t="b">
         <v>0</v>
@@ -15081,10 +15093,10 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>2506</v>
+        <v>2469</v>
       </c>
       <c r="B286" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -15096,7 +15108,7 @@
         <v>0</v>
       </c>
       <c r="F286" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G286" s="1" t="b">
         <v>0</v>
@@ -15128,10 +15140,10 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287">
-        <v>2520</v>
+        <v>2481</v>
       </c>
       <c r="B287" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -15175,10 +15187,10 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>2544</v>
+        <v>2485</v>
       </c>
       <c r="B288" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -15217,27 +15229,27 @@
         <v>0</v>
       </c>
       <c r="O288" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289">
-        <v>2562</v>
+        <v>2501</v>
       </c>
       <c r="B289" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C289" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D289" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F289" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" s="1" t="b">
         <v>0</v>
@@ -15249,7 +15261,7 @@
         <v>0</v>
       </c>
       <c r="J289" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K289" s="1" t="b">
         <v>0</v>
@@ -15258,7 +15270,7 @@
         <v>0</v>
       </c>
       <c r="M289" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N289" s="1" t="b">
         <v>0</v>
@@ -15269,10 +15281,10 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290">
-        <v>2570</v>
+        <v>2506</v>
       </c>
       <c r="B290" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -15296,7 +15308,7 @@
         <v>0</v>
       </c>
       <c r="J290" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K290" s="1" t="b">
         <v>0</v>
@@ -15316,10 +15328,10 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>2595</v>
+        <v>2520</v>
       </c>
       <c r="B291" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -15363,10 +15375,10 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292">
-        <v>2600</v>
+        <v>2544</v>
       </c>
       <c r="B292" t="s">
-        <v>355</v>
+        <v>246</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -15375,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="E292" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F292" s="1" t="b">
         <v>0</v>
@@ -15410,10 +15422,10 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293">
-        <v>2614</v>
+        <v>2562</v>
       </c>
       <c r="B293" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -15437,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="J293" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K293" s="1" t="b">
         <v>0</v>
@@ -15457,10 +15469,10 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>2639</v>
+        <v>2570</v>
       </c>
       <c r="B294" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -15472,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="F294" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G294" s="1" t="b">
         <v>0</v>
@@ -15484,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="J294" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K294" s="1" t="b">
         <v>0</v>
@@ -15504,10 +15516,10 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>2643</v>
+        <v>2595</v>
       </c>
       <c r="B295" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -15551,10 +15563,10 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>2644</v>
+        <v>2600</v>
       </c>
       <c r="B296" t="s">
-        <v>252</v>
+        <v>355</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -15563,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="E296" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F296" s="1" t="b">
         <v>0</v>
@@ -15598,10 +15610,10 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297">
-        <v>2651</v>
+        <v>2614</v>
       </c>
       <c r="B297" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -15645,10 +15657,10 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>2656</v>
+        <v>2639</v>
       </c>
       <c r="B298" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -15657,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="E298" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F298" s="1" t="b">
         <v>0</v>
@@ -15692,10 +15704,10 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>2670</v>
+        <v>2643</v>
       </c>
       <c r="B299" t="s">
-        <v>381</v>
+        <v>251</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -15707,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="F299" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G299" s="1" t="b">
         <v>0</v>
@@ -15739,10 +15751,10 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300">
-        <v>2678</v>
+        <v>2644</v>
       </c>
       <c r="B300" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -15786,10 +15798,10 @@
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>2682</v>
+        <v>2651</v>
       </c>
       <c r="B301" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -15801,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="F301" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G301" s="1" t="b">
         <v>0</v>
@@ -15833,10 +15845,10 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>2696</v>
+        <v>2656</v>
       </c>
       <c r="B302" t="s">
-        <v>257</v>
+        <v>331</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -15845,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="E302" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F302" s="1" t="b">
         <v>0</v>
@@ -15863,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="K302" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L302" s="1" t="b">
         <v>0</v>
@@ -15880,10 +15892,10 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>2697</v>
+        <v>2670</v>
       </c>
       <c r="B303" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -15892,10 +15904,10 @@
         <v>0</v>
       </c>
       <c r="E303" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F303" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G303" s="1" t="b">
         <v>0</v>
@@ -15907,7 +15919,7 @@
         <v>0</v>
       </c>
       <c r="J303" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K303" s="1" t="b">
         <v>0</v>
@@ -15927,10 +15939,10 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>2710</v>
+        <v>2678</v>
       </c>
       <c r="B304" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -15974,10 +15986,10 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>2744</v>
+        <v>2682</v>
       </c>
       <c r="B305" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -16021,16 +16033,16 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>2765</v>
+        <v>2696</v>
       </c>
       <c r="B306" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
       </c>
       <c r="D306" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E306" s="1" t="b">
         <v>0</v>
@@ -16051,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="K306" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L306" s="1" t="b">
         <v>0</v>
@@ -16068,10 +16080,10 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>2784</v>
+        <v>2697</v>
       </c>
       <c r="B307" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -16080,10 +16092,10 @@
         <v>0</v>
       </c>
       <c r="E307" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F307" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G307" s="1" t="b">
         <v>0</v>
@@ -16095,7 +16107,7 @@
         <v>0</v>
       </c>
       <c r="J307" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K307" s="1" t="b">
         <v>0</v>
@@ -16115,13 +16127,13 @@
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>2785</v>
+        <v>2710</v>
       </c>
       <c r="B308" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C308" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D308" s="1" t="b">
         <v>0</v>
@@ -16162,22 +16174,22 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>2786</v>
+        <v>2744</v>
       </c>
       <c r="B309" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C309" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D309" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E309" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F309" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G309" s="1" t="b">
         <v>0</v>
@@ -16209,16 +16221,16 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>2806</v>
+        <v>2765</v>
       </c>
       <c r="B310" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
       </c>
       <c r="D310" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E310" s="1" t="b">
         <v>0</v>
@@ -16256,10 +16268,10 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>2810</v>
+        <v>2784</v>
       </c>
       <c r="B311" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -16271,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="F311" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G311" s="1" t="b">
         <v>0</v>
@@ -16303,13 +16315,13 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>2815</v>
+        <v>2785</v>
       </c>
       <c r="B312" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C312" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D312" s="1" t="b">
         <v>0</v>
@@ -16318,7 +16330,7 @@
         <v>0</v>
       </c>
       <c r="F312" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G312" s="1" t="b">
         <v>0</v>
@@ -16350,22 +16362,22 @@
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>2839</v>
+        <v>2786</v>
       </c>
       <c r="B313" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C313" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D313" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E313" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F313" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G313" s="1" t="b">
         <v>0</v>
@@ -16397,10 +16409,10 @@
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314">
-        <v>2855</v>
+        <v>2806</v>
       </c>
       <c r="B314" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -16444,10 +16456,10 @@
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315">
-        <v>2864</v>
+        <v>2810</v>
       </c>
       <c r="B315" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -16456,7 +16468,7 @@
         <v>0</v>
       </c>
       <c r="E315" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F315" s="1" t="b">
         <v>0</v>
@@ -16491,22 +16503,22 @@
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>2873</v>
+        <v>2815</v>
       </c>
       <c r="B316" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
       </c>
       <c r="D316" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F316" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G316" s="1" t="b">
         <v>0</v>
@@ -16538,10 +16550,10 @@
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317">
-        <v>2899</v>
+        <v>2839</v>
       </c>
       <c r="B317" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -16553,7 +16565,7 @@
         <v>0</v>
       </c>
       <c r="F317" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G317" s="1" t="b">
         <v>0</v>
@@ -16585,16 +16597,16 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>2900</v>
+        <v>2855</v>
       </c>
       <c r="B318" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
       </c>
       <c r="D318" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E318" s="1" t="b">
         <v>0</v>
@@ -16632,10 +16644,10 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319">
-        <v>2928</v>
+        <v>2864</v>
       </c>
       <c r="B319" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -16644,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="E319" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F319" s="1" t="b">
         <v>0</v>
@@ -16679,16 +16691,16 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320">
-        <v>2929</v>
+        <v>2873</v>
       </c>
       <c r="B320" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C320" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D320" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E320" s="1" t="b">
         <v>0</v>
@@ -16726,16 +16738,16 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321">
-        <v>2944</v>
+        <v>2899</v>
       </c>
       <c r="B321" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C321" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D321" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E321" s="1" t="b">
         <v>0</v>
@@ -16750,7 +16762,7 @@
         <v>0</v>
       </c>
       <c r="I321" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" s="1" t="b">
         <v>0</v>
@@ -16759,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="L321" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M321" s="1" t="b">
         <v>0</v>
@@ -16773,16 +16785,16 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322">
-        <v>2960</v>
+        <v>2900</v>
       </c>
       <c r="B322" t="s">
-        <v>330</v>
+        <v>272</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
       </c>
       <c r="D322" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E322" s="1" t="b">
         <v>0</v>
@@ -16820,10 +16832,10 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323">
-        <v>2965</v>
+        <v>2928</v>
       </c>
       <c r="B323" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -16835,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="F323" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G323" s="1" t="b">
         <v>0</v>
@@ -16867,13 +16879,13 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>2974</v>
+        <v>2929</v>
       </c>
       <c r="B324" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C324" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D324" s="1" t="b">
         <v>0</v>
@@ -16891,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324" s="1" t="b">
         <v>0</v>
@@ -16914,22 +16926,22 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325">
-        <v>3005</v>
+        <v>2944</v>
       </c>
       <c r="B325" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="C325" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D325" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E325" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F325" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G325" s="1" t="b">
         <v>0</v>
@@ -16938,7 +16950,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J325" s="1" t="b">
         <v>0</v>
@@ -16947,7 +16959,7 @@
         <v>0</v>
       </c>
       <c r="L325" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M325" s="1" t="b">
         <v>0</v>
@@ -16961,10 +16973,10 @@
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>3014</v>
+        <v>2960</v>
       </c>
       <c r="B326" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -16973,7 +16985,7 @@
         <v>0</v>
       </c>
       <c r="E326" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F326" s="1" t="b">
         <v>0</v>
@@ -17008,10 +17020,10 @@
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>3019</v>
+        <v>2965</v>
       </c>
       <c r="B327" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -17023,7 +17035,7 @@
         <v>0</v>
       </c>
       <c r="F327" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G327" s="1" t="b">
         <v>0</v>
@@ -17055,10 +17067,10 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>3079</v>
+        <v>2974</v>
       </c>
       <c r="B328" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -17079,7 +17091,7 @@
         <v>0</v>
       </c>
       <c r="I328" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" s="1" t="b">
         <v>0</v>
@@ -17102,10 +17114,10 @@
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>3090</v>
+        <v>3005</v>
       </c>
       <c r="B329" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -17141,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="N329" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O329" s="1" t="b">
         <v>0</v>
@@ -17149,19 +17161,19 @@
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>3105</v>
+        <v>3014</v>
       </c>
       <c r="B330" t="s">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
       </c>
       <c r="D330" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E330" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F330" s="1" t="b">
         <v>0</v>
@@ -17196,10 +17208,10 @@
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331">
-        <v>3110</v>
+        <v>3019</v>
       </c>
       <c r="B331" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -17243,10 +17255,10 @@
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332">
-        <v>3120</v>
+        <v>3079</v>
       </c>
       <c r="B332" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -17258,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="F332" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G332" s="1" t="b">
         <v>0</v>
@@ -17290,10 +17302,10 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333">
-        <v>3142</v>
+        <v>3090</v>
       </c>
       <c r="B333" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -17305,7 +17317,7 @@
         <v>0</v>
       </c>
       <c r="F333" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="1" t="b">
         <v>0</v>
@@ -17329,7 +17341,7 @@
         <v>0</v>
       </c>
       <c r="N333" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O333" s="1" t="b">
         <v>0</v>
@@ -17337,22 +17349,22 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334">
-        <v>3158</v>
+        <v>3105</v>
       </c>
       <c r="B334" t="s">
-        <v>283</v>
+        <v>375</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
       </c>
       <c r="D334" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E334" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F334" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G334" s="1" t="b">
         <v>0</v>
@@ -17384,10 +17396,10 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335">
-        <v>3174</v>
+        <v>3110</v>
       </c>
       <c r="B335" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -17414,7 +17426,7 @@
         <v>0</v>
       </c>
       <c r="K335" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L335" s="1" t="b">
         <v>0</v>
@@ -17431,10 +17443,10 @@
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336">
-        <v>3190</v>
+        <v>3120</v>
       </c>
       <c r="B336" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -17446,7 +17458,7 @@
         <v>0</v>
       </c>
       <c r="F336" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G336" s="1" t="b">
         <v>0</v>
@@ -17478,10 +17490,10 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337">
-        <v>3194</v>
+        <v>3142</v>
       </c>
       <c r="B337" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -17505,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="J337" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K337" s="1" t="b">
         <v>0</v>
@@ -17525,22 +17537,22 @@
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338">
-        <v>3201</v>
+        <v>3158</v>
       </c>
       <c r="B338" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C338" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D338" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E338" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F338" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338" s="1" t="b">
         <v>0</v>
@@ -17572,10 +17584,10 @@
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339">
-        <v>3210</v>
+        <v>3174</v>
       </c>
       <c r="B339" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -17602,7 +17614,7 @@
         <v>0</v>
       </c>
       <c r="K339" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L339" s="1" t="b">
         <v>0</v>
@@ -17619,10 +17631,10 @@
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340">
-        <v>3222</v>
+        <v>3190</v>
       </c>
       <c r="B340" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -17666,13 +17678,13 @@
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341">
-        <v>3227</v>
+        <v>3194</v>
       </c>
       <c r="B341" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C341" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D341" s="1" t="b">
         <v>0</v>
@@ -17693,7 +17705,7 @@
         <v>0</v>
       </c>
       <c r="J341" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K341" s="1" t="b">
         <v>0</v>
@@ -17713,16 +17725,16 @@
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342">
-        <v>3258</v>
+        <v>3201</v>
       </c>
       <c r="B342" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C342" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D342" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E342" s="1" t="b">
         <v>0</v>
@@ -17752,7 +17764,7 @@
         <v>0</v>
       </c>
       <c r="N342" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O342" s="1" t="b">
         <v>0</v>
@@ -17760,10 +17772,10 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343">
-        <v>3264</v>
+        <v>3210</v>
       </c>
       <c r="B343" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -17784,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="I343" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J343" s="1" t="b">
         <v>0</v>
@@ -17807,10 +17819,10 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344">
-        <v>3270</v>
+        <v>3222</v>
       </c>
       <c r="B344" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -17854,10 +17866,10 @@
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345">
-        <v>3286</v>
+        <v>3227</v>
       </c>
       <c r="B345" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C345" t="s">
         <v>3</v>
@@ -17875,10 +17887,10 @@
         <v>0</v>
       </c>
       <c r="H345" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J345" s="1" t="b">
         <v>0</v>
@@ -17901,10 +17913,10 @@
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346">
-        <v>3314</v>
+        <v>3258</v>
       </c>
       <c r="B346" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -17940,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="N346" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O346" s="1" t="b">
         <v>0</v>
@@ -17948,10 +17960,10 @@
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>3330</v>
+        <v>3264</v>
       </c>
       <c r="B347" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -17972,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="I347" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" s="1" t="b">
         <v>0</v>
@@ -17995,10 +18007,10 @@
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348">
-        <v>3360</v>
+        <v>3270</v>
       </c>
       <c r="B348" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -18042,13 +18054,13 @@
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349">
-        <v>3379</v>
+        <v>3286</v>
       </c>
       <c r="B349" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C349" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D349" s="1" t="b">
         <v>0</v>
@@ -18063,10 +18075,10 @@
         <v>0</v>
       </c>
       <c r="H349" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I349" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349" s="1" t="b">
         <v>0</v>
@@ -18089,10 +18101,10 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>3392</v>
+        <v>3314</v>
       </c>
       <c r="B350" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -18136,10 +18148,10 @@
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>3396</v>
+        <v>3330</v>
       </c>
       <c r="B351" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -18151,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="F351" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G351" s="1" t="b">
         <v>0</v>
@@ -18183,13 +18195,13 @@
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>3408</v>
+        <v>3360</v>
       </c>
       <c r="B352" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C352" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D352" s="1" t="b">
         <v>0</v>
@@ -18198,7 +18210,7 @@
         <v>0</v>
       </c>
       <c r="F352" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G352" s="1" t="b">
         <v>0</v>
@@ -18207,7 +18219,7 @@
         <v>0</v>
       </c>
       <c r="I352" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J352" s="1" t="b">
         <v>0</v>
@@ -18230,10 +18242,10 @@
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353">
-        <v>3423</v>
+        <v>3379</v>
       </c>
       <c r="B353" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -18277,10 +18289,10 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354">
-        <v>3438</v>
+        <v>3392</v>
       </c>
       <c r="B354" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -18292,7 +18304,7 @@
         <v>0</v>
       </c>
       <c r="F354" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G354" s="1" t="b">
         <v>0</v>
@@ -18324,10 +18336,10 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355">
-        <v>3442</v>
+        <v>3396</v>
       </c>
       <c r="B355" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -18371,13 +18383,13 @@
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356">
-        <v>3452</v>
+        <v>3408</v>
       </c>
       <c r="B356" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="C356" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D356" s="1" t="b">
         <v>0</v>
@@ -18386,7 +18398,7 @@
         <v>0</v>
       </c>
       <c r="F356" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G356" s="1" t="b">
         <v>0</v>
@@ -18395,7 +18407,7 @@
         <v>0</v>
       </c>
       <c r="I356" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" s="1" t="b">
         <v>0</v>
@@ -18418,10 +18430,10 @@
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357">
-        <v>3467</v>
+        <v>3423</v>
       </c>
       <c r="B357" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -18465,22 +18477,22 @@
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358">
-        <v>3469</v>
+        <v>3438</v>
       </c>
       <c r="B358" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C358" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D358" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E358" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F358" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G358" s="1" t="b">
         <v>0</v>
@@ -18512,10 +18524,10 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359">
-        <v>3483</v>
+        <v>3442</v>
       </c>
       <c r="B359" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -18559,13 +18571,13 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360">
-        <v>3484</v>
+        <v>3452</v>
       </c>
       <c r="B360" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C360" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D360" s="1" t="b">
         <v>0</v>
@@ -18574,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="F360" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G360" s="1" t="b">
         <v>0</v>
@@ -18606,10 +18618,10 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361">
-        <v>3492</v>
+        <v>3467</v>
       </c>
       <c r="B361" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -18653,16 +18665,16 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>3502</v>
+        <v>3469</v>
       </c>
       <c r="B362" t="s">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="C362" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D362" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E362" s="1" t="b">
         <v>0</v>
@@ -18700,13 +18712,13 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>3508</v>
+        <v>3483</v>
       </c>
       <c r="B363" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C363" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D363" s="1" t="b">
         <v>0</v>
@@ -18733,10 +18745,10 @@
         <v>0</v>
       </c>
       <c r="L363" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M363" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N363" s="1" t="b">
         <v>0</v>
@@ -18747,13 +18759,13 @@
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>3516</v>
+        <v>3484</v>
       </c>
       <c r="B364" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C364" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D364" s="1" t="b">
         <v>0</v>
@@ -18762,7 +18774,7 @@
         <v>0</v>
       </c>
       <c r="F364" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G364" s="1" t="b">
         <v>0</v>
@@ -18794,10 +18806,10 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>3541</v>
+        <v>3492</v>
       </c>
       <c r="B365" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -18809,7 +18821,7 @@
         <v>0</v>
       </c>
       <c r="F365" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G365" s="1" t="b">
         <v>0</v>
@@ -18841,10 +18853,10 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>3602</v>
+        <v>3502</v>
       </c>
       <c r="B366" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -18856,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="F366" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G366" s="1" t="b">
         <v>0</v>
@@ -18888,13 +18900,13 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>3606</v>
+        <v>3508</v>
       </c>
       <c r="B367" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C367" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D367" s="1" t="b">
         <v>0</v>
@@ -18921,10 +18933,10 @@
         <v>0</v>
       </c>
       <c r="L367" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M367" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N367" s="1" t="b">
         <v>0</v>
@@ -18935,10 +18947,10 @@
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>3622</v>
+        <v>3516</v>
       </c>
       <c r="B368" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -18982,10 +18994,10 @@
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>3633</v>
+        <v>3541</v>
       </c>
       <c r="B369" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -18994,10 +19006,10 @@
         <v>0</v>
       </c>
       <c r="E369" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F369" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G369" s="1" t="b">
         <v>0</v>
@@ -19009,7 +19021,7 @@
         <v>0</v>
       </c>
       <c r="J369" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K369" s="1" t="b">
         <v>0</v>
@@ -19018,7 +19030,7 @@
         <v>0</v>
       </c>
       <c r="M369" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N369" s="1" t="b">
         <v>0</v>
@@ -19029,54 +19041,242 @@
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370">
+        <v>3602</v>
+      </c>
+      <c r="B370" t="s">
+        <v>323</v>
+      </c>
+      <c r="C370" t="s">
+        <v>5</v>
+      </c>
+      <c r="D370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F370" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O370" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>3606</v>
+      </c>
+      <c r="B371" t="s">
+        <v>309</v>
+      </c>
+      <c r="C371" t="s">
+        <v>5</v>
+      </c>
+      <c r="D371" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E371" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F371" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G371" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H371" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I371" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J371" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K371" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L371" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M371" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N371" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O371" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>3622</v>
+      </c>
+      <c r="B372" t="s">
+        <v>310</v>
+      </c>
+      <c r="C372" t="s">
+        <v>5</v>
+      </c>
+      <c r="D372" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E372" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F372" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G372" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H372" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I372" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J372" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K372" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L372" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M372" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N372" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O372" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>3633</v>
+      </c>
+      <c r="B373" t="s">
+        <v>311</v>
+      </c>
+      <c r="C373" t="s">
+        <v>5</v>
+      </c>
+      <c r="D373" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E373" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F373" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G373" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H373" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I373" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J373" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K373" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L373" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M373" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N373" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O373" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A374">
         <v>3637</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B374" t="s">
         <v>312</v>
       </c>
-      <c r="C370" t="s">
-        <v>5</v>
-      </c>
-      <c r="D370" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E370" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F370" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G370" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H370" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I370" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J370" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K370" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L370" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M370" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N370" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O370" s="1" t="b">
+      <c r="C374" t="s">
+        <v>5</v>
+      </c>
+      <c r="D374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O374" s="1" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O370">
-    <sortCondition ref="A2:A370"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O374">
+    <sortCondition ref="A2:A374"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19170,7 +19370,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F37F096-EEA1-4C10-A57D-8377222BED93}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19195,7 +19395,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:C13">_xlfn._xlws.FILTER(all!A:C,all!M:M=TRUE)</f>
+        <f t="array" ref="A2:C14">_xlfn._xlws.FILTER(all!A:C,all!M:M=TRUE)</f>
         <v>69</v>
       </c>
       <c r="B2" t="str">
@@ -19229,21 +19429,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>704</v>
+        <v>611</v>
       </c>
       <c r="B5" t="str">
-        <v>binary search</v>
+        <v>valid triangle number</v>
       </c>
       <c r="C5" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="B6" t="str">
-        <v>find smallest letter greater than target</v>
+        <v>binary search</v>
       </c>
       <c r="C6" t="str">
         <v>easy</v>
@@ -19251,32 +19451,32 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>983</v>
+        <v>744</v>
       </c>
       <c r="B7" t="str">
-        <v>minimum cost for tickets</v>
+        <v>find smallest letter greater than target</v>
       </c>
       <c r="C7" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1337</v>
+        <v>983</v>
       </c>
       <c r="B8" t="str">
-        <v>the k weakest rows in a matrix</v>
+        <v>minimum cost for tickets</v>
       </c>
       <c r="C8" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1539</v>
+        <v>1337</v>
       </c>
       <c r="B9" t="str">
-        <v>kth missing positive number</v>
+        <v>the k weakest rows in a matrix</v>
       </c>
       <c r="C9" t="str">
         <v>easy</v>
@@ -19284,10 +19484,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2389</v>
+        <v>1539</v>
       </c>
       <c r="B10" t="str">
-        <v>longest subsequence with limited sum</v>
+        <v>kth missing positive number</v>
       </c>
       <c r="C10" t="str">
         <v>easy</v>
@@ -19295,21 +19495,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2501</v>
+        <v>2389</v>
       </c>
       <c r="B11" t="str">
-        <v>longest square streak in an array</v>
+        <v>longest subsequence with limited sum</v>
       </c>
       <c r="C11" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>3508</v>
+        <v>2501</v>
       </c>
       <c r="B12" t="str">
-        <v>implement router</v>
+        <v>longest square streak in an array</v>
       </c>
       <c r="C12" t="str">
         <v>medium</v>
@@ -19317,12 +19517,23 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>3508</v>
+      </c>
+      <c r="B13" t="str">
+        <v>implement router</v>
+      </c>
+      <c r="C13" t="str">
+        <v>medium</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>3633</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B14" t="str">
         <v>earliest finish time for land and water rides i</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C14" t="str">
         <v>easy</v>
       </c>
     </row>
@@ -22386,7 +22597,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BEAC52-475C-45E0-B174-727C88C20605}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
@@ -22411,7 +22622,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:C38">_xlfn._xlws.FILTER(all!A:C,all!J:J=TRUE)</f>
+        <f t="array" ref="A2:C39">_xlfn._xlws.FILTER(all!A:C,all!J:J=TRUE)</f>
         <v>11</v>
       </c>
       <c r="B2" t="str">
@@ -22610,21 +22821,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>680</v>
+        <v>611</v>
       </c>
       <c r="B20" t="str">
-        <v>valid palindrome ii</v>
+        <v>valid triangle number</v>
       </c>
       <c r="C20" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>876</v>
+        <v>680</v>
       </c>
       <c r="B21" t="str">
-        <v>middle of the linked list</v>
+        <v>valid palindrome ii</v>
       </c>
       <c r="C21" t="str">
         <v>easy</v>
@@ -22632,10 +22843,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>917</v>
+        <v>876</v>
       </c>
       <c r="B22" t="str">
-        <v>reverse only letters</v>
+        <v>middle of the linked list</v>
       </c>
       <c r="C22" t="str">
         <v>easy</v>
@@ -22643,10 +22854,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B23" t="str">
-        <v>sort array by parity ii</v>
+        <v>reverse only letters</v>
       </c>
       <c r="C23" t="str">
         <v>easy</v>
@@ -22654,10 +22865,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B24" t="str">
-        <v>long pressed name</v>
+        <v>sort array by parity ii</v>
       </c>
       <c r="C24" t="str">
         <v>easy</v>
@@ -22665,10 +22876,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1089</v>
+        <v>925</v>
       </c>
       <c r="B25" t="str">
-        <v>duplicate zeros</v>
+        <v>long pressed name</v>
       </c>
       <c r="C25" t="str">
         <v>easy</v>
@@ -22676,10 +22887,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>1332</v>
+        <v>1089</v>
       </c>
       <c r="B26" t="str">
-        <v>remove palindromic subsequences</v>
+        <v>duplicate zeros</v>
       </c>
       <c r="C26" t="str">
         <v>easy</v>
@@ -22687,10 +22898,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="B27" t="str">
-        <v>﻿merge strings alternately</v>
+        <v>remove palindromic subsequences</v>
       </c>
       <c r="C27" t="str">
         <v>easy</v>
@@ -22698,10 +22909,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>1961</v>
+        <v>1768</v>
       </c>
       <c r="B28" t="str">
-        <v>check if string is a prefix of array</v>
+        <v>﻿merge strings alternately</v>
       </c>
       <c r="C28" t="str">
         <v>easy</v>
@@ -22709,10 +22920,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>1984</v>
+        <v>1961</v>
       </c>
       <c r="B29" t="str">
-        <v>minimum difference between highest and lowest of k scores</v>
+        <v>check if string is a prefix of array</v>
       </c>
       <c r="C29" t="str">
         <v>easy</v>
@@ -22720,10 +22931,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2200</v>
+        <v>1984</v>
       </c>
       <c r="B30" t="str">
-        <v>find all k distant indices in an array</v>
+        <v>minimum difference between highest and lowest of k scores</v>
       </c>
       <c r="C30" t="str">
         <v>easy</v>
@@ -22731,10 +22942,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2273</v>
+        <v>2200</v>
       </c>
       <c r="B31" t="str">
-        <v>find resultant array after removing anagrams</v>
+        <v>find all k distant indices in an array</v>
       </c>
       <c r="C31" t="str">
         <v>easy</v>
@@ -22742,10 +22953,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2460</v>
+        <v>2273</v>
       </c>
       <c r="B32" t="str">
-        <v>apply operations to an array</v>
+        <v>find resultant array after removing anagrams</v>
       </c>
       <c r="C32" t="str">
         <v>easy</v>
@@ -22753,10 +22964,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="B33" t="str">
-        <v>number of distinct averages</v>
+        <v>apply operations to an array</v>
       </c>
       <c r="C33" t="str">
         <v>easy</v>
@@ -22764,10 +22975,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2562</v>
+        <v>2465</v>
       </c>
       <c r="B34" t="str">
-        <v>find the array concatenation value</v>
+        <v>number of distinct averages</v>
       </c>
       <c r="C34" t="str">
         <v>easy</v>
@@ -22775,10 +22986,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="B35" t="str">
-        <v>merge two 2d arrays by summing values</v>
+        <v>find the array concatenation value</v>
       </c>
       <c r="C35" t="str">
         <v>easy</v>
@@ -22786,10 +22997,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2697</v>
+        <v>2570</v>
       </c>
       <c r="B36" t="str">
-        <v>lexicographically smallest palindrome</v>
+        <v>merge two 2d arrays by summing values</v>
       </c>
       <c r="C36" t="str">
         <v>easy</v>
@@ -22797,10 +23008,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>3194</v>
+        <v>2697</v>
       </c>
       <c r="B37" t="str">
-        <v>minimum average of smallest and largest elements</v>
+        <v>lexicographically smallest palindrome</v>
       </c>
       <c r="C37" t="str">
         <v>easy</v>
@@ -22808,12 +23019,23 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
+        <v>3194</v>
+      </c>
+      <c r="B38" t="str">
+        <v>minimum average of smallest and largest elements</v>
+      </c>
+      <c r="C38" t="str">
+        <v>easy</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>3633</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B39" t="str">
         <v>earliest finish time for land and water rides i</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C39" t="str">
         <v>easy</v>
       </c>
     </row>

--- a/leetcode solved.xlsx
+++ b/leetcode solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_4148941535628924160/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="13_ncr:1_{C1A55483-AB76-F94B-BBD6-8ADDF97EB37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE15E65C-DF7B-457C-8104-133C4CC5094B}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="13_ncr:1_{C1A55483-AB76-F94B-BBD6-8ADDF97EB37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{019324D0-0326-4398-97B3-AFB388F2F3AA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="657" xr2:uid="{91E0AC5C-A444-432A-817A-1683DD81F561}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="397">
   <si>
     <t>number</t>
   </si>
@@ -1237,6 +1237,30 @@
   </si>
   <si>
     <t>largest triangle area</t>
+  </si>
+  <si>
+    <t>maximize sum of at most k distinct elements</t>
+  </si>
+  <si>
+    <t>make three strings equal</t>
+  </si>
+  <si>
+    <t>count the number of consistent strings</t>
+  </si>
+  <si>
+    <t>check if digits are equal in string after operations i</t>
+  </si>
+  <si>
+    <t>number of segments in a string</t>
+  </si>
+  <si>
+    <t>minimum number of operations to convert time</t>
+  </si>
+  <si>
+    <t>flipping an image</t>
+  </si>
+  <si>
+    <t>perfect number</t>
   </si>
 </sst>
 </file>
@@ -1681,11 +1705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B397E5-2FB9-4768-8CC2-2F3499152878}">
-  <dimension ref="A1:O374"/>
+  <dimension ref="A1:O382"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6303,10 +6327,10 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="B99" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -6318,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" s="1" t="b">
         <v>0</v>
@@ -6350,10 +6374,10 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B100" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -6365,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="1" t="b">
         <v>0</v>
@@ -6377,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="1" t="b">
         <v>0</v>
@@ -6397,10 +6421,10 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B101" t="s">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -6424,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" s="1" t="b">
         <v>0</v>
@@ -6444,16 +6468,16 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="B102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D102" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" s="1" t="b">
         <v>0</v>
@@ -6462,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1" t="b">
         <v>0</v>
@@ -6491,25 +6515,25 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D103" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F103" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" s="1" t="b">
         <v>0</v>
@@ -6521,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="1" t="b">
         <v>0</v>
@@ -6538,10 +6562,10 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -6568,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" s="1" t="b">
         <v>0</v>
@@ -6585,10 +6609,10 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -6600,10 +6624,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="b">
         <v>0</v>
@@ -6632,16 +6656,16 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" s="1" t="b">
         <v>0</v>
@@ -6650,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="1" t="b">
         <v>0</v>
@@ -6679,16 +6703,16 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>396</v>
       </c>
       <c r="C107" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D107" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" s="1" t="b">
         <v>0</v>
@@ -6726,16 +6750,16 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
       </c>
       <c r="D108" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" s="1" t="b">
         <v>0</v>
@@ -6773,16 +6797,16 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D109" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" s="1" t="b">
         <v>0</v>
@@ -6791,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="1" t="b">
         <v>0</v>
@@ -6820,10 +6844,10 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="B110" t="s">
-        <v>370</v>
+        <v>104</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -6838,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" s="1" t="b">
         <v>0</v>
@@ -6867,10 +6891,10 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -6879,13 +6903,13 @@
         <v>0</v>
       </c>
       <c r="E111" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G111" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" s="1" t="b">
         <v>0</v>
@@ -6914,10 +6938,10 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>370</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -6961,10 +6985,10 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -6973,10 +6997,10 @@
         <v>0</v>
       </c>
       <c r="E113" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" s="1" t="b">
         <v>0</v>
@@ -7008,10 +7032,10 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -7055,10 +7079,10 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -7070,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="1" t="b">
         <v>0</v>
@@ -7102,10 +7126,10 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -7117,10 +7141,10 @@
         <v>0</v>
       </c>
       <c r="F116" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" s="1" t="b">
         <v>0</v>
@@ -7149,13 +7173,13 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="B117" t="s">
-        <v>386</v>
+        <v>110</v>
       </c>
       <c r="C117" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D117" s="1" t="b">
         <v>0</v>
@@ -7176,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" s="1" t="b">
         <v>0</v>
@@ -7185,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N117" s="1" t="b">
         <v>0</v>
@@ -7196,10 +7220,10 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -7211,13 +7235,13 @@
         <v>0</v>
       </c>
       <c r="F118" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" s="1" t="b">
         <v>0</v>
@@ -7243,13 +7267,13 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="B119" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D119" s="1" t="b">
         <v>0</v>
@@ -7261,16 +7285,16 @@
         <v>0</v>
       </c>
       <c r="G119" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J119" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="1" t="b">
         <v>0</v>
@@ -7279,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N119" s="1" t="b">
         <v>0</v>
@@ -7290,10 +7314,10 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="B120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -7308,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="G120" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" s="1" t="b">
         <v>0</v>
@@ -7329,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O120" s="1" t="b">
         <v>0</v>
@@ -7337,10 +7361,10 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>382</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -7352,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="F121" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" s="1" t="b">
         <v>0</v>
@@ -7384,19 +7408,19 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B122" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C122" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D122" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" s="1" t="b">
         <v>0</v>
@@ -7423,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="N122" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O122" s="1" t="b">
         <v>0</v>
@@ -7431,10 +7455,10 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B123" t="s">
-        <v>366</v>
+        <v>114</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -7446,13 +7470,13 @@
         <v>0</v>
       </c>
       <c r="F123" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" s="1" t="b">
         <v>0</v>
@@ -7478,28 +7502,28 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C124" t="s">
         <v>3</v>
       </c>
       <c r="D124" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G124" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" s="1" t="b">
         <v>0</v>
@@ -7525,10 +7549,10 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="B125" t="s">
-        <v>117</v>
+        <v>366</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -7546,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="H125" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" s="1" t="b">
         <v>0</v>
@@ -7572,34 +7596,34 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="B126" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D126" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E126" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G126" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J126" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" s="1" t="b">
         <v>0</v>
@@ -7619,13 +7643,13 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C127" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D127" s="1" t="b">
         <v>0</v>
@@ -7640,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="H127" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" s="1" t="b">
         <v>0</v>
@@ -7666,10 +7690,10 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="B128" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -7678,22 +7702,22 @@
         <v>0</v>
       </c>
       <c r="E128" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G128" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J128" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" s="1" t="b">
         <v>0</v>
@@ -7713,13 +7737,13 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D129" s="1" t="b">
         <v>0</v>
@@ -7731,10 +7755,10 @@
         <v>0</v>
       </c>
       <c r="G129" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" s="1" t="b">
         <v>0</v>
@@ -7749,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129" s="1" t="b">
         <v>0</v>
@@ -7760,16 +7784,16 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="B130" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C130" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D130" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130" s="1" t="b">
         <v>0</v>
@@ -7778,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="G130" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" s="1" t="b">
         <v>0</v>
@@ -7807,10 +7831,10 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -7854,13 +7878,13 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>746</v>
+        <v>714</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D132" s="1" t="b">
         <v>1</v>
@@ -7901,10 +7925,10 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B133" t="s">
-        <v>359</v>
+        <v>122</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -7925,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" s="1" t="b">
         <v>0</v>
@@ -7937,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="M133" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N133" s="1" t="b">
         <v>0</v>
@@ -7948,22 +7972,22 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F134" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" s="1" t="b">
         <v>0</v>
@@ -7995,10 +8019,10 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>771</v>
+        <v>747</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
+        <v>359</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -8010,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="F135" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" s="1" t="b">
         <v>0</v>
@@ -8019,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" s="1" t="b">
         <v>0</v>
@@ -8042,13 +8066,13 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>785</v>
+        <v>748</v>
       </c>
       <c r="B136" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C136" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D136" s="1" t="b">
         <v>0</v>
@@ -8057,13 +8081,13 @@
         <v>0</v>
       </c>
       <c r="F136" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" s="1" t="b">
         <v>0</v>
@@ -8089,10 +8113,10 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>812</v>
+        <v>771</v>
       </c>
       <c r="B137" t="s">
-        <v>388</v>
+        <v>125</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -8104,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="F137" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" s="1" t="b">
         <v>0</v>
@@ -8136,16 +8160,16 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>821</v>
+        <v>785</v>
       </c>
       <c r="B138" t="s">
-        <v>383</v>
+        <v>126</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D138" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" s="1" t="b">
         <v>0</v>
@@ -8154,10 +8178,10 @@
         <v>0</v>
       </c>
       <c r="G138" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" s="1" t="b">
         <v>0</v>
@@ -8183,10 +8207,10 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="B139" t="s">
-        <v>127</v>
+        <v>388</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -8230,17 +8254,16 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="B140" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="1" t="b">
-        <f>O140</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" s="1" t="b">
         <v>0</v>
@@ -8261,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140" s="1" t="b">
         <v>0</v>
@@ -8278,10 +8301,10 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>860</v>
+        <v>830</v>
       </c>
       <c r="B141" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -8290,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" s="1" t="b">
         <v>0</v>
@@ -8325,10 +8348,10 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="B142" t="s">
-        <v>129</v>
+        <v>395</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -8352,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" s="1" t="b">
         <v>0</v>
@@ -8372,15 +8395,16 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>868</v>
+        <v>844</v>
       </c>
       <c r="B143" t="s">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
       </c>
       <c r="D143" s="1" t="b">
+        <f>O143</f>
         <v>0</v>
       </c>
       <c r="E143" s="1" t="b">
@@ -8402,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="K143" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" s="1" t="b">
         <v>0</v>
@@ -8419,22 +8443,22 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="B144" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C144" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D144" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" s="1" t="b">
         <v>0</v>
@@ -8466,10 +8490,10 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="B145" t="s">
-        <v>336</v>
+        <v>129</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -8493,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" s="1" t="b">
         <v>0</v>
@@ -8513,16 +8537,16 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="B146" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C146" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D146" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" s="1" t="b">
         <v>0</v>
@@ -8560,13 +8584,13 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="B147" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D147" s="1" t="b">
         <v>1</v>
@@ -8575,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="F147" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" s="1" t="b">
         <v>0</v>
@@ -8607,10 +8631,10 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>908</v>
+        <v>876</v>
       </c>
       <c r="B148" t="s">
-        <v>134</v>
+        <v>336</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -8634,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" s="1" t="b">
         <v>0</v>
@@ -8654,16 +8678,16 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>917</v>
+        <v>877</v>
       </c>
       <c r="B149" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D149" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" s="1" t="b">
         <v>0</v>
@@ -8681,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149" s="1" t="b">
         <v>0</v>
@@ -8701,16 +8725,16 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>922</v>
+        <v>887</v>
       </c>
       <c r="B150" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D150" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" s="1" t="b">
         <v>0</v>
@@ -8728,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" s="1" t="b">
         <v>0</v>
@@ -8748,10 +8772,10 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="B151" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -8775,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" s="1" t="b">
         <v>0</v>
@@ -8795,25 +8819,25 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>949</v>
+        <v>917</v>
       </c>
       <c r="B152" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C152" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D152" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E152" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G152" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152" s="1" t="b">
         <v>0</v>
@@ -8822,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K152" s="1" t="b">
         <v>0</v>
@@ -8842,13 +8866,13 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>966</v>
+        <v>922</v>
       </c>
       <c r="B153" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C153" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D153" s="1" t="b">
         <v>0</v>
@@ -8857,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="F153" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" s="1" t="b">
         <v>0</v>
@@ -8869,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" s="1" t="b">
         <v>0</v>
@@ -8889,10 +8913,10 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>976</v>
+        <v>925</v>
       </c>
       <c r="B154" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -8901,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" s="1" t="b">
         <v>0</v>
@@ -8916,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" s="1" t="b">
         <v>0</v>
@@ -8936,25 +8960,25 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="B155" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C155" t="s">
         <v>3</v>
       </c>
       <c r="D155" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G155" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" s="1" t="b">
         <v>0</v>
@@ -8972,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="M155" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155" s="1" t="b">
         <v>0</v>
@@ -8983,13 +9007,13 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>993</v>
+        <v>966</v>
       </c>
       <c r="B156" t="s">
-        <v>358</v>
+        <v>139</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D156" s="1" t="b">
         <v>0</v>
@@ -8998,13 +9022,13 @@
         <v>0</v>
       </c>
       <c r="F156" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" s="1" t="b">
         <v>0</v>
@@ -9030,10 +9054,10 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>999</v>
+        <v>976</v>
       </c>
       <c r="B157" t="s">
-        <v>362</v>
+        <v>140</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -9042,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" s="1" t="b">
         <v>0</v>
@@ -9077,16 +9101,16 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="B158" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D158" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" s="1" t="b">
         <v>0</v>
@@ -9101,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" s="1" t="b">
         <v>0</v>
@@ -9113,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="M158" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158" s="1" t="b">
         <v>0</v>
@@ -9124,10 +9148,10 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="B159" t="s">
-        <v>143</v>
+        <v>358</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -9142,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="G159" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" s="1" t="b">
         <v>0</v>
@@ -9171,10 +9195,10 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="B160" t="s">
-        <v>144</v>
+        <v>362</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -9213,21 +9237,21 @@
         <v>0</v>
       </c>
       <c r="O160" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="B161" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C161" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D161" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" s="1" t="b">
         <v>0</v>
@@ -9242,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" s="1" t="b">
         <v>0</v>
@@ -9265,10 +9289,10 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="B162" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -9312,10 +9336,10 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>1037</v>
+        <v>1013</v>
       </c>
       <c r="B163" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -9354,21 +9378,21 @@
         <v>0</v>
       </c>
       <c r="O163" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>1046</v>
+        <v>1014</v>
       </c>
       <c r="B164" t="s">
-        <v>373</v>
+        <v>145</v>
       </c>
       <c r="C164" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D164" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" s="1" t="b">
         <v>0</v>
@@ -9383,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" s="1" t="b">
         <v>0</v>
@@ -9406,10 +9430,10 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>1047</v>
+        <v>1025</v>
       </c>
       <c r="B165" t="s">
-        <v>147</v>
+        <v>328</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -9436,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="K165" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L165" s="1" t="b">
         <v>0</v>
@@ -9453,10 +9477,10 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="B166" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -9500,10 +9524,10 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>1071</v>
+        <v>1046</v>
       </c>
       <c r="B167" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -9524,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" s="1" t="b">
         <v>0</v>
@@ -9547,10 +9571,10 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>1078</v>
+        <v>1047</v>
       </c>
       <c r="B168" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -9577,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="K168" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168" s="1" t="b">
         <v>0</v>
@@ -9594,10 +9618,10 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>1089</v>
+        <v>1051</v>
       </c>
       <c r="B169" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -9621,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" s="1" t="b">
         <v>0</v>
@@ -9641,10 +9665,10 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>1103</v>
+        <v>1071</v>
       </c>
       <c r="B170" t="s">
-        <v>151</v>
+        <v>387</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -9688,10 +9712,10 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>1128</v>
+        <v>1078</v>
       </c>
       <c r="B171" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -9703,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" s="1" t="b">
         <v>0</v>
@@ -9735,16 +9759,16 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>1140</v>
+        <v>1089</v>
       </c>
       <c r="B172" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C172" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D172" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" s="1" t="b">
         <v>0</v>
@@ -9762,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K172" s="1" t="b">
         <v>0</v>
@@ -9777,15 +9801,15 @@
         <v>0</v>
       </c>
       <c r="O172" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>1154</v>
+        <v>1103</v>
       </c>
       <c r="B173" t="s">
-        <v>360</v>
+        <v>151</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -9829,10 +9853,10 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>1160</v>
+        <v>1128</v>
       </c>
       <c r="B174" t="s">
-        <v>377</v>
+        <v>152</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -9876,16 +9900,16 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>1175</v>
+        <v>1140</v>
       </c>
       <c r="B175" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D175" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" s="1" t="b">
         <v>0</v>
@@ -9918,15 +9942,15 @@
         <v>0</v>
       </c>
       <c r="O175" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>1185</v>
+        <v>1154</v>
       </c>
       <c r="B176" t="s">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -9970,10 +9994,10 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>1189</v>
+        <v>1160</v>
       </c>
       <c r="B177" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -10017,10 +10041,10 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>1200</v>
+        <v>1175</v>
       </c>
       <c r="B178" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -10064,22 +10088,22 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>1218</v>
+        <v>1185</v>
       </c>
       <c r="B179" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C179" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D179" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F179" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" s="1" t="b">
         <v>0</v>
@@ -10111,13 +10135,13 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>1254</v>
+        <v>1189</v>
       </c>
       <c r="B180" t="s">
-        <v>158</v>
+        <v>327</v>
       </c>
       <c r="C180" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D180" s="1" t="b">
         <v>0</v>
@@ -10126,13 +10150,13 @@
         <v>0</v>
       </c>
       <c r="F180" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" s="1" t="b">
         <v>0</v>
@@ -10158,10 +10182,10 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>1266</v>
+        <v>1200</v>
       </c>
       <c r="B181" t="s">
-        <v>372</v>
+        <v>156</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -10205,22 +10229,22 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>1281</v>
+        <v>1218</v>
       </c>
       <c r="B182" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C182" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D182" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F182" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" s="1" t="b">
         <v>0</v>
@@ -10252,13 +10276,13 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>1287</v>
+        <v>1254</v>
       </c>
       <c r="B183" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D183" s="1" t="b">
         <v>0</v>
@@ -10270,10 +10294,10 @@
         <v>0</v>
       </c>
       <c r="G183" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" s="1" t="b">
         <v>0</v>
@@ -10299,10 +10323,10 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>1290</v>
+        <v>1266</v>
       </c>
       <c r="B184" t="s">
-        <v>161</v>
+        <v>372</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -10346,10 +10370,10 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>1304</v>
+        <v>1281</v>
       </c>
       <c r="B185" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -10393,10 +10417,10 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>1313</v>
+        <v>1287</v>
       </c>
       <c r="B186" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -10440,10 +10464,10 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>1317</v>
+        <v>1290</v>
       </c>
       <c r="B187" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -10487,10 +10511,10 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>1331</v>
+        <v>1304</v>
       </c>
       <c r="B188" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -10502,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="F188" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188" s="1" t="b">
         <v>0</v>
@@ -10534,10 +10558,10 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>1332</v>
+        <v>1313</v>
       </c>
       <c r="B189" t="s">
-        <v>357</v>
+        <v>163</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -10561,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189" s="1" t="b">
         <v>0</v>
@@ -10581,10 +10605,10 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>1337</v>
+        <v>1317</v>
       </c>
       <c r="B190" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -10605,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" s="1" t="b">
         <v>0</v>
@@ -10617,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="M190" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N190" s="1" t="b">
         <v>0</v>
@@ -10628,10 +10652,10 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>1342</v>
+        <v>1331</v>
       </c>
       <c r="B191" t="s">
-        <v>350</v>
+        <v>165</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -10643,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="F191" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191" s="1" t="b">
         <v>0</v>
@@ -10675,10 +10699,10 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>1346</v>
+        <v>1332</v>
       </c>
       <c r="B192" t="s">
-        <v>167</v>
+        <v>357</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -10690,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="F192" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192" s="1" t="b">
         <v>0</v>
@@ -10702,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" s="1" t="b">
         <v>0</v>
@@ -10722,10 +10746,10 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>1356</v>
+        <v>1337</v>
       </c>
       <c r="B193" t="s">
-        <v>363</v>
+        <v>166</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -10746,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" s="1" t="b">
         <v>0</v>
@@ -10758,7 +10782,7 @@
         <v>0</v>
       </c>
       <c r="M193" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N193" s="1" t="b">
         <v>0</v>
@@ -10769,10 +10793,10 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>1374</v>
+        <v>1342</v>
       </c>
       <c r="B194" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -10816,10 +10840,10 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>1389</v>
+        <v>1346</v>
       </c>
       <c r="B195" t="s">
-        <v>347</v>
+        <v>167</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -10831,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" s="1" t="b">
         <v>0</v>
@@ -10863,10 +10887,10 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>1394</v>
+        <v>1356</v>
       </c>
       <c r="B196" t="s">
-        <v>169</v>
+        <v>363</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -10878,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196" s="1" t="b">
         <v>0</v>
@@ -10910,10 +10934,10 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>1399</v>
+        <v>1374</v>
       </c>
       <c r="B197" t="s">
-        <v>384</v>
+        <v>168</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -10925,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" s="1" t="b">
         <v>0</v>
@@ -10957,16 +10981,16 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>1406</v>
+        <v>1389</v>
       </c>
       <c r="B198" t="s">
-        <v>170</v>
+        <v>347</v>
       </c>
       <c r="C198" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D198" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E198" s="1" t="b">
         <v>0</v>
@@ -11004,10 +11028,10 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>1417</v>
+        <v>1394</v>
       </c>
       <c r="B199" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -11019,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="F199" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199" s="1" t="b">
         <v>0</v>
@@ -11051,10 +11075,10 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>1431</v>
+        <v>1399</v>
       </c>
       <c r="B200" t="s">
-        <v>172</v>
+        <v>384</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -11066,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="F200" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" s="1" t="b">
         <v>0</v>
@@ -11098,16 +11122,16 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>1464</v>
+        <v>1406</v>
       </c>
       <c r="B201" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D201" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" s="1" t="b">
         <v>0</v>
@@ -11122,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" s="1" t="b">
         <v>0</v>
@@ -11145,10 +11169,10 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>1502</v>
+        <v>1417</v>
       </c>
       <c r="B202" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -11192,10 +11216,10 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>1507</v>
+        <v>1431</v>
       </c>
       <c r="B203" t="s">
-        <v>345</v>
+        <v>172</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -11207,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="F203" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203" s="1" t="b">
         <v>0</v>
@@ -11239,16 +11263,16 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>1510</v>
+        <v>1464</v>
       </c>
       <c r="B204" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D204" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" s="1" t="b">
         <v>0</v>
@@ -11263,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" s="1" t="b">
         <v>0</v>
@@ -11286,10 +11310,10 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>1523</v>
+        <v>1502</v>
       </c>
       <c r="B205" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -11333,22 +11357,22 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>1524</v>
+        <v>1507</v>
       </c>
       <c r="B206" t="s">
-        <v>177</v>
+        <v>345</v>
       </c>
       <c r="C206" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D206" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F206" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206" s="1" t="b">
         <v>0</v>
@@ -11375,21 +11399,21 @@
         <v>0</v>
       </c>
       <c r="O206" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>1534</v>
+        <v>1510</v>
       </c>
       <c r="B207" t="s">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D207" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207" s="1" t="b">
         <v>0</v>
@@ -11427,10 +11451,10 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>1539</v>
+        <v>1523</v>
       </c>
       <c r="B208" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -11463,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="M208" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N208" s="1" t="b">
         <v>0</v>
@@ -11474,16 +11498,16 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>1544</v>
+        <v>1524</v>
       </c>
       <c r="B209" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D209" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E209" s="1" t="b">
         <v>0</v>
@@ -11504,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="K209" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L209" s="1" t="b">
         <v>0</v>
@@ -11516,15 +11540,15 @@
         <v>0</v>
       </c>
       <c r="O209" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>1560</v>
+        <v>1534</v>
       </c>
       <c r="B210" t="s">
-        <v>180</v>
+        <v>326</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -11568,16 +11592,16 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>1594</v>
+        <v>1539</v>
       </c>
       <c r="B211" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C211" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D211" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211" s="1" t="b">
         <v>0</v>
@@ -11604,7 +11628,7 @@
         <v>0</v>
       </c>
       <c r="M211" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N211" s="1" t="b">
         <v>0</v>
@@ -11615,10 +11639,10 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>1598</v>
+        <v>1544</v>
       </c>
       <c r="B212" t="s">
-        <v>346</v>
+        <v>179</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -11662,10 +11686,10 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>1619</v>
+        <v>1560</v>
       </c>
       <c r="B213" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -11709,10 +11733,10 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>1621</v>
+        <v>1594</v>
       </c>
       <c r="B214" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C214" t="s">
         <v>3</v>
@@ -11756,10 +11780,10 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>1624</v>
+        <v>1598</v>
       </c>
       <c r="B215" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -11771,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="F215" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215" s="1" t="b">
         <v>0</v>
@@ -11786,7 +11810,7 @@
         <v>0</v>
       </c>
       <c r="K215" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L215" s="1" t="b">
         <v>0</v>
@@ -11803,10 +11827,10 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>1640</v>
+        <v>1619</v>
       </c>
       <c r="B216" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -11818,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="F216" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G216" s="1" t="b">
         <v>0</v>
@@ -11850,10 +11874,10 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>1641</v>
+        <v>1621</v>
       </c>
       <c r="B217" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C217" t="s">
         <v>3</v>
@@ -11897,22 +11921,22 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>1646</v>
+        <v>1624</v>
       </c>
       <c r="B218" t="s">
-        <v>186</v>
+        <v>374</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
       </c>
       <c r="D218" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F218" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218" s="1" t="b">
         <v>0</v>
@@ -11944,10 +11968,10 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>1652</v>
+        <v>1640</v>
       </c>
       <c r="B219" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -11959,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="F219" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219" s="1" t="b">
         <v>0</v>
@@ -11983,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="N219" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O219" s="1" t="b">
         <v>0</v>
@@ -11991,13 +12015,13 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>1668</v>
+        <v>1641</v>
       </c>
       <c r="B220" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C220" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D220" s="1" t="b">
         <v>1</v>
@@ -12038,16 +12062,16 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>1672</v>
+        <v>1646</v>
       </c>
       <c r="B221" t="s">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
       </c>
       <c r="D221" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221" s="1" t="b">
         <v>0</v>
@@ -12085,10 +12109,10 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>1704</v>
+        <v>1652</v>
       </c>
       <c r="B222" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -12124,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="N222" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O222" s="1" t="b">
         <v>0</v>
@@ -12132,19 +12156,19 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>1710</v>
+        <v>1668</v>
       </c>
       <c r="B223" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
       </c>
       <c r="D223" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E223" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223" s="1" t="b">
         <v>0</v>
@@ -12179,10 +12203,10 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>1716</v>
+        <v>1672</v>
       </c>
       <c r="B224" t="s">
-        <v>191</v>
+        <v>376</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -12226,10 +12250,10 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>1720</v>
+        <v>1684</v>
       </c>
       <c r="B225" t="s">
-        <v>192</v>
+        <v>391</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -12241,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="F225" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" s="1" t="b">
         <v>0</v>
@@ -12273,10 +12297,10 @@
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>1725</v>
+        <v>1704</v>
       </c>
       <c r="B226" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -12320,13 +12344,13 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>1733</v>
+        <v>1710</v>
       </c>
       <c r="B227" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C227" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D227" s="1" t="b">
         <v>0</v>
@@ -12335,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227" s="1" t="b">
         <v>0</v>
@@ -12367,10 +12391,10 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>1748</v>
+        <v>1716</v>
       </c>
       <c r="B228" t="s">
-        <v>378</v>
+        <v>191</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -12382,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="F228" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G228" s="1" t="b">
         <v>0</v>
@@ -12414,10 +12438,10 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>1752</v>
+        <v>1720</v>
       </c>
       <c r="B229" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -12461,10 +12485,10 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>1768</v>
+        <v>1725</v>
       </c>
       <c r="B230" t="s">
-        <v>340</v>
+        <v>193</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -12488,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="J230" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K230" s="1" t="b">
         <v>0</v>
@@ -12508,19 +12532,19 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>1790</v>
+        <v>1733</v>
       </c>
       <c r="B231" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C231" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D231" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E231" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" s="1" t="b">
         <v>1</v>
@@ -12555,10 +12579,10 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>1791</v>
+        <v>1748</v>
       </c>
       <c r="B232" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -12570,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="F232" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G232" s="1" t="b">
         <v>0</v>
@@ -12602,16 +12626,16 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>1800</v>
+        <v>1752</v>
       </c>
       <c r="B233" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
       </c>
       <c r="D233" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233" s="1" t="b">
         <v>0</v>
@@ -12649,10 +12673,10 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>1805</v>
+        <v>1768</v>
       </c>
       <c r="B234" t="s">
-        <v>198</v>
+        <v>340</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -12664,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="F234" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234" s="1" t="b">
         <v>0</v>
@@ -12676,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="J234" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234" s="1" t="b">
         <v>0</v>
@@ -12696,10 +12720,10 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="B235" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -12711,7 +12735,7 @@
         <v>0</v>
       </c>
       <c r="F235" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235" s="1" t="b">
         <v>0</v>
@@ -12743,10 +12767,10 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>1822</v>
+        <v>1791</v>
       </c>
       <c r="B236" t="s">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -12790,16 +12814,16 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>1837</v>
+        <v>1800</v>
       </c>
       <c r="B237" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
       </c>
       <c r="D237" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237" s="1" t="b">
         <v>0</v>
@@ -12837,10 +12861,10 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>1880</v>
+        <v>1805</v>
       </c>
       <c r="B238" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -12852,7 +12876,7 @@
         <v>0</v>
       </c>
       <c r="F238" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238" s="1" t="b">
         <v>0</v>
@@ -12884,10 +12908,10 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>1903</v>
+        <v>1812</v>
       </c>
       <c r="B239" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -12896,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="E239" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239" s="1" t="b">
         <v>0</v>
@@ -12931,13 +12955,13 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>1912</v>
+        <v>1822</v>
       </c>
       <c r="B240" t="s">
-        <v>325</v>
+        <v>200</v>
       </c>
       <c r="C240" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D240" s="1" t="b">
         <v>0</v>
@@ -12946,7 +12970,7 @@
         <v>0</v>
       </c>
       <c r="F240" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G240" s="1" t="b">
         <v>0</v>
@@ -12955,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="I240" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="1" t="b">
         <v>0</v>
@@ -12978,10 +13002,10 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>1935</v>
+        <v>1837</v>
       </c>
       <c r="B241" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -12993,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="F241" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G241" s="1" t="b">
         <v>0</v>
@@ -13025,10 +13049,10 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>1952</v>
+        <v>1880</v>
       </c>
       <c r="B242" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -13072,10 +13096,10 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>1957</v>
+        <v>1903</v>
       </c>
       <c r="B243" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -13084,7 +13108,7 @@
         <v>0</v>
       </c>
       <c r="E243" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243" s="1" t="b">
         <v>0</v>
@@ -13119,13 +13143,13 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>1961</v>
+        <v>1912</v>
       </c>
       <c r="B244" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C244" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>0</v>
@@ -13134,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="F244" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244" s="1" t="b">
         <v>0</v>
@@ -13143,10 +13167,10 @@
         <v>0</v>
       </c>
       <c r="I244" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K244" s="1" t="b">
         <v>0</v>
@@ -13166,10 +13190,10 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>1974</v>
+        <v>1935</v>
       </c>
       <c r="B245" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -13178,10 +13202,10 @@
         <v>0</v>
       </c>
       <c r="E245" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245" s="1" t="b">
         <v>0</v>
@@ -13213,10 +13237,10 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>1984</v>
+        <v>1952</v>
       </c>
       <c r="B246" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -13240,7 +13264,7 @@
         <v>0</v>
       </c>
       <c r="J246" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K246" s="1" t="b">
         <v>0</v>
@@ -13252,7 +13276,7 @@
         <v>0</v>
       </c>
       <c r="N246" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O246" s="1" t="b">
         <v>0</v>
@@ -13260,10 +13284,10 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>1991</v>
+        <v>1957</v>
       </c>
       <c r="B247" t="s">
-        <v>208</v>
+        <v>361</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -13302,21 +13326,21 @@
         <v>0</v>
       </c>
       <c r="O247" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>2016</v>
+        <v>1961</v>
       </c>
       <c r="B248" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
       </c>
       <c r="D248" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E248" s="1" t="b">
         <v>0</v>
@@ -13334,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="J248" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K248" s="1" t="b">
         <v>0</v>
@@ -13354,10 +13378,10 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>2027</v>
+        <v>1974</v>
       </c>
       <c r="B249" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -13401,10 +13425,10 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>2037</v>
+        <v>1984</v>
       </c>
       <c r="B250" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -13413,7 +13437,7 @@
         <v>0</v>
       </c>
       <c r="E250" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250" s="1" t="b">
         <v>0</v>
@@ -13428,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="J250" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K250" s="1" t="b">
         <v>0</v>
@@ -13440,7 +13464,7 @@
         <v>0</v>
       </c>
       <c r="N250" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O250" s="1" t="b">
         <v>0</v>
@@ -13448,10 +13472,10 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>2047</v>
+        <v>1991</v>
       </c>
       <c r="B251" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -13490,18 +13514,18 @@
         <v>0</v>
       </c>
       <c r="O251" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>2063</v>
+        <v>2016</v>
       </c>
       <c r="B252" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C252" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
@@ -13542,10 +13566,10 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>2078</v>
+        <v>2027</v>
       </c>
       <c r="B253" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -13589,10 +13613,10 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>2119</v>
+        <v>2037</v>
       </c>
       <c r="B254" t="s">
-        <v>379</v>
+        <v>211</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -13601,7 +13625,7 @@
         <v>0</v>
       </c>
       <c r="E254" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254" s="1" t="b">
         <v>0</v>
@@ -13636,10 +13660,10 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>2133</v>
+        <v>2047</v>
       </c>
       <c r="B255" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -13651,7 +13675,7 @@
         <v>0</v>
       </c>
       <c r="F255" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255" s="1" t="b">
         <v>0</v>
@@ -13683,13 +13707,13 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>2138</v>
+        <v>2063</v>
       </c>
       <c r="B256" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C256" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D256" s="1" t="b">
         <v>1</v>
@@ -13730,19 +13754,19 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>2145</v>
+        <v>2078</v>
       </c>
       <c r="B257" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C257" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D257" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E257" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257" s="1" t="b">
         <v>0</v>
@@ -13772,15 +13796,15 @@
         <v>0</v>
       </c>
       <c r="O257" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>2148</v>
+        <v>2119</v>
       </c>
       <c r="B258" t="s">
-        <v>218</v>
+        <v>379</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -13824,10 +13848,10 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>2164</v>
+        <v>2133</v>
       </c>
       <c r="B259" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -13839,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="F259" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259" s="1" t="b">
         <v>0</v>
@@ -13871,16 +13895,16 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>2169</v>
+        <v>2138</v>
       </c>
       <c r="B260" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
       </c>
       <c r="D260" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260" s="1" t="b">
         <v>0</v>
@@ -13918,13 +13942,13 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>2176</v>
+        <v>2145</v>
       </c>
       <c r="B261" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C261" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D261" s="1" t="b">
         <v>0</v>
@@ -13960,18 +13984,18 @@
         <v>0</v>
       </c>
       <c r="O261" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>2197</v>
+        <v>2148</v>
       </c>
       <c r="B262" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C262" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D262" s="1" t="b">
         <v>0</v>
@@ -13995,7 +14019,7 @@
         <v>0</v>
       </c>
       <c r="K262" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L262" s="1" t="b">
         <v>0</v>
@@ -14012,10 +14036,10 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>2200</v>
+        <v>2164</v>
       </c>
       <c r="B263" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -14039,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="J263" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K263" s="1" t="b">
         <v>0</v>
@@ -14059,10 +14083,10 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>2206</v>
+        <v>2169</v>
       </c>
       <c r="B264" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -14074,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="F264" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G264" s="1" t="b">
         <v>0</v>
@@ -14106,10 +14130,10 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>2210</v>
+        <v>2176</v>
       </c>
       <c r="B265" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -14153,13 +14177,13 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>2220</v>
+        <v>2197</v>
       </c>
       <c r="B266" t="s">
-        <v>353</v>
+        <v>222</v>
       </c>
       <c r="C266" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D266" s="1" t="b">
         <v>0</v>
@@ -14183,7 +14207,7 @@
         <v>0</v>
       </c>
       <c r="K266" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L266" s="1" t="b">
         <v>0</v>
@@ -14200,10 +14224,10 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>2231</v>
+        <v>2200</v>
       </c>
       <c r="B267" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -14224,10 +14248,10 @@
         <v>0</v>
       </c>
       <c r="I267" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K267" s="1" t="b">
         <v>0</v>
@@ -14247,10 +14271,10 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>2239</v>
+        <v>2206</v>
       </c>
       <c r="B268" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -14262,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="F268" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" s="1" t="b">
         <v>0</v>
@@ -14294,10 +14318,10 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>2243</v>
+        <v>2210</v>
       </c>
       <c r="B269" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -14341,10 +14365,10 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>2255</v>
+        <v>2220</v>
       </c>
       <c r="B270" t="s">
-        <v>229</v>
+        <v>353</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -14388,10 +14412,10 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271">
-        <v>2264</v>
+        <v>2224</v>
       </c>
       <c r="B271" t="s">
-        <v>230</v>
+        <v>394</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -14400,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="E271" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" s="1" t="b">
         <v>0</v>
@@ -14435,10 +14459,10 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>2273</v>
+        <v>2231</v>
       </c>
       <c r="B272" t="s">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -14450,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="F272" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G272" s="1" t="b">
         <v>0</v>
@@ -14459,10 +14483,10 @@
         <v>0</v>
       </c>
       <c r="I272" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K272" s="1" t="b">
         <v>0</v>
@@ -14482,10 +14506,10 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="B273" t="s">
-        <v>349</v>
+        <v>227</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -14497,7 +14521,7 @@
         <v>0</v>
       </c>
       <c r="F273" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="1" t="b">
         <v>0</v>
@@ -14529,16 +14553,16 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>2327</v>
+        <v>2243</v>
       </c>
       <c r="B274" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C274" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D274" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E274" s="1" t="b">
         <v>0</v>
@@ -14562,7 +14586,7 @@
         <v>0</v>
       </c>
       <c r="L274" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M274" s="1" t="b">
         <v>0</v>
@@ -14576,10 +14600,10 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275">
-        <v>2331</v>
+        <v>2255</v>
       </c>
       <c r="B275" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -14594,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="G275" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275" s="1" t="b">
         <v>0</v>
@@ -14623,13 +14647,13 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>2353</v>
+        <v>2264</v>
       </c>
       <c r="B276" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C276" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D276" s="1" t="b">
         <v>0</v>
@@ -14638,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="F276" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276" s="1" t="b">
         <v>0</v>
@@ -14647,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="I276" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" s="1" t="b">
         <v>0</v>
@@ -14670,10 +14694,10 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>2389</v>
+        <v>2273</v>
       </c>
       <c r="B277" t="s">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -14682,10 +14706,10 @@
         <v>0</v>
       </c>
       <c r="E277" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G277" s="1" t="b">
         <v>0</v>
@@ -14697,7 +14721,7 @@
         <v>0</v>
       </c>
       <c r="J277" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K277" s="1" t="b">
         <v>0</v>
@@ -14706,21 +14730,21 @@
         <v>0</v>
       </c>
       <c r="M277" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N277" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O277" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278">
-        <v>2395</v>
+        <v>2283</v>
       </c>
       <c r="B278" t="s">
-        <v>235</v>
+        <v>349</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -14764,16 +14788,16 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279">
-        <v>2427</v>
+        <v>2327</v>
       </c>
       <c r="B279" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="C279" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D279" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E279" s="1" t="b">
         <v>0</v>
@@ -14797,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="L279" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M279" s="1" t="b">
         <v>0</v>
@@ -14811,10 +14835,10 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>2432</v>
+        <v>2331</v>
       </c>
       <c r="B280" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -14829,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280" s="1" t="b">
         <v>0</v>
@@ -14858,13 +14882,13 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281">
-        <v>2446</v>
+        <v>2353</v>
       </c>
       <c r="B281" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C281" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D281" s="1" t="b">
         <v>0</v>
@@ -14873,7 +14897,7 @@
         <v>0</v>
       </c>
       <c r="F281" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281" s="1" t="b">
         <v>0</v>
@@ -14882,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" s="1" t="b">
         <v>0</v>
@@ -14905,10 +14929,10 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>2451</v>
+        <v>2389</v>
       </c>
       <c r="B282" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -14917,10 +14941,10 @@
         <v>0</v>
       </c>
       <c r="E282" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F282" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G282" s="1" t="b">
         <v>0</v>
@@ -14941,21 +14965,21 @@
         <v>0</v>
       </c>
       <c r="M282" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N282" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O282" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>2455</v>
+        <v>2395</v>
       </c>
       <c r="B283" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -14967,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="F283" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G283" s="1" t="b">
         <v>0</v>
@@ -14999,10 +15023,10 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>2460</v>
+        <v>2427</v>
       </c>
       <c r="B284" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -15026,7 +15050,7 @@
         <v>0</v>
       </c>
       <c r="J284" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K284" s="1" t="b">
         <v>0</v>
@@ -15046,10 +15070,10 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>2465</v>
+        <v>2432</v>
       </c>
       <c r="B285" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -15061,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="F285" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G285" s="1" t="b">
         <v>0</v>
@@ -15073,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="J285" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K285" s="1" t="b">
         <v>0</v>
@@ -15093,10 +15117,10 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>2469</v>
+        <v>2446</v>
       </c>
       <c r="B286" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -15140,10 +15164,10 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287">
-        <v>2481</v>
+        <v>2451</v>
       </c>
       <c r="B287" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -15155,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="F287" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G287" s="1" t="b">
         <v>0</v>
@@ -15187,10 +15211,10 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>2485</v>
+        <v>2455</v>
       </c>
       <c r="B288" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -15229,27 +15253,27 @@
         <v>0</v>
       </c>
       <c r="O288" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289">
-        <v>2501</v>
+        <v>2460</v>
       </c>
       <c r="B289" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C289" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D289" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E289" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F289" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G289" s="1" t="b">
         <v>0</v>
@@ -15261,7 +15285,7 @@
         <v>0</v>
       </c>
       <c r="J289" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K289" s="1" t="b">
         <v>0</v>
@@ -15270,7 +15294,7 @@
         <v>0</v>
       </c>
       <c r="M289" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N289" s="1" t="b">
         <v>0</v>
@@ -15281,10 +15305,10 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290">
-        <v>2506</v>
+        <v>2465</v>
       </c>
       <c r="B290" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -15308,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="J290" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K290" s="1" t="b">
         <v>0</v>
@@ -15328,10 +15352,10 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>2520</v>
+        <v>2469</v>
       </c>
       <c r="B291" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -15375,10 +15399,10 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292">
-        <v>2544</v>
+        <v>2481</v>
       </c>
       <c r="B292" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -15422,10 +15446,10 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293">
-        <v>2562</v>
+        <v>2485</v>
       </c>
       <c r="B293" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -15449,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="J293" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K293" s="1" t="b">
         <v>0</v>
@@ -15464,21 +15488,21 @@
         <v>0</v>
       </c>
       <c r="O293" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>2570</v>
+        <v>2501</v>
       </c>
       <c r="B294" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C294" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D294" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E294" s="1" t="b">
         <v>0</v>
@@ -15496,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="J294" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K294" s="1" t="b">
         <v>0</v>
@@ -15505,7 +15529,7 @@
         <v>0</v>
       </c>
       <c r="M294" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N294" s="1" t="b">
         <v>0</v>
@@ -15516,10 +15540,10 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>2595</v>
+        <v>2506</v>
       </c>
       <c r="B295" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -15531,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="F295" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295" s="1" t="b">
         <v>0</v>
@@ -15563,10 +15587,10 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>2600</v>
+        <v>2520</v>
       </c>
       <c r="B296" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -15575,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="E296" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F296" s="1" t="b">
         <v>0</v>
@@ -15610,10 +15634,10 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297">
-        <v>2614</v>
+        <v>2544</v>
       </c>
       <c r="B297" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -15657,10 +15681,10 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>2639</v>
+        <v>2562</v>
       </c>
       <c r="B298" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -15684,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="J298" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K298" s="1" t="b">
         <v>0</v>
@@ -15704,10 +15728,10 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>2643</v>
+        <v>2570</v>
       </c>
       <c r="B299" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -15719,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="F299" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G299" s="1" t="b">
         <v>0</v>
@@ -15731,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="J299" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K299" s="1" t="b">
         <v>0</v>
@@ -15751,10 +15775,10 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300">
-        <v>2644</v>
+        <v>2595</v>
       </c>
       <c r="B300" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -15798,10 +15822,10 @@
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>2651</v>
+        <v>2600</v>
       </c>
       <c r="B301" t="s">
-        <v>253</v>
+        <v>355</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -15810,7 +15834,7 @@
         <v>0</v>
       </c>
       <c r="E301" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F301" s="1" t="b">
         <v>0</v>
@@ -15845,10 +15869,10 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>2656</v>
+        <v>2614</v>
       </c>
       <c r="B302" t="s">
-        <v>331</v>
+        <v>249</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -15857,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="E302" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F302" s="1" t="b">
         <v>0</v>
@@ -15892,10 +15916,10 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>2670</v>
+        <v>2639</v>
       </c>
       <c r="B303" t="s">
-        <v>381</v>
+        <v>250</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -15907,7 +15931,7 @@
         <v>0</v>
       </c>
       <c r="F303" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G303" s="1" t="b">
         <v>0</v>
@@ -15939,10 +15963,10 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>2678</v>
+        <v>2643</v>
       </c>
       <c r="B304" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -15986,10 +16010,10 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>2682</v>
+        <v>2644</v>
       </c>
       <c r="B305" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -16001,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="F305" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G305" s="1" t="b">
         <v>0</v>
@@ -16033,10 +16057,10 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>2696</v>
+        <v>2651</v>
       </c>
       <c r="B306" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -16063,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="K306" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L306" s="1" t="b">
         <v>0</v>
@@ -16080,10 +16104,10 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>2697</v>
+        <v>2656</v>
       </c>
       <c r="B307" t="s">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -16107,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="J307" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K307" s="1" t="b">
         <v>0</v>
@@ -16127,10 +16151,10 @@
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>2710</v>
+        <v>2670</v>
       </c>
       <c r="B308" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -16142,7 +16166,7 @@
         <v>0</v>
       </c>
       <c r="F308" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G308" s="1" t="b">
         <v>0</v>
@@ -16174,10 +16198,10 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>2744</v>
+        <v>2678</v>
       </c>
       <c r="B309" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -16189,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="F309" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G309" s="1" t="b">
         <v>0</v>
@@ -16221,22 +16245,22 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>2765</v>
+        <v>2682</v>
       </c>
       <c r="B310" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
       </c>
       <c r="D310" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E310" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F310" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G310" s="1" t="b">
         <v>0</v>
@@ -16268,10 +16292,10 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>2784</v>
+        <v>2696</v>
       </c>
       <c r="B311" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -16283,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="F311" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G311" s="1" t="b">
         <v>0</v>
@@ -16298,7 +16322,7 @@
         <v>0</v>
       </c>
       <c r="K311" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L311" s="1" t="b">
         <v>0</v>
@@ -16315,19 +16339,19 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>2785</v>
+        <v>2697</v>
       </c>
       <c r="B312" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C312" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D312" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E312" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F312" s="1" t="b">
         <v>0</v>
@@ -16342,7 +16366,7 @@
         <v>0</v>
       </c>
       <c r="J312" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K312" s="1" t="b">
         <v>0</v>
@@ -16362,16 +16386,16 @@
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>2786</v>
+        <v>2710</v>
       </c>
       <c r="B313" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C313" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D313" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E313" s="1" t="b">
         <v>0</v>
@@ -16409,10 +16433,10 @@
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314">
-        <v>2806</v>
+        <v>2744</v>
       </c>
       <c r="B314" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -16424,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="F314" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G314" s="1" t="b">
         <v>0</v>
@@ -16456,16 +16480,16 @@
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315">
-        <v>2810</v>
+        <v>2765</v>
       </c>
       <c r="B315" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
       </c>
       <c r="D315" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E315" s="1" t="b">
         <v>0</v>
@@ -16503,10 +16527,10 @@
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>2815</v>
+        <v>2784</v>
       </c>
       <c r="B316" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -16550,13 +16574,13 @@
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317">
-        <v>2839</v>
+        <v>2785</v>
       </c>
       <c r="B317" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C317" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D317" s="1" t="b">
         <v>0</v>
@@ -16565,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="F317" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G317" s="1" t="b">
         <v>0</v>
@@ -16597,16 +16621,16 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>2855</v>
+        <v>2786</v>
       </c>
       <c r="B318" t="s">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="C318" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D318" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E318" s="1" t="b">
         <v>0</v>
@@ -16644,10 +16668,10 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319">
-        <v>2864</v>
+        <v>2806</v>
       </c>
       <c r="B319" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -16656,7 +16680,7 @@
         <v>0</v>
       </c>
       <c r="E319" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319" s="1" t="b">
         <v>0</v>
@@ -16691,16 +16715,16 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320">
-        <v>2873</v>
+        <v>2810</v>
       </c>
       <c r="B320" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
       </c>
       <c r="D320" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E320" s="1" t="b">
         <v>0</v>
@@ -16738,10 +16762,10 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321">
-        <v>2899</v>
+        <v>2815</v>
       </c>
       <c r="B321" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -16753,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="F321" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G321" s="1" t="b">
         <v>0</v>
@@ -16785,22 +16809,22 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322">
-        <v>2900</v>
+        <v>2839</v>
       </c>
       <c r="B322" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
       </c>
       <c r="D322" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E322" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F322" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G322" s="1" t="b">
         <v>0</v>
@@ -16832,10 +16856,10 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323">
-        <v>2928</v>
+        <v>2855</v>
       </c>
       <c r="B323" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -16879,19 +16903,19 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>2929</v>
+        <v>2864</v>
       </c>
       <c r="B324" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C324" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D324" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E324" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F324" s="1" t="b">
         <v>0</v>
@@ -16926,13 +16950,13 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325">
-        <v>2944</v>
+        <v>2873</v>
       </c>
       <c r="B325" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C325" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D325" s="1" t="b">
         <v>1</v>
@@ -16950,7 +16974,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J325" s="1" t="b">
         <v>0</v>
@@ -16959,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="L325" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M325" s="1" t="b">
         <v>0</v>
@@ -16973,10 +16997,10 @@
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>2960</v>
+        <v>2899</v>
       </c>
       <c r="B326" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -17020,22 +17044,22 @@
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>2965</v>
+        <v>2900</v>
       </c>
       <c r="B327" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
       </c>
       <c r="D327" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E327" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F327" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G327" s="1" t="b">
         <v>0</v>
@@ -17067,10 +17091,10 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>2974</v>
+        <v>2928</v>
       </c>
       <c r="B328" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -17091,7 +17115,7 @@
         <v>0</v>
       </c>
       <c r="I328" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" s="1" t="b">
         <v>0</v>
@@ -17114,13 +17138,13 @@
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>3005</v>
+        <v>2929</v>
       </c>
       <c r="B329" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="C329" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D329" s="1" t="b">
         <v>0</v>
@@ -17129,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="F329" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G329" s="1" t="b">
         <v>0</v>
@@ -17161,10 +17185,10 @@
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>3014</v>
+        <v>2937</v>
       </c>
       <c r="B330" t="s">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -17173,7 +17197,7 @@
         <v>0</v>
       </c>
       <c r="E330" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F330" s="1" t="b">
         <v>0</v>
@@ -17208,16 +17232,16 @@
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331">
-        <v>3019</v>
+        <v>2944</v>
       </c>
       <c r="B331" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C331" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D331" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E331" s="1" t="b">
         <v>0</v>
@@ -17232,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="I331" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" s="1" t="b">
         <v>0</v>
@@ -17241,7 +17265,7 @@
         <v>0</v>
       </c>
       <c r="L331" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M331" s="1" t="b">
         <v>0</v>
@@ -17255,10 +17279,10 @@
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332">
-        <v>3079</v>
+        <v>2960</v>
       </c>
       <c r="B332" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -17302,10 +17326,10 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333">
-        <v>3090</v>
+        <v>2965</v>
       </c>
       <c r="B333" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -17341,7 +17365,7 @@
         <v>0</v>
       </c>
       <c r="N333" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O333" s="1" t="b">
         <v>0</v>
@@ -17349,16 +17373,16 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334">
-        <v>3105</v>
+        <v>2974</v>
       </c>
       <c r="B334" t="s">
-        <v>375</v>
+        <v>277</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
       </c>
       <c r="D334" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E334" s="1" t="b">
         <v>0</v>
@@ -17373,7 +17397,7 @@
         <v>0</v>
       </c>
       <c r="I334" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" s="1" t="b">
         <v>0</v>
@@ -17396,10 +17420,10 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335">
-        <v>3110</v>
+        <v>3005</v>
       </c>
       <c r="B335" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -17411,7 +17435,7 @@
         <v>0</v>
       </c>
       <c r="F335" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335" s="1" t="b">
         <v>0</v>
@@ -17443,10 +17467,10 @@
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336">
-        <v>3120</v>
+        <v>3014</v>
       </c>
       <c r="B336" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -17455,10 +17479,10 @@
         <v>0</v>
       </c>
       <c r="E336" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F336" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G336" s="1" t="b">
         <v>0</v>
@@ -17490,10 +17514,10 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337">
-        <v>3142</v>
+        <v>3019</v>
       </c>
       <c r="B337" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -17537,10 +17561,10 @@
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338">
-        <v>3158</v>
+        <v>3079</v>
       </c>
       <c r="B338" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -17552,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="F338" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G338" s="1" t="b">
         <v>0</v>
@@ -17584,10 +17608,10 @@
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339">
-        <v>3174</v>
+        <v>3090</v>
       </c>
       <c r="B339" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -17599,7 +17623,7 @@
         <v>0</v>
       </c>
       <c r="F339" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G339" s="1" t="b">
         <v>0</v>
@@ -17614,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="K339" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L339" s="1" t="b">
         <v>0</v>
@@ -17623,7 +17647,7 @@
         <v>0</v>
       </c>
       <c r="N339" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O339" s="1" t="b">
         <v>0</v>
@@ -17631,16 +17655,16 @@
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340">
-        <v>3190</v>
+        <v>3105</v>
       </c>
       <c r="B340" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
       </c>
       <c r="D340" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E340" s="1" t="b">
         <v>0</v>
@@ -17678,10 +17702,10 @@
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341">
-        <v>3194</v>
+        <v>3110</v>
       </c>
       <c r="B341" t="s">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -17705,7 +17729,7 @@
         <v>0</v>
       </c>
       <c r="J341" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K341" s="1" t="b">
         <v>0</v>
@@ -17725,22 +17749,22 @@
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342">
-        <v>3201</v>
+        <v>3120</v>
       </c>
       <c r="B342" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C342" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D342" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E342" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F342" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G342" s="1" t="b">
         <v>0</v>
@@ -17772,10 +17796,10 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343">
-        <v>3210</v>
+        <v>3142</v>
       </c>
       <c r="B343" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -17819,10 +17843,10 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344">
-        <v>3222</v>
+        <v>3158</v>
       </c>
       <c r="B344" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -17834,7 +17858,7 @@
         <v>0</v>
       </c>
       <c r="F344" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G344" s="1" t="b">
         <v>0</v>
@@ -17866,13 +17890,13 @@
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345">
-        <v>3227</v>
+        <v>3174</v>
       </c>
       <c r="B345" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="C345" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D345" s="1" t="b">
         <v>0</v>
@@ -17896,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="K345" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L345" s="1" t="b">
         <v>0</v>
@@ -17913,10 +17937,10 @@
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346">
-        <v>3258</v>
+        <v>3190</v>
       </c>
       <c r="B346" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -17952,7 +17976,7 @@
         <v>0</v>
       </c>
       <c r="N346" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O346" s="1" t="b">
         <v>0</v>
@@ -17960,10 +17984,10 @@
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>3264</v>
+        <v>3194</v>
       </c>
       <c r="B347" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -17984,10 +18008,10 @@
         <v>0</v>
       </c>
       <c r="I347" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K347" s="1" t="b">
         <v>0</v>
@@ -18007,16 +18031,16 @@
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348">
-        <v>3270</v>
+        <v>3201</v>
       </c>
       <c r="B348" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C348" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D348" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E348" s="1" t="b">
         <v>0</v>
@@ -18054,13 +18078,13 @@
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349">
-        <v>3286</v>
+        <v>3210</v>
       </c>
       <c r="B349" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C349" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D349" s="1" t="b">
         <v>0</v>
@@ -18075,10 +18099,10 @@
         <v>0</v>
       </c>
       <c r="H349" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J349" s="1" t="b">
         <v>0</v>
@@ -18101,10 +18125,10 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>3314</v>
+        <v>3222</v>
       </c>
       <c r="B350" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -18148,13 +18172,13 @@
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>3330</v>
+        <v>3227</v>
       </c>
       <c r="B351" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C351" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D351" s="1" t="b">
         <v>0</v>
@@ -18195,10 +18219,10 @@
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>3360</v>
+        <v>3258</v>
       </c>
       <c r="B352" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -18234,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="N352" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O352" s="1" t="b">
         <v>0</v>
@@ -18242,10 +18266,10 @@
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353">
-        <v>3379</v>
+        <v>3264</v>
       </c>
       <c r="B353" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -18266,7 +18290,7 @@
         <v>0</v>
       </c>
       <c r="I353" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" s="1" t="b">
         <v>0</v>
@@ -18289,10 +18313,10 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354">
-        <v>3392</v>
+        <v>3270</v>
       </c>
       <c r="B354" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -18336,13 +18360,13 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355">
-        <v>3396</v>
+        <v>3286</v>
       </c>
       <c r="B355" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C355" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D355" s="1" t="b">
         <v>0</v>
@@ -18351,16 +18375,16 @@
         <v>0</v>
       </c>
       <c r="F355" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G355" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H355" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I355" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355" s="1" t="b">
         <v>0</v>
@@ -18383,13 +18407,13 @@
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356">
-        <v>3408</v>
+        <v>3314</v>
       </c>
       <c r="B356" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C356" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D356" s="1" t="b">
         <v>0</v>
@@ -18398,7 +18422,7 @@
         <v>0</v>
       </c>
       <c r="F356" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G356" s="1" t="b">
         <v>0</v>
@@ -18407,7 +18431,7 @@
         <v>0</v>
       </c>
       <c r="I356" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J356" s="1" t="b">
         <v>0</v>
@@ -18430,10 +18454,10 @@
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357">
-        <v>3423</v>
+        <v>3330</v>
       </c>
       <c r="B357" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -18477,10 +18501,10 @@
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358">
-        <v>3438</v>
+        <v>3360</v>
       </c>
       <c r="B358" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -18492,7 +18516,7 @@
         <v>0</v>
       </c>
       <c r="F358" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G358" s="1" t="b">
         <v>0</v>
@@ -18524,10 +18548,10 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359">
-        <v>3442</v>
+        <v>3379</v>
       </c>
       <c r="B359" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -18539,7 +18563,7 @@
         <v>0</v>
       </c>
       <c r="F359" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G359" s="1" t="b">
         <v>0</v>
@@ -18571,10 +18595,10 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360">
-        <v>3452</v>
+        <v>3392</v>
       </c>
       <c r="B360" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -18618,10 +18642,10 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361">
-        <v>3467</v>
+        <v>3396</v>
       </c>
       <c r="B361" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -18633,7 +18657,7 @@
         <v>0</v>
       </c>
       <c r="F361" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G361" s="1" t="b">
         <v>0</v>
@@ -18665,22 +18689,22 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>3469</v>
+        <v>3408</v>
       </c>
       <c r="B362" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C362" t="s">
         <v>3</v>
       </c>
       <c r="D362" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E362" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F362" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G362" s="1" t="b">
         <v>0</v>
@@ -18689,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="I362" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J362" s="1" t="b">
         <v>0</v>
@@ -18712,10 +18736,10 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>3483</v>
+        <v>3423</v>
       </c>
       <c r="B363" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -18727,7 +18751,7 @@
         <v>0</v>
       </c>
       <c r="F363" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G363" s="1" t="b">
         <v>0</v>
@@ -18759,13 +18783,13 @@
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>3484</v>
+        <v>3438</v>
       </c>
       <c r="B364" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C364" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D364" s="1" t="b">
         <v>0</v>
@@ -18806,10 +18830,10 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>3492</v>
+        <v>3442</v>
       </c>
       <c r="B365" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -18821,7 +18845,7 @@
         <v>0</v>
       </c>
       <c r="F365" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G365" s="1" t="b">
         <v>0</v>
@@ -18853,10 +18877,10 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>3502</v>
+        <v>3452</v>
       </c>
       <c r="B366" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -18900,13 +18924,13 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>3508</v>
+        <v>3461</v>
       </c>
       <c r="B367" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="C367" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D367" s="1" t="b">
         <v>0</v>
@@ -18915,7 +18939,7 @@
         <v>0</v>
       </c>
       <c r="F367" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G367" s="1" t="b">
         <v>0</v>
@@ -18933,10 +18957,10 @@
         <v>0</v>
       </c>
       <c r="L367" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M367" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N367" s="1" t="b">
         <v>0</v>
@@ -18947,10 +18971,10 @@
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>3516</v>
+        <v>3467</v>
       </c>
       <c r="B368" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -18994,22 +19018,22 @@
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>3541</v>
+        <v>3469</v>
       </c>
       <c r="B369" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C369" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D369" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E369" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F369" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G369" s="1" t="b">
         <v>0</v>
@@ -19041,10 +19065,10 @@
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>3602</v>
+        <v>3483</v>
       </c>
       <c r="B370" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -19088,13 +19112,13 @@
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>3606</v>
+        <v>3484</v>
       </c>
       <c r="B371" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C371" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D371" s="1" t="b">
         <v>0</v>
@@ -19135,10 +19159,10 @@
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>3622</v>
+        <v>3492</v>
       </c>
       <c r="B372" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -19182,10 +19206,10 @@
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>3633</v>
+        <v>3502</v>
       </c>
       <c r="B373" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -19194,7 +19218,7 @@
         <v>0</v>
       </c>
       <c r="E373" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F373" s="1" t="b">
         <v>0</v>
@@ -19209,7 +19233,7 @@
         <v>0</v>
       </c>
       <c r="J373" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K373" s="1" t="b">
         <v>0</v>
@@ -19218,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="M373" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N373" s="1" t="b">
         <v>0</v>
@@ -19229,54 +19253,430 @@
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A374">
+        <v>3508</v>
+      </c>
+      <c r="B374" t="s">
+        <v>313</v>
+      </c>
+      <c r="C374" t="s">
+        <v>3</v>
+      </c>
+      <c r="D374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F374" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L374" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M374" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O374" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>3516</v>
+      </c>
+      <c r="B375" t="s">
+        <v>307</v>
+      </c>
+      <c r="C375" t="s">
+        <v>5</v>
+      </c>
+      <c r="D375" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E375" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F375" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G375" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H375" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I375" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J375" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K375" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L375" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M375" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N375" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O375" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>3541</v>
+      </c>
+      <c r="B376" t="s">
+        <v>308</v>
+      </c>
+      <c r="C376" t="s">
+        <v>5</v>
+      </c>
+      <c r="D376" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E376" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F376" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G376" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H376" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I376" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J376" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K376" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L376" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M376" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N376" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O376" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>3602</v>
+      </c>
+      <c r="B377" t="s">
+        <v>323</v>
+      </c>
+      <c r="C377" t="s">
+        <v>5</v>
+      </c>
+      <c r="D377" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E377" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F377" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G377" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H377" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I377" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J377" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K377" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L377" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M377" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N377" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O377" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>3606</v>
+      </c>
+      <c r="B378" t="s">
+        <v>309</v>
+      </c>
+      <c r="C378" t="s">
+        <v>5</v>
+      </c>
+      <c r="D378" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E378" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F378" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G378" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H378" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I378" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J378" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K378" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L378" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M378" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N378" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O378" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>3622</v>
+      </c>
+      <c r="B379" t="s">
+        <v>310</v>
+      </c>
+      <c r="C379" t="s">
+        <v>5</v>
+      </c>
+      <c r="D379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O379" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>3633</v>
+      </c>
+      <c r="B380" t="s">
+        <v>311</v>
+      </c>
+      <c r="C380" t="s">
+        <v>5</v>
+      </c>
+      <c r="D380" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E380" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F380" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G380" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H380" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I380" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J380" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K380" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L380" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M380" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N380" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O380" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A381">
         <v>3637</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B381" t="s">
         <v>312</v>
       </c>
-      <c r="C374" t="s">
-        <v>5</v>
-      </c>
-      <c r="D374" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E374" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F374" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G374" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H374" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I374" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J374" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K374" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L374" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M374" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N374" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O374" s="1" t="b">
+      <c r="C381" t="s">
+        <v>5</v>
+      </c>
+      <c r="D381" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E381" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F381" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G381" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H381" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I381" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J381" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K381" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L381" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M381" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N381" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O381" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>3684</v>
+      </c>
+      <c r="B382" t="s">
+        <v>389</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E382" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F382" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O382" s="1" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O374">
-    <sortCondition ref="A2:A374"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O382">
+    <sortCondition ref="A2:A382"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20484,7 +20884,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD89403-08A5-455C-8399-1FD5C7D860F4}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20509,7 +20909,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:C26">_xlfn._xlws.FILTER(all!A:C,all!E:E=TRUE)</f>
+        <f t="array" ref="A2:C28">_xlfn._xlws.FILTER(all!A:C,all!E:E=TRUE)</f>
         <v>11</v>
       </c>
       <c r="B2" t="str">
@@ -20708,10 +21108,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2389</v>
+        <v>2224</v>
       </c>
       <c r="B20" t="str">
-        <v>longest subsequence with limited sum</v>
+        <v>minimum number of operations to convert time</v>
       </c>
       <c r="C20" t="str">
         <v>easy</v>
@@ -20719,10 +21119,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2600</v>
+        <v>2389</v>
       </c>
       <c r="B21" t="str">
-        <v>k items with the maximum sum</v>
+        <v>longest subsequence with limited sum</v>
       </c>
       <c r="C21" t="str">
         <v>easy</v>
@@ -20730,10 +21130,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2656</v>
+        <v>2600</v>
       </c>
       <c r="B22" t="str">
-        <v>maximum sum with exactly k elements</v>
+        <v>k items with the maximum sum</v>
       </c>
       <c r="C22" t="str">
         <v>easy</v>
@@ -20741,10 +21141,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2697</v>
+        <v>2656</v>
       </c>
       <c r="B23" t="str">
-        <v>lexicographically smallest palindrome</v>
+        <v>maximum sum with exactly k elements</v>
       </c>
       <c r="C23" t="str">
         <v>easy</v>
@@ -20752,10 +21152,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2864</v>
+        <v>2697</v>
       </c>
       <c r="B24" t="str">
-        <v>maximum odd binary number</v>
+        <v>lexicographically smallest palindrome</v>
       </c>
       <c r="C24" t="str">
         <v>easy</v>
@@ -20763,10 +21163,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>3014</v>
+        <v>2864</v>
       </c>
       <c r="B25" t="str">
-        <v>minimum number of pushes to type word i</v>
+        <v>maximum odd binary number</v>
       </c>
       <c r="C25" t="str">
         <v>easy</v>
@@ -20774,12 +21174,34 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
+        <v>3014</v>
+      </c>
+      <c r="B26" t="str">
+        <v>minimum number of pushes to type word i</v>
+      </c>
+      <c r="C26" t="str">
+        <v>easy</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>3633</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B27" t="str">
         <v>earliest finish time for land and water rides i</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C27" t="str">
+        <v>easy</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>3684</v>
+      </c>
+      <c r="B28" t="str">
+        <v>maximize sum of at most k distinct elements</v>
+      </c>
+      <c r="C28" t="str">
         <v>easy</v>
       </c>
     </row>
@@ -20790,7 +21212,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5445672E-B545-49AE-922B-8D6F36FDAC2C}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20815,7 +21237,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:C75">_xlfn._xlws.FILTER(all!A:C,all!F:F=TRUE)</f>
+        <f t="array" ref="A2:C77">_xlfn._xlws.FILTER(all!A:C,all!F:F=TRUE)</f>
         <v>1</v>
       </c>
       <c r="B2" t="str">
@@ -21212,32 +21634,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>1733</v>
+        <v>1684</v>
       </c>
       <c r="B38" t="str">
-        <v>minimum number of people to teach</v>
+        <v>count the number of consistent strings</v>
       </c>
       <c r="C38" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>1748</v>
+        <v>1733</v>
       </c>
       <c r="B39" t="str">
-        <v>sum of unique elements</v>
+        <v>minimum number of people to teach</v>
       </c>
       <c r="C39" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>1790</v>
+        <v>1748</v>
       </c>
       <c r="B40" t="str">
-        <v>check if one string swap can make strings equal</v>
+        <v>sum of unique elements</v>
       </c>
       <c r="C40" t="str">
         <v>easy</v>
@@ -21245,10 +21667,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>1805</v>
+        <v>1790</v>
       </c>
       <c r="B41" t="str">
-        <v>number of different integers in a string</v>
+        <v>check if one string swap can make strings equal</v>
       </c>
       <c r="C41" t="str">
         <v>easy</v>
@@ -21256,32 +21678,32 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>1912</v>
+        <v>1805</v>
       </c>
       <c r="B42" t="str">
-        <v>design movie rental system</v>
+        <v>number of different integers in a string</v>
       </c>
       <c r="C42" t="str">
-        <v>hard</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>1935</v>
+        <v>1912</v>
       </c>
       <c r="B43" t="str">
-        <v>maximum number of words you can type</v>
+        <v>design movie rental system</v>
       </c>
       <c r="C43" t="str">
-        <v>easy</v>
+        <v>hard</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2133</v>
+        <v>1935</v>
       </c>
       <c r="B44" t="str">
-        <v>check if every row and column contains all numbers</v>
+        <v>maximum number of words you can type</v>
       </c>
       <c r="C44" t="str">
         <v>easy</v>
@@ -21289,10 +21711,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2206</v>
+        <v>2133</v>
       </c>
       <c r="B45" t="str">
-        <v>divide array into equal pairs</v>
+        <v>check if every row and column contains all numbers</v>
       </c>
       <c r="C45" t="str">
         <v>easy</v>
@@ -21300,10 +21722,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2273</v>
+        <v>2206</v>
       </c>
       <c r="B46" t="str">
-        <v>find resultant array after removing anagrams</v>
+        <v>divide array into equal pairs</v>
       </c>
       <c r="C46" t="str">
         <v>easy</v>
@@ -21311,10 +21733,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2283</v>
+        <v>2273</v>
       </c>
       <c r="B47" t="str">
-        <v>check if number has equal digit count and digit value</v>
+        <v>find resultant array after removing anagrams</v>
       </c>
       <c r="C47" t="str">
         <v>easy</v>
@@ -21322,32 +21744,32 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2353</v>
+        <v>2283</v>
       </c>
       <c r="B48" t="str">
-        <v>design a food rating system</v>
+        <v>check if number has equal digit count and digit value</v>
       </c>
       <c r="C48" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2395</v>
+        <v>2353</v>
       </c>
       <c r="B49" t="str">
-        <v>find subarrays with equal sum</v>
+        <v>design a food rating system</v>
       </c>
       <c r="C49" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2451</v>
+        <v>2395</v>
       </c>
       <c r="B50" t="str">
-        <v>check if n and its double exist</v>
+        <v>find subarrays with equal sum</v>
       </c>
       <c r="C50" t="str">
         <v>easy</v>
@@ -21355,10 +21777,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2465</v>
+        <v>2451</v>
       </c>
       <c r="B51" t="str">
-        <v>number of distinct averages</v>
+        <v>check if n and its double exist</v>
       </c>
       <c r="C51" t="str">
         <v>easy</v>
@@ -21366,32 +21788,32 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2501</v>
+        <v>2465</v>
       </c>
       <c r="B52" t="str">
-        <v>longest square streak in an array</v>
+        <v>number of distinct averages</v>
       </c>
       <c r="C52" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2506</v>
+        <v>2501</v>
       </c>
       <c r="B53" t="str">
-        <v>count pairs of similar strings</v>
+        <v>longest square streak in an array</v>
       </c>
       <c r="C53" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2570</v>
+        <v>2506</v>
       </c>
       <c r="B54" t="str">
-        <v>merge two 2d arrays by summing values</v>
+        <v>count pairs of similar strings</v>
       </c>
       <c r="C54" t="str">
         <v>easy</v>
@@ -21399,10 +21821,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2670</v>
+        <v>2570</v>
       </c>
       <c r="B55" t="str">
-        <v>find the distinct difference array</v>
+        <v>merge two 2d arrays by summing values</v>
       </c>
       <c r="C55" t="str">
         <v>easy</v>
@@ -21410,10 +21832,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2682</v>
+        <v>2670</v>
       </c>
       <c r="B56" t="str">
-        <v>find the losers of the circular game</v>
+        <v>find the distinct difference array</v>
       </c>
       <c r="C56" t="str">
         <v>easy</v>
@@ -21421,10 +21843,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2744</v>
+        <v>2682</v>
       </c>
       <c r="B57" t="str">
-        <v>find maximum number of string pairs</v>
+        <v>find the losers of the circular game</v>
       </c>
       <c r="C57" t="str">
         <v>easy</v>
@@ -21432,10 +21854,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2784</v>
+        <v>2744</v>
       </c>
       <c r="B58" t="str">
-        <v>check if array is good</v>
+        <v>find maximum number of string pairs</v>
       </c>
       <c r="C58" t="str">
         <v>easy</v>
@@ -21443,10 +21865,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2815</v>
+        <v>2784</v>
       </c>
       <c r="B59" t="str">
-        <v>max pair sum in an array</v>
+        <v>check if array is good</v>
       </c>
       <c r="C59" t="str">
         <v>easy</v>
@@ -21454,10 +21876,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2839</v>
+        <v>2815</v>
       </c>
       <c r="B60" t="str">
-        <v>check if strings can be made equal with operations i</v>
+        <v>max pair sum in an array</v>
       </c>
       <c r="C60" t="str">
         <v>easy</v>
@@ -21465,10 +21887,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2965</v>
+        <v>2839</v>
       </c>
       <c r="B61" t="str">
-        <v>find missing and repeated values</v>
+        <v>check if strings can be made equal with operations i</v>
       </c>
       <c r="C61" t="str">
         <v>easy</v>
@@ -21476,10 +21898,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>3005</v>
+        <v>2965</v>
       </c>
       <c r="B62" t="str">
-        <v>count elements with maximum frequency</v>
+        <v>find missing and repeated values</v>
       </c>
       <c r="C62" t="str">
         <v>easy</v>
@@ -21487,10 +21909,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>3090</v>
+        <v>3005</v>
       </c>
       <c r="B63" t="str">
-        <v>maximum length substring with two occurrences</v>
+        <v>count elements with maximum frequency</v>
       </c>
       <c r="C63" t="str">
         <v>easy</v>
@@ -21498,10 +21920,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>3120</v>
+        <v>3090</v>
       </c>
       <c r="B64" t="str">
-        <v>count the number of special characters i</v>
+        <v>maximum length substring with two occurrences</v>
       </c>
       <c r="C64" t="str">
         <v>easy</v>
@@ -21509,10 +21931,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>3158</v>
+        <v>3120</v>
       </c>
       <c r="B65" t="str">
-        <v>find the xor of numbers which appear twice</v>
+        <v>count the number of special characters i</v>
       </c>
       <c r="C65" t="str">
         <v>easy</v>
@@ -21520,10 +21942,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>3396</v>
+        <v>3158</v>
       </c>
       <c r="B66" t="str">
-        <v>minimum number of operations to make elements in array distinct</v>
+        <v>find the xor of numbers which appear twice</v>
       </c>
       <c r="C66" t="str">
         <v>easy</v>
@@ -21531,32 +21953,32 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>3408</v>
+        <v>3396</v>
       </c>
       <c r="B67" t="str">
-        <v>design task manager</v>
+        <v>minimum number of operations to make elements in array distinct</v>
       </c>
       <c r="C67" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>3438</v>
+        <v>3408</v>
       </c>
       <c r="B68" t="str">
-        <v>find valid pair of adjacent digits in string</v>
+        <v>design task manager</v>
       </c>
       <c r="C68" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>3442</v>
+        <v>3438</v>
       </c>
       <c r="B69" t="str">
-        <v>maximum difference between even and odd frequency i</v>
+        <v>find valid pair of adjacent digits in string</v>
       </c>
       <c r="C69" t="str">
         <v>easy</v>
@@ -21564,10 +21986,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>3483</v>
+        <v>3442</v>
       </c>
       <c r="B70" t="str">
-        <v>unique 3 digit even numbers</v>
+        <v>maximum difference between even and odd frequency i</v>
       </c>
       <c r="C70" t="str">
         <v>easy</v>
@@ -21575,21 +21997,21 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="B71" t="str">
-        <v>design spreadsheet</v>
+        <v>unique 3 digit even numbers</v>
       </c>
       <c r="C71" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>3508</v>
+        <v>3484</v>
       </c>
       <c r="B72" t="str">
-        <v>implement router</v>
+        <v>design spreadsheet</v>
       </c>
       <c r="C72" t="str">
         <v>medium</v>
@@ -21597,21 +22019,21 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>3541</v>
+        <v>3508</v>
       </c>
       <c r="B73" t="str">
-        <v>find most frequent vowel and consonant</v>
+        <v>implement router</v>
       </c>
       <c r="C73" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>3602</v>
+        <v>3541</v>
       </c>
       <c r="B74" t="str">
-        <v>hexadecimal and hexatrigesimal conversion</v>
+        <v>find most frequent vowel and consonant</v>
       </c>
       <c r="C74" t="str">
         <v>easy</v>
@@ -21619,12 +22041,34 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
+        <v>3602</v>
+      </c>
+      <c r="B75" t="str">
+        <v>hexadecimal and hexatrigesimal conversion</v>
+      </c>
+      <c r="C75" t="str">
+        <v>easy</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>3606</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B76" t="str">
         <v>coupon code validator</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C76" t="str">
+        <v>easy</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>3684</v>
+      </c>
+      <c r="B77" t="str">
+        <v>maximize sum of at most k distinct elements</v>
+      </c>
+      <c r="C77" t="str">
         <v>easy</v>
       </c>
     </row>
@@ -22597,7 +23041,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BEAC52-475C-45E0-B174-727C88C20605}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
@@ -22622,7 +23066,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:C39">_xlfn._xlws.FILTER(all!A:C,all!J:J=TRUE)</f>
+        <f t="array" ref="A2:C40">_xlfn._xlws.FILTER(all!A:C,all!J:J=TRUE)</f>
         <v>11</v>
       </c>
       <c r="B2" t="str">
@@ -22843,10 +23287,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>876</v>
+        <v>832</v>
       </c>
       <c r="B22" t="str">
-        <v>middle of the linked list</v>
+        <v>flipping an image</v>
       </c>
       <c r="C22" t="str">
         <v>easy</v>
@@ -22854,10 +23298,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>917</v>
+        <v>876</v>
       </c>
       <c r="B23" t="str">
-        <v>reverse only letters</v>
+        <v>middle of the linked list</v>
       </c>
       <c r="C23" t="str">
         <v>easy</v>
@@ -22865,10 +23309,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B24" t="str">
-        <v>sort array by parity ii</v>
+        <v>reverse only letters</v>
       </c>
       <c r="C24" t="str">
         <v>easy</v>
@@ -22876,10 +23320,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B25" t="str">
-        <v>long pressed name</v>
+        <v>sort array by parity ii</v>
       </c>
       <c r="C25" t="str">
         <v>easy</v>
@@ -22887,10 +23331,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>1089</v>
+        <v>925</v>
       </c>
       <c r="B26" t="str">
-        <v>duplicate zeros</v>
+        <v>long pressed name</v>
       </c>
       <c r="C26" t="str">
         <v>easy</v>
@@ -22898,10 +23342,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1332</v>
+        <v>1089</v>
       </c>
       <c r="B27" t="str">
-        <v>remove palindromic subsequences</v>
+        <v>duplicate zeros</v>
       </c>
       <c r="C27" t="str">
         <v>easy</v>
@@ -22909,10 +23353,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>1768</v>
+        <v>1332</v>
       </c>
       <c r="B28" t="str">
-        <v>﻿merge strings alternately</v>
+        <v>remove palindromic subsequences</v>
       </c>
       <c r="C28" t="str">
         <v>easy</v>
@@ -22920,10 +23364,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>1961</v>
+        <v>1768</v>
       </c>
       <c r="B29" t="str">
-        <v>check if string is a prefix of array</v>
+        <v>﻿merge strings alternately</v>
       </c>
       <c r="C29" t="str">
         <v>easy</v>
@@ -22931,10 +23375,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>1984</v>
+        <v>1961</v>
       </c>
       <c r="B30" t="str">
-        <v>minimum difference between highest and lowest of k scores</v>
+        <v>check if string is a prefix of array</v>
       </c>
       <c r="C30" t="str">
         <v>easy</v>
@@ -22942,10 +23386,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2200</v>
+        <v>1984</v>
       </c>
       <c r="B31" t="str">
-        <v>find all k distant indices in an array</v>
+        <v>minimum difference between highest and lowest of k scores</v>
       </c>
       <c r="C31" t="str">
         <v>easy</v>
@@ -22953,10 +23397,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2273</v>
+        <v>2200</v>
       </c>
       <c r="B32" t="str">
-        <v>find resultant array after removing anagrams</v>
+        <v>find all k distant indices in an array</v>
       </c>
       <c r="C32" t="str">
         <v>easy</v>
@@ -22964,10 +23408,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2460</v>
+        <v>2273</v>
       </c>
       <c r="B33" t="str">
-        <v>apply operations to an array</v>
+        <v>find resultant array after removing anagrams</v>
       </c>
       <c r="C33" t="str">
         <v>easy</v>
@@ -22975,10 +23419,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="B34" t="str">
-        <v>number of distinct averages</v>
+        <v>apply operations to an array</v>
       </c>
       <c r="C34" t="str">
         <v>easy</v>
@@ -22986,10 +23430,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2562</v>
+        <v>2465</v>
       </c>
       <c r="B35" t="str">
-        <v>find the array concatenation value</v>
+        <v>number of distinct averages</v>
       </c>
       <c r="C35" t="str">
         <v>easy</v>
@@ -22997,10 +23441,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="B36" t="str">
-        <v>merge two 2d arrays by summing values</v>
+        <v>find the array concatenation value</v>
       </c>
       <c r="C36" t="str">
         <v>easy</v>
@@ -23008,10 +23452,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2697</v>
+        <v>2570</v>
       </c>
       <c r="B37" t="str">
-        <v>lexicographically smallest palindrome</v>
+        <v>merge two 2d arrays by summing values</v>
       </c>
       <c r="C37" t="str">
         <v>easy</v>
@@ -23019,10 +23463,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>3194</v>
+        <v>2697</v>
       </c>
       <c r="B38" t="str">
-        <v>minimum average of smallest and largest elements</v>
+        <v>lexicographically smallest palindrome</v>
       </c>
       <c r="C38" t="str">
         <v>easy</v>
@@ -23030,12 +23474,23 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
+        <v>3194</v>
+      </c>
+      <c r="B39" t="str">
+        <v>minimum average of smallest and largest elements</v>
+      </c>
+      <c r="C39" t="str">
+        <v>easy</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>3633</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B40" t="str">
         <v>earliest finish time for land and water rides i</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C40" t="str">
         <v>easy</v>
       </c>
     </row>

--- a/leetcode solved.xlsx
+++ b/leetcode solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_4148941535628924160/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="301" documentId="13_ncr:1_{C1A55483-AB76-F94B-BBD6-8ADDF97EB37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{019324D0-0326-4398-97B3-AFB388F2F3AA}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{C1A55483-AB76-F94B-BBD6-8ADDF97EB37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19CC25B3-87AE-4C40-B2EB-83033F26DD96}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="657" xr2:uid="{91E0AC5C-A444-432A-817A-1683DD81F561}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="401">
   <si>
     <t>number</t>
   </si>
@@ -1261,6 +1261,18 @@
   </si>
   <si>
     <t>perfect number</t>
+  </si>
+  <si>
+    <t>find triangular sum of an array</t>
+  </si>
+  <si>
+    <t>minimum score triangulation of polygon</t>
+  </si>
+  <si>
+    <t>water bottles</t>
+  </si>
+  <si>
+    <t>water bottles ii</t>
   </si>
 </sst>
 </file>
@@ -1705,11 +1717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B397E5-2FB9-4768-8CC2-2F3499152878}">
-  <dimension ref="A1:O382"/>
+  <dimension ref="A1:O386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9524,16 +9536,16 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="B167" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D167" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" s="1" t="b">
         <v>0</v>
@@ -9548,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" s="1" t="b">
         <v>0</v>
@@ -9571,10 +9583,10 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B168" t="s">
-        <v>147</v>
+        <v>373</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -9595,13 +9607,13 @@
         <v>0</v>
       </c>
       <c r="I168" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K168" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L168" s="1" t="b">
         <v>0</v>
@@ -9618,10 +9630,10 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B169" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -9648,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="K169" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169" s="1" t="b">
         <v>0</v>
@@ -9665,10 +9677,10 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="B170" t="s">
-        <v>387</v>
+        <v>148</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -9712,10 +9724,10 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="B171" t="s">
-        <v>149</v>
+        <v>387</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -9759,10 +9771,10 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="B172" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -9786,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" s="1" t="b">
         <v>0</v>
@@ -9806,10 +9818,10 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="B173" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -9833,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173" s="1" t="b">
         <v>0</v>
@@ -9853,10 +9865,10 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>1128</v>
+        <v>1103</v>
       </c>
       <c r="B174" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -9868,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" s="1" t="b">
         <v>0</v>
@@ -9900,22 +9912,22 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="B175" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C175" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D175" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F175" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" s="1" t="b">
         <v>0</v>
@@ -9942,21 +9954,21 @@
         <v>0</v>
       </c>
       <c r="O175" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="B176" t="s">
-        <v>360</v>
+        <v>153</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D176" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" s="1" t="b">
         <v>0</v>
@@ -9989,15 +10001,15 @@
         <v>0</v>
       </c>
       <c r="O176" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="B177" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -10009,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="F177" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" s="1" t="b">
         <v>0</v>
@@ -10041,10 +10053,10 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>1175</v>
+        <v>1160</v>
       </c>
       <c r="B178" t="s">
-        <v>154</v>
+        <v>377</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -10056,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="F178" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" s="1" t="b">
         <v>0</v>
@@ -10088,10 +10100,10 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="B179" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -10135,10 +10147,10 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B180" t="s">
-        <v>327</v>
+        <v>155</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -10150,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="F180" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" s="1" t="b">
         <v>0</v>
@@ -10182,10 +10194,10 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B181" t="s">
-        <v>156</v>
+        <v>327</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -10197,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="F181" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" s="1" t="b">
         <v>0</v>
@@ -10229,22 +10241,22 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>1218</v>
+        <v>1200</v>
       </c>
       <c r="B182" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C182" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D182" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F182" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" s="1" t="b">
         <v>0</v>
@@ -10276,28 +10288,28 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>1254</v>
+        <v>1218</v>
       </c>
       <c r="B183" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C183" t="s">
         <v>3</v>
       </c>
       <c r="D183" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F183" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" s="1" t="b">
         <v>0</v>
@@ -10323,13 +10335,13 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="B184" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D184" s="1" t="b">
         <v>0</v>
@@ -10341,10 +10353,10 @@
         <v>0</v>
       </c>
       <c r="G184" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" s="1" t="b">
         <v>0</v>
@@ -10370,10 +10382,10 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="B185" t="s">
-        <v>159</v>
+        <v>372</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -10417,10 +10429,10 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="B186" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -10464,10 +10476,10 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="B187" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -10511,10 +10523,10 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>1304</v>
+        <v>1290</v>
       </c>
       <c r="B188" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -10558,10 +10570,10 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="B189" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -10605,10 +10617,10 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B190" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -10652,10 +10664,10 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>1331</v>
+        <v>1317</v>
       </c>
       <c r="B191" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -10667,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="F191" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" s="1" t="b">
         <v>0</v>
@@ -10699,10 +10711,10 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B192" t="s">
-        <v>357</v>
+        <v>165</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -10714,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="F192" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" s="1" t="b">
         <v>0</v>
@@ -10726,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192" s="1" t="b">
         <v>0</v>
@@ -10746,10 +10758,10 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="B193" t="s">
-        <v>166</v>
+        <v>357</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -10770,10 +10782,10 @@
         <v>0</v>
       </c>
       <c r="I193" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" s="1" t="b">
         <v>0</v>
@@ -10782,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="M193" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N193" s="1" t="b">
         <v>0</v>
@@ -10793,10 +10805,10 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="B194" t="s">
-        <v>350</v>
+        <v>166</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -10817,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" s="1" t="b">
         <v>0</v>
@@ -10829,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="M194" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N194" s="1" t="b">
         <v>0</v>
@@ -10840,10 +10852,10 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B195" t="s">
-        <v>167</v>
+        <v>350</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -10855,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195" s="1" t="b">
         <v>0</v>
@@ -10887,10 +10899,10 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="B196" t="s">
-        <v>363</v>
+        <v>167</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -10902,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" s="1" t="b">
         <v>0</v>
@@ -10934,10 +10946,10 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>1374</v>
+        <v>1356</v>
       </c>
       <c r="B197" t="s">
-        <v>168</v>
+        <v>363</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -10981,10 +10993,10 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>1389</v>
+        <v>1374</v>
       </c>
       <c r="B198" t="s">
-        <v>347</v>
+        <v>168</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -11028,10 +11040,10 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="B199" t="s">
-        <v>169</v>
+        <v>347</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -11043,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="F199" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199" s="1" t="b">
         <v>0</v>
@@ -11075,10 +11087,10 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="B200" t="s">
-        <v>384</v>
+        <v>169</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -11122,22 +11134,22 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="B201" t="s">
-        <v>170</v>
+        <v>384</v>
       </c>
       <c r="C201" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D201" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F201" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201" s="1" t="b">
         <v>0</v>
@@ -11169,16 +11181,16 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="B202" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C202" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D202" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202" s="1" t="b">
         <v>0</v>
@@ -11216,10 +11228,10 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>1431</v>
+        <v>1417</v>
       </c>
       <c r="B203" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -11263,10 +11275,10 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>1464</v>
+        <v>1431</v>
       </c>
       <c r="B204" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -11287,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" s="1" t="b">
         <v>0</v>
@@ -11310,10 +11322,10 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>1502</v>
+        <v>1464</v>
       </c>
       <c r="B205" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -11334,7 +11346,7 @@
         <v>0</v>
       </c>
       <c r="I205" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" s="1" t="b">
         <v>0</v>
@@ -11357,10 +11369,10 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="B206" t="s">
-        <v>345</v>
+        <v>174</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -11372,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="F206" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206" s="1" t="b">
         <v>0</v>
@@ -11404,22 +11416,22 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="B207" t="s">
-        <v>175</v>
+        <v>345</v>
       </c>
       <c r="C207" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D207" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F207" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207" s="1" t="b">
         <v>0</v>
@@ -11451,16 +11463,16 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="B208" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C208" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D208" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" s="1" t="b">
         <v>0</v>
@@ -11498,16 +11510,16 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="B209" t="s">
-        <v>177</v>
+        <v>399</v>
       </c>
       <c r="C209" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D209" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209" s="1" t="b">
         <v>0</v>
@@ -11540,15 +11552,15 @@
         <v>0</v>
       </c>
       <c r="O209" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>1534</v>
+        <v>1523</v>
       </c>
       <c r="B210" t="s">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -11592,16 +11604,16 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>1539</v>
+        <v>1524</v>
       </c>
       <c r="B211" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D211" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" s="1" t="b">
         <v>0</v>
@@ -11628,21 +11640,21 @@
         <v>0</v>
       </c>
       <c r="M211" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N211" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O211" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="B212" t="s">
-        <v>179</v>
+        <v>326</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -11669,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="K212" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L212" s="1" t="b">
         <v>0</v>
@@ -11686,10 +11698,10 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="B213" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -11722,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="M213" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N213" s="1" t="b">
         <v>0</v>
@@ -11733,16 +11745,16 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>1594</v>
+        <v>1544</v>
       </c>
       <c r="B214" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C214" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D214" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E214" s="1" t="b">
         <v>0</v>
@@ -11763,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="K214" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214" s="1" t="b">
         <v>0</v>
@@ -11780,10 +11792,10 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>1598</v>
+        <v>1560</v>
       </c>
       <c r="B215" t="s">
-        <v>346</v>
+        <v>180</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -11810,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="K215" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L215" s="1" t="b">
         <v>0</v>
@@ -11827,16 +11839,16 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>1619</v>
+        <v>1594</v>
       </c>
       <c r="B216" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C216" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D216" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" s="1" t="b">
         <v>0</v>
@@ -11874,16 +11886,16 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>1621</v>
+        <v>1598</v>
       </c>
       <c r="B217" t="s">
-        <v>183</v>
+        <v>346</v>
       </c>
       <c r="C217" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D217" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217" s="1" t="b">
         <v>0</v>
@@ -11904,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="K217" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L217" s="1" t="b">
         <v>0</v>
@@ -11921,10 +11933,10 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="B218" t="s">
-        <v>374</v>
+        <v>182</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -11936,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="F218" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G218" s="1" t="b">
         <v>0</v>
@@ -11968,22 +11980,22 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>1640</v>
+        <v>1621</v>
       </c>
       <c r="B219" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C219" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D219" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F219" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219" s="1" t="b">
         <v>0</v>
@@ -12015,22 +12027,22 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>1641</v>
+        <v>1624</v>
       </c>
       <c r="B220" t="s">
-        <v>185</v>
+        <v>374</v>
       </c>
       <c r="C220" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D220" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F220" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220" s="1" t="b">
         <v>0</v>
@@ -12062,22 +12074,22 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="B221" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
       </c>
       <c r="D221" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F221" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221" s="1" t="b">
         <v>0</v>
@@ -12109,16 +12121,16 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>1652</v>
+        <v>1641</v>
       </c>
       <c r="B222" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D222" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" s="1" t="b">
         <v>0</v>
@@ -12148,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="N222" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O222" s="1" t="b">
         <v>0</v>
@@ -12156,10 +12168,10 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>1668</v>
+        <v>1646</v>
       </c>
       <c r="B223" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -12203,10 +12215,10 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>1672</v>
+        <v>1652</v>
       </c>
       <c r="B224" t="s">
-        <v>376</v>
+        <v>187</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -12242,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="N224" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O224" s="1" t="b">
         <v>0</v>
@@ -12250,22 +12262,22 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>1684</v>
+        <v>1668</v>
       </c>
       <c r="B225" t="s">
-        <v>391</v>
+        <v>188</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
       </c>
       <c r="D225" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F225" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225" s="1" t="b">
         <v>0</v>
@@ -12297,10 +12309,10 @@
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>1704</v>
+        <v>1672</v>
       </c>
       <c r="B226" t="s">
-        <v>189</v>
+        <v>376</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -12344,10 +12356,10 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>1710</v>
+        <v>1684</v>
       </c>
       <c r="B227" t="s">
-        <v>190</v>
+        <v>391</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -12356,10 +12368,10 @@
         <v>0</v>
       </c>
       <c r="E227" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" s="1" t="b">
         <v>0</v>
@@ -12391,10 +12403,10 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>1716</v>
+        <v>1704</v>
       </c>
       <c r="B228" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -12438,10 +12450,10 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="B229" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -12450,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="E229" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229" s="1" t="b">
         <v>0</v>
@@ -12485,10 +12497,10 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="B230" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -12532,22 +12544,22 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>1733</v>
+        <v>1720</v>
       </c>
       <c r="B231" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C231" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D231" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E231" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G231" s="1" t="b">
         <v>0</v>
@@ -12579,10 +12591,10 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>1748</v>
+        <v>1725</v>
       </c>
       <c r="B232" t="s">
-        <v>378</v>
+        <v>193</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -12594,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="F232" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232" s="1" t="b">
         <v>0</v>
@@ -12626,22 +12638,22 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>1752</v>
+        <v>1733</v>
       </c>
       <c r="B233" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D233" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E233" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233" s="1" t="b">
         <v>0</v>
@@ -12673,10 +12685,10 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>1768</v>
+        <v>1748</v>
       </c>
       <c r="B234" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -12688,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="F234" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234" s="1" t="b">
         <v>0</v>
@@ -12700,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="J234" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K234" s="1" t="b">
         <v>0</v>
@@ -12720,10 +12732,10 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>1790</v>
+        <v>1752</v>
       </c>
       <c r="B235" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -12735,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="F235" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235" s="1" t="b">
         <v>0</v>
@@ -12767,10 +12779,10 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>1791</v>
+        <v>1768</v>
       </c>
       <c r="B236" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -12794,7 +12806,7 @@
         <v>0</v>
       </c>
       <c r="J236" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K236" s="1" t="b">
         <v>0</v>
@@ -12814,22 +12826,22 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="B237" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
       </c>
       <c r="D237" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E237" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F237" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237" s="1" t="b">
         <v>0</v>
@@ -12861,10 +12873,10 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>1805</v>
+        <v>1791</v>
       </c>
       <c r="B238" t="s">
-        <v>198</v>
+        <v>348</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -12876,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="F238" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G238" s="1" t="b">
         <v>0</v>
@@ -12908,16 +12920,16 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>1812</v>
+        <v>1800</v>
       </c>
       <c r="B239" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
       </c>
       <c r="D239" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239" s="1" t="b">
         <v>0</v>
@@ -12955,10 +12967,10 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>1822</v>
+        <v>1805</v>
       </c>
       <c r="B240" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -12970,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="F240" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G240" s="1" t="b">
         <v>0</v>
@@ -13002,10 +13014,10 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>1837</v>
+        <v>1812</v>
       </c>
       <c r="B241" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -13049,10 +13061,10 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>1880</v>
+        <v>1822</v>
       </c>
       <c r="B242" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -13096,10 +13108,10 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>1903</v>
+        <v>1837</v>
       </c>
       <c r="B243" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -13108,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="E243" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243" s="1" t="b">
         <v>0</v>
@@ -13143,13 +13155,13 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>1912</v>
+        <v>1880</v>
       </c>
       <c r="B244" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="C244" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>0</v>
@@ -13158,7 +13170,7 @@
         <v>0</v>
       </c>
       <c r="F244" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G244" s="1" t="b">
         <v>0</v>
@@ -13167,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="I244" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" s="1" t="b">
         <v>0</v>
@@ -13190,10 +13202,10 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>1935</v>
+        <v>1903</v>
       </c>
       <c r="B245" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -13202,10 +13214,10 @@
         <v>0</v>
       </c>
       <c r="E245" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G245" s="1" t="b">
         <v>0</v>
@@ -13237,13 +13249,13 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>1952</v>
+        <v>1912</v>
       </c>
       <c r="B246" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>0</v>
@@ -13252,7 +13264,7 @@
         <v>0</v>
       </c>
       <c r="F246" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G246" s="1" t="b">
         <v>0</v>
@@ -13261,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="I246" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" s="1" t="b">
         <v>0</v>
@@ -13284,10 +13296,10 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>1957</v>
+        <v>1935</v>
       </c>
       <c r="B247" t="s">
-        <v>361</v>
+        <v>204</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -13299,7 +13311,7 @@
         <v>0</v>
       </c>
       <c r="F247" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G247" s="1" t="b">
         <v>0</v>
@@ -13331,10 +13343,10 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>1961</v>
+        <v>1952</v>
       </c>
       <c r="B248" t="s">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -13358,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="J248" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K248" s="1" t="b">
         <v>0</v>
@@ -13378,10 +13390,10 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>1974</v>
+        <v>1957</v>
       </c>
       <c r="B249" t="s">
-        <v>206</v>
+        <v>361</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -13390,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="E249" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249" s="1" t="b">
         <v>0</v>
@@ -13425,10 +13437,10 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>1984</v>
+        <v>1961</v>
       </c>
       <c r="B250" t="s">
-        <v>207</v>
+        <v>335</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -13464,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="N250" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O250" s="1" t="b">
         <v>0</v>
@@ -13472,10 +13484,10 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="B251" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -13484,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="E251" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251" s="1" t="b">
         <v>0</v>
@@ -13514,21 +13526,21 @@
         <v>0</v>
       </c>
       <c r="O251" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>2016</v>
+        <v>1984</v>
       </c>
       <c r="B252" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
       </c>
       <c r="D252" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252" s="1" t="b">
         <v>0</v>
@@ -13546,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="J252" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K252" s="1" t="b">
         <v>0</v>
@@ -13558,7 +13570,7 @@
         <v>0</v>
       </c>
       <c r="N252" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O252" s="1" t="b">
         <v>0</v>
@@ -13566,10 +13578,10 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>2027</v>
+        <v>1991</v>
       </c>
       <c r="B253" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -13578,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="E253" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253" s="1" t="b">
         <v>0</v>
@@ -13608,24 +13620,24 @@
         <v>0</v>
       </c>
       <c r="O253" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>2037</v>
+        <v>2016</v>
       </c>
       <c r="B254" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
       </c>
       <c r="D254" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E254" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254" s="1" t="b">
         <v>0</v>
@@ -13660,10 +13672,10 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>2047</v>
+        <v>2027</v>
       </c>
       <c r="B255" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -13672,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="E255" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255" s="1" t="b">
         <v>0</v>
@@ -13707,19 +13719,19 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>2063</v>
+        <v>2037</v>
       </c>
       <c r="B256" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C256" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D256" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E256" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" s="1" t="b">
         <v>0</v>
@@ -13754,10 +13766,10 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>2078</v>
+        <v>2047</v>
       </c>
       <c r="B257" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -13766,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="E257" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257" s="1" t="b">
         <v>0</v>
@@ -13801,16 +13813,16 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>2119</v>
+        <v>2063</v>
       </c>
       <c r="B258" t="s">
-        <v>379</v>
+        <v>213</v>
       </c>
       <c r="C258" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D258" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E258" s="1" t="b">
         <v>0</v>
@@ -13848,10 +13860,10 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>2133</v>
+        <v>2078</v>
       </c>
       <c r="B259" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -13860,10 +13872,10 @@
         <v>0</v>
       </c>
       <c r="E259" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F259" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G259" s="1" t="b">
         <v>0</v>
@@ -13895,16 +13907,16 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>2138</v>
+        <v>2119</v>
       </c>
       <c r="B260" t="s">
-        <v>216</v>
+        <v>379</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
       </c>
       <c r="D260" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E260" s="1" t="b">
         <v>0</v>
@@ -13942,13 +13954,13 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>2145</v>
+        <v>2133</v>
       </c>
       <c r="B261" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C261" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D261" s="1" t="b">
         <v>0</v>
@@ -13957,7 +13969,7 @@
         <v>0</v>
       </c>
       <c r="F261" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G261" s="1" t="b">
         <v>0</v>
@@ -13984,21 +13996,21 @@
         <v>0</v>
       </c>
       <c r="O261" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>2148</v>
+        <v>2138</v>
       </c>
       <c r="B262" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
       </c>
       <c r="D262" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E262" s="1" t="b">
         <v>0</v>
@@ -14036,13 +14048,13 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>2164</v>
+        <v>2145</v>
       </c>
       <c r="B263" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C263" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D263" s="1" t="b">
         <v>0</v>
@@ -14078,15 +14090,15 @@
         <v>0</v>
       </c>
       <c r="O263" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>2169</v>
+        <v>2148</v>
       </c>
       <c r="B264" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -14130,10 +14142,10 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>2176</v>
+        <v>2164</v>
       </c>
       <c r="B265" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -14177,13 +14189,13 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>2197</v>
+        <v>2169</v>
       </c>
       <c r="B266" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C266" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D266" s="1" t="b">
         <v>0</v>
@@ -14207,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="K266" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L266" s="1" t="b">
         <v>0</v>
@@ -14224,10 +14236,10 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>2200</v>
+        <v>2176</v>
       </c>
       <c r="B267" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -14251,7 +14263,7 @@
         <v>0</v>
       </c>
       <c r="J267" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K267" s="1" t="b">
         <v>0</v>
@@ -14271,13 +14283,13 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>2206</v>
+        <v>2197</v>
       </c>
       <c r="B268" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C268" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D268" s="1" t="b">
         <v>0</v>
@@ -14286,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="F268" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G268" s="1" t="b">
         <v>0</v>
@@ -14301,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="K268" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L268" s="1" t="b">
         <v>0</v>
@@ -14318,10 +14330,10 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="B269" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -14345,7 +14357,7 @@
         <v>0</v>
       </c>
       <c r="J269" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K269" s="1" t="b">
         <v>0</v>
@@ -14365,10 +14377,10 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>2220</v>
+        <v>2206</v>
       </c>
       <c r="B270" t="s">
-        <v>353</v>
+        <v>224</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -14380,7 +14392,7 @@
         <v>0</v>
       </c>
       <c r="F270" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270" s="1" t="b">
         <v>0</v>
@@ -14412,10 +14424,10 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271">
-        <v>2224</v>
+        <v>2210</v>
       </c>
       <c r="B271" t="s">
-        <v>394</v>
+        <v>225</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -14424,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="E271" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F271" s="1" t="b">
         <v>0</v>
@@ -14459,10 +14471,10 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>2231</v>
+        <v>2220</v>
       </c>
       <c r="B272" t="s">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -14483,7 +14495,7 @@
         <v>0</v>
       </c>
       <c r="I272" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272" s="1" t="b">
         <v>0</v>
@@ -14506,13 +14518,13 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>2239</v>
+        <v>2221</v>
       </c>
       <c r="B273" t="s">
-        <v>227</v>
+        <v>397</v>
       </c>
       <c r="C273" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D273" s="1" t="b">
         <v>0</v>
@@ -14553,10 +14565,10 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>2243</v>
+        <v>2224</v>
       </c>
       <c r="B274" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -14565,7 +14577,7 @@
         <v>0</v>
       </c>
       <c r="E274" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F274" s="1" t="b">
         <v>0</v>
@@ -14600,10 +14612,10 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275">
-        <v>2255</v>
+        <v>2231</v>
       </c>
       <c r="B275" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -14624,7 +14636,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275" s="1" t="b">
         <v>0</v>
@@ -14647,10 +14659,10 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>2264</v>
+        <v>2239</v>
       </c>
       <c r="B276" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -14694,10 +14706,10 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>2273</v>
+        <v>2243</v>
       </c>
       <c r="B277" t="s">
-        <v>343</v>
+        <v>228</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -14709,7 +14721,7 @@
         <v>0</v>
       </c>
       <c r="F277" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G277" s="1" t="b">
         <v>0</v>
@@ -14721,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="J277" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K277" s="1" t="b">
         <v>0</v>
@@ -14741,10 +14753,10 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278">
-        <v>2283</v>
+        <v>2255</v>
       </c>
       <c r="B278" t="s">
-        <v>349</v>
+        <v>229</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -14756,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="F278" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278" s="1" t="b">
         <v>0</v>
@@ -14788,16 +14800,16 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279">
-        <v>2327</v>
+        <v>2264</v>
       </c>
       <c r="B279" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C279" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D279" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279" s="1" t="b">
         <v>0</v>
@@ -14821,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="L279" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M279" s="1" t="b">
         <v>0</v>
@@ -14835,10 +14847,10 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>2331</v>
+        <v>2273</v>
       </c>
       <c r="B280" t="s">
-        <v>232</v>
+        <v>343</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -14850,10 +14862,10 @@
         <v>0</v>
       </c>
       <c r="F280" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G280" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H280" s="1" t="b">
         <v>0</v>
@@ -14862,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="J280" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K280" s="1" t="b">
         <v>0</v>
@@ -14882,13 +14894,13 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281">
-        <v>2353</v>
+        <v>2283</v>
       </c>
       <c r="B281" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
       <c r="C281" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D281" s="1" t="b">
         <v>0</v>
@@ -14906,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" s="1" t="b">
         <v>0</v>
@@ -14929,19 +14941,19 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>2389</v>
+        <v>2327</v>
       </c>
       <c r="B282" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C282" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D282" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E282" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F282" s="1" t="b">
         <v>0</v>
@@ -14962,24 +14974,24 @@
         <v>0</v>
       </c>
       <c r="L282" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M282" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N282" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O282" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>2395</v>
+        <v>2331</v>
       </c>
       <c r="B283" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -14991,10 +15003,10 @@
         <v>0</v>
       </c>
       <c r="F283" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G283" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283" s="1" t="b">
         <v>0</v>
@@ -15023,13 +15035,13 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>2427</v>
+        <v>2353</v>
       </c>
       <c r="B284" t="s">
-        <v>329</v>
+        <v>233</v>
       </c>
       <c r="C284" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D284" s="1" t="b">
         <v>0</v>
@@ -15038,7 +15050,7 @@
         <v>0</v>
       </c>
       <c r="F284" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284" s="1" t="b">
         <v>0</v>
@@ -15047,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="I284" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" s="1" t="b">
         <v>0</v>
@@ -15070,10 +15082,10 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>2432</v>
+        <v>2389</v>
       </c>
       <c r="B285" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -15082,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="E285" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285" s="1" t="b">
         <v>0</v>
@@ -15106,21 +15118,21 @@
         <v>0</v>
       </c>
       <c r="M285" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N285" s="1" t="b">
         <v>0</v>
       </c>
       <c r="O285" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>2446</v>
+        <v>2395</v>
       </c>
       <c r="B286" t="s">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -15132,7 +15144,7 @@
         <v>0</v>
       </c>
       <c r="F286" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286" s="1" t="b">
         <v>0</v>
@@ -15164,10 +15176,10 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287">
-        <v>2451</v>
+        <v>2427</v>
       </c>
       <c r="B287" t="s">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -15179,7 +15191,7 @@
         <v>0</v>
       </c>
       <c r="F287" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G287" s="1" t="b">
         <v>0</v>
@@ -15211,10 +15223,10 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>2455</v>
+        <v>2432</v>
       </c>
       <c r="B288" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -15258,10 +15270,10 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289">
-        <v>2460</v>
+        <v>2446</v>
       </c>
       <c r="B289" t="s">
-        <v>238</v>
+        <v>321</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -15285,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="J289" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K289" s="1" t="b">
         <v>0</v>
@@ -15305,10 +15317,10 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290">
-        <v>2465</v>
+        <v>2451</v>
       </c>
       <c r="B290" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -15332,7 +15344,7 @@
         <v>0</v>
       </c>
       <c r="J290" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K290" s="1" t="b">
         <v>0</v>
@@ -15352,10 +15364,10 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>2469</v>
+        <v>2455</v>
       </c>
       <c r="B291" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -15399,10 +15411,10 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292">
-        <v>2481</v>
+        <v>2460</v>
       </c>
       <c r="B292" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -15426,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="J292" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K292" s="1" t="b">
         <v>0</v>
@@ -15446,10 +15458,10 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293">
-        <v>2485</v>
+        <v>2465</v>
       </c>
       <c r="B293" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -15461,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="F293" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G293" s="1" t="b">
         <v>0</v>
@@ -15473,7 +15485,7 @@
         <v>0</v>
       </c>
       <c r="J293" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K293" s="1" t="b">
         <v>0</v>
@@ -15488,27 +15500,27 @@
         <v>0</v>
       </c>
       <c r="O293" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>2501</v>
+        <v>2469</v>
       </c>
       <c r="B294" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C294" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D294" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E294" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F294" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G294" s="1" t="b">
         <v>0</v>
@@ -15529,7 +15541,7 @@
         <v>0</v>
       </c>
       <c r="M294" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N294" s="1" t="b">
         <v>0</v>
@@ -15540,10 +15552,10 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>2506</v>
+        <v>2481</v>
       </c>
       <c r="B295" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -15555,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="F295" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G295" s="1" t="b">
         <v>0</v>
@@ -15587,10 +15599,10 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>2520</v>
+        <v>2485</v>
       </c>
       <c r="B296" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -15629,27 +15641,27 @@
         <v>0</v>
       </c>
       <c r="O296" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297">
-        <v>2544</v>
+        <v>2501</v>
       </c>
       <c r="B297" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C297" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D297" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F297" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297" s="1" t="b">
         <v>0</v>
@@ -15670,7 +15682,7 @@
         <v>0</v>
       </c>
       <c r="M297" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N297" s="1" t="b">
         <v>0</v>
@@ -15681,10 +15693,10 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>2562</v>
+        <v>2506</v>
       </c>
       <c r="B298" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -15696,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="F298" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G298" s="1" t="b">
         <v>0</v>
@@ -15708,7 +15720,7 @@
         <v>0</v>
       </c>
       <c r="J298" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K298" s="1" t="b">
         <v>0</v>
@@ -15728,10 +15740,10 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>2570</v>
+        <v>2520</v>
       </c>
       <c r="B299" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -15743,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="F299" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G299" s="1" t="b">
         <v>0</v>
@@ -15755,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="J299" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K299" s="1" t="b">
         <v>0</v>
@@ -15775,10 +15787,10 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300">
-        <v>2595</v>
+        <v>2544</v>
       </c>
       <c r="B300" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -15822,10 +15834,10 @@
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>2600</v>
+        <v>2562</v>
       </c>
       <c r="B301" t="s">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -15834,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="E301" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F301" s="1" t="b">
         <v>0</v>
@@ -15849,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="J301" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K301" s="1" t="b">
         <v>0</v>
@@ -15869,10 +15881,10 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>2614</v>
+        <v>2570</v>
       </c>
       <c r="B302" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -15884,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="F302" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G302" s="1" t="b">
         <v>0</v>
@@ -15896,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="J302" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K302" s="1" t="b">
         <v>0</v>
@@ -15916,10 +15928,10 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>2639</v>
+        <v>2595</v>
       </c>
       <c r="B303" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -15963,10 +15975,10 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>2643</v>
+        <v>2600</v>
       </c>
       <c r="B304" t="s">
-        <v>251</v>
+        <v>355</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -15975,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="E304" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F304" s="1" t="b">
         <v>0</v>
@@ -16010,10 +16022,10 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>2644</v>
+        <v>2614</v>
       </c>
       <c r="B305" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -16057,10 +16069,10 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>2651</v>
+        <v>2639</v>
       </c>
       <c r="B306" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -16104,10 +16116,10 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>2656</v>
+        <v>2643</v>
       </c>
       <c r="B307" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -16116,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="E307" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F307" s="1" t="b">
         <v>0</v>
@@ -16151,10 +16163,10 @@
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>2670</v>
+        <v>2644</v>
       </c>
       <c r="B308" t="s">
-        <v>381</v>
+        <v>252</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -16166,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="F308" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G308" s="1" t="b">
         <v>0</v>
@@ -16198,10 +16210,10 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>2678</v>
+        <v>2651</v>
       </c>
       <c r="B309" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -16245,10 +16257,10 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>2682</v>
+        <v>2656</v>
       </c>
       <c r="B310" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -16257,10 +16269,10 @@
         <v>0</v>
       </c>
       <c r="E310" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F310" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G310" s="1" t="b">
         <v>0</v>
@@ -16292,10 +16304,10 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>2696</v>
+        <v>2670</v>
       </c>
       <c r="B311" t="s">
-        <v>257</v>
+        <v>381</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -16307,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="F311" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G311" s="1" t="b">
         <v>0</v>
@@ -16322,7 +16334,7 @@
         <v>0</v>
       </c>
       <c r="K311" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L311" s="1" t="b">
         <v>0</v>
@@ -16339,10 +16351,10 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>2697</v>
+        <v>2678</v>
       </c>
       <c r="B312" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -16351,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="E312" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312" s="1" t="b">
         <v>0</v>
@@ -16366,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="J312" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K312" s="1" t="b">
         <v>0</v>
@@ -16386,10 +16398,10 @@
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>2710</v>
+        <v>2682</v>
       </c>
       <c r="B313" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -16401,7 +16413,7 @@
         <v>0</v>
       </c>
       <c r="F313" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G313" s="1" t="b">
         <v>0</v>
@@ -16433,10 +16445,10 @@
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314">
-        <v>2744</v>
+        <v>2696</v>
       </c>
       <c r="B314" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -16448,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="F314" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G314" s="1" t="b">
         <v>0</v>
@@ -16463,7 +16475,7 @@
         <v>0</v>
       </c>
       <c r="K314" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L314" s="1" t="b">
         <v>0</v>
@@ -16480,19 +16492,19 @@
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315">
-        <v>2765</v>
+        <v>2697</v>
       </c>
       <c r="B315" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
       </c>
       <c r="D315" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E315" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F315" s="1" t="b">
         <v>0</v>
@@ -16507,7 +16519,7 @@
         <v>0</v>
       </c>
       <c r="J315" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K315" s="1" t="b">
         <v>0</v>
@@ -16527,10 +16539,10 @@
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>2784</v>
+        <v>2710</v>
       </c>
       <c r="B316" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -16542,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="F316" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G316" s="1" t="b">
         <v>0</v>
@@ -16574,13 +16586,13 @@
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317">
-        <v>2785</v>
+        <v>2744</v>
       </c>
       <c r="B317" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C317" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D317" s="1" t="b">
         <v>0</v>
@@ -16589,7 +16601,7 @@
         <v>0</v>
       </c>
       <c r="F317" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G317" s="1" t="b">
         <v>0</v>
@@ -16621,13 +16633,13 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>2786</v>
+        <v>2765</v>
       </c>
       <c r="B318" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C318" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D318" s="1" t="b">
         <v>1</v>
@@ -16668,10 +16680,10 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319">
-        <v>2806</v>
+        <v>2784</v>
       </c>
       <c r="B319" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -16683,7 +16695,7 @@
         <v>0</v>
       </c>
       <c r="F319" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G319" s="1" t="b">
         <v>0</v>
@@ -16715,13 +16727,13 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320">
-        <v>2810</v>
+        <v>2785</v>
       </c>
       <c r="B320" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C320" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D320" s="1" t="b">
         <v>0</v>
@@ -16762,22 +16774,22 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321">
-        <v>2815</v>
+        <v>2786</v>
       </c>
       <c r="B321" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D321" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E321" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F321" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G321" s="1" t="b">
         <v>0</v>
@@ -16809,10 +16821,10 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322">
-        <v>2839</v>
+        <v>2806</v>
       </c>
       <c r="B322" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -16824,7 +16836,7 @@
         <v>0</v>
       </c>
       <c r="F322" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G322" s="1" t="b">
         <v>0</v>
@@ -16856,10 +16868,10 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323">
-        <v>2855</v>
+        <v>2810</v>
       </c>
       <c r="B323" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -16903,10 +16915,10 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>2864</v>
+        <v>2815</v>
       </c>
       <c r="B324" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -16915,10 +16927,10 @@
         <v>0</v>
       </c>
       <c r="E324" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F324" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G324" s="1" t="b">
         <v>0</v>
@@ -16950,22 +16962,22 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325">
-        <v>2873</v>
+        <v>2839</v>
       </c>
       <c r="B325" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
       </c>
       <c r="D325" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E325" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F325" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G325" s="1" t="b">
         <v>0</v>
@@ -16997,10 +17009,10 @@
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>2899</v>
+        <v>2855</v>
       </c>
       <c r="B326" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -17044,19 +17056,19 @@
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>2900</v>
+        <v>2864</v>
       </c>
       <c r="B327" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
       </c>
       <c r="D327" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E327" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F327" s="1" t="b">
         <v>0</v>
@@ -17091,16 +17103,16 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>2928</v>
+        <v>2873</v>
       </c>
       <c r="B328" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
       </c>
       <c r="D328" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E328" s="1" t="b">
         <v>0</v>
@@ -17138,13 +17150,13 @@
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>2929</v>
+        <v>2899</v>
       </c>
       <c r="B329" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C329" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D329" s="1" t="b">
         <v>0</v>
@@ -17185,16 +17197,16 @@
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>2937</v>
+        <v>2900</v>
       </c>
       <c r="B330" t="s">
-        <v>390</v>
+        <v>272</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
       </c>
       <c r="D330" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E330" s="1" t="b">
         <v>0</v>
@@ -17232,16 +17244,16 @@
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331">
-        <v>2944</v>
+        <v>2928</v>
       </c>
       <c r="B331" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C331" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D331" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E331" s="1" t="b">
         <v>0</v>
@@ -17256,7 +17268,7 @@
         <v>0</v>
       </c>
       <c r="I331" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" s="1" t="b">
         <v>0</v>
@@ -17265,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="L331" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M331" s="1" t="b">
         <v>0</v>
@@ -17279,13 +17291,13 @@
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332">
-        <v>2960</v>
+        <v>2929</v>
       </c>
       <c r="B332" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="C332" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D332" s="1" t="b">
         <v>0</v>
@@ -17326,10 +17338,10 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333">
-        <v>2965</v>
+        <v>2937</v>
       </c>
       <c r="B333" t="s">
-        <v>276</v>
+        <v>390</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -17341,7 +17353,7 @@
         <v>0</v>
       </c>
       <c r="F333" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G333" s="1" t="b">
         <v>0</v>
@@ -17373,16 +17385,16 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334">
-        <v>2974</v>
+        <v>2944</v>
       </c>
       <c r="B334" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C334" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D334" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E334" s="1" t="b">
         <v>0</v>
@@ -17406,7 +17418,7 @@
         <v>0</v>
       </c>
       <c r="L334" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M334" s="1" t="b">
         <v>0</v>
@@ -17420,10 +17432,10 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335">
-        <v>3005</v>
+        <v>2960</v>
       </c>
       <c r="B335" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -17435,7 +17447,7 @@
         <v>0</v>
       </c>
       <c r="F335" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G335" s="1" t="b">
         <v>0</v>
@@ -17467,10 +17479,10 @@
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336">
-        <v>3014</v>
+        <v>2965</v>
       </c>
       <c r="B336" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -17479,10 +17491,10 @@
         <v>0</v>
       </c>
       <c r="E336" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F336" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G336" s="1" t="b">
         <v>0</v>
@@ -17514,10 +17526,10 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337">
-        <v>3019</v>
+        <v>2974</v>
       </c>
       <c r="B337" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -17538,7 +17550,7 @@
         <v>0</v>
       </c>
       <c r="I337" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J337" s="1" t="b">
         <v>0</v>
@@ -17561,10 +17573,10 @@
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338">
-        <v>3079</v>
+        <v>3005</v>
       </c>
       <c r="B338" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -17576,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="F338" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338" s="1" t="b">
         <v>0</v>
@@ -17608,10 +17620,10 @@
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339">
-        <v>3090</v>
+        <v>3014</v>
       </c>
       <c r="B339" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -17620,10 +17632,10 @@
         <v>0</v>
       </c>
       <c r="E339" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F339" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G339" s="1" t="b">
         <v>0</v>
@@ -17647,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="N339" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O339" s="1" t="b">
         <v>0</v>
@@ -17655,16 +17667,16 @@
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340">
-        <v>3105</v>
+        <v>3019</v>
       </c>
       <c r="B340" t="s">
-        <v>375</v>
+        <v>279</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
       </c>
       <c r="D340" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E340" s="1" t="b">
         <v>0</v>
@@ -17702,10 +17714,10 @@
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341">
-        <v>3110</v>
+        <v>3079</v>
       </c>
       <c r="B341" t="s">
-        <v>356</v>
+        <v>280</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -17749,10 +17761,10 @@
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342">
-        <v>3120</v>
+        <v>3090</v>
       </c>
       <c r="B342" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -17788,7 +17800,7 @@
         <v>0</v>
       </c>
       <c r="N342" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O342" s="1" t="b">
         <v>0</v>
@@ -17796,13 +17808,13 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343">
-        <v>3142</v>
+        <v>3100</v>
       </c>
       <c r="B343" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="C343" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D343" s="1" t="b">
         <v>0</v>
@@ -17843,22 +17855,22 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344">
-        <v>3158</v>
+        <v>3105</v>
       </c>
       <c r="B344" t="s">
-        <v>283</v>
+        <v>375</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
       </c>
       <c r="D344" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E344" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F344" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G344" s="1" t="b">
         <v>0</v>
@@ -17890,10 +17902,10 @@
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345">
-        <v>3174</v>
+        <v>3110</v>
       </c>
       <c r="B345" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -17920,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="K345" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L345" s="1" t="b">
         <v>0</v>
@@ -17937,10 +17949,10 @@
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346">
-        <v>3190</v>
+        <v>3120</v>
       </c>
       <c r="B346" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -17952,7 +17964,7 @@
         <v>0</v>
       </c>
       <c r="F346" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G346" s="1" t="b">
         <v>0</v>
@@ -17984,10 +17996,10 @@
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>3194</v>
+        <v>3142</v>
       </c>
       <c r="B347" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -18011,7 +18023,7 @@
         <v>0</v>
       </c>
       <c r="J347" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K347" s="1" t="b">
         <v>0</v>
@@ -18031,22 +18043,22 @@
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348">
-        <v>3201</v>
+        <v>3158</v>
       </c>
       <c r="B348" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C348" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D348" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E348" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F348" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G348" s="1" t="b">
         <v>0</v>
@@ -18078,10 +18090,10 @@
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349">
-        <v>3210</v>
+        <v>3174</v>
       </c>
       <c r="B349" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -18108,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="K349" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L349" s="1" t="b">
         <v>0</v>
@@ -18125,10 +18137,10 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>3222</v>
+        <v>3190</v>
       </c>
       <c r="B350" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -18172,13 +18184,13 @@
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>3227</v>
+        <v>3194</v>
       </c>
       <c r="B351" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C351" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D351" s="1" t="b">
         <v>0</v>
@@ -18199,7 +18211,7 @@
         <v>0</v>
       </c>
       <c r="J351" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K351" s="1" t="b">
         <v>0</v>
@@ -18219,16 +18231,16 @@
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>3258</v>
+        <v>3201</v>
       </c>
       <c r="B352" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C352" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D352" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E352" s="1" t="b">
         <v>0</v>
@@ -18258,7 +18270,7 @@
         <v>0</v>
       </c>
       <c r="N352" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O352" s="1" t="b">
         <v>0</v>
@@ -18266,10 +18278,10 @@
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353">
-        <v>3264</v>
+        <v>3210</v>
       </c>
       <c r="B353" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -18290,7 +18302,7 @@
         <v>0</v>
       </c>
       <c r="I353" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J353" s="1" t="b">
         <v>0</v>
@@ -18313,10 +18325,10 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354">
-        <v>3270</v>
+        <v>3222</v>
       </c>
       <c r="B354" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -18360,10 +18372,10 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355">
-        <v>3286</v>
+        <v>3227</v>
       </c>
       <c r="B355" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C355" t="s">
         <v>3</v>
@@ -18381,10 +18393,10 @@
         <v>0</v>
       </c>
       <c r="H355" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J355" s="1" t="b">
         <v>0</v>
@@ -18407,10 +18419,10 @@
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356">
-        <v>3314</v>
+        <v>3258</v>
       </c>
       <c r="B356" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -18446,7 +18458,7 @@
         <v>0</v>
       </c>
       <c r="N356" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O356" s="1" t="b">
         <v>0</v>
@@ -18454,10 +18466,10 @@
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357">
-        <v>3330</v>
+        <v>3264</v>
       </c>
       <c r="B357" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -18478,7 +18490,7 @@
         <v>0</v>
       </c>
       <c r="I357" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J357" s="1" t="b">
         <v>0</v>
@@ -18501,10 +18513,10 @@
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358">
-        <v>3360</v>
+        <v>3270</v>
       </c>
       <c r="B358" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -18548,13 +18560,13 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359">
-        <v>3379</v>
+        <v>3286</v>
       </c>
       <c r="B359" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C359" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D359" s="1" t="b">
         <v>0</v>
@@ -18569,10 +18581,10 @@
         <v>0</v>
       </c>
       <c r="H359" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I359" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J359" s="1" t="b">
         <v>0</v>
@@ -18595,10 +18607,10 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360">
-        <v>3392</v>
+        <v>3314</v>
       </c>
       <c r="B360" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -18642,10 +18654,10 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361">
-        <v>3396</v>
+        <v>3330</v>
       </c>
       <c r="B361" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -18657,7 +18669,7 @@
         <v>0</v>
       </c>
       <c r="F361" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G361" s="1" t="b">
         <v>0</v>
@@ -18689,13 +18701,13 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>3408</v>
+        <v>3360</v>
       </c>
       <c r="B362" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C362" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D362" s="1" t="b">
         <v>0</v>
@@ -18704,7 +18716,7 @@
         <v>0</v>
       </c>
       <c r="F362" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G362" s="1" t="b">
         <v>0</v>
@@ -18713,7 +18725,7 @@
         <v>0</v>
       </c>
       <c r="I362" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J362" s="1" t="b">
         <v>0</v>
@@ -18736,10 +18748,10 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>3423</v>
+        <v>3379</v>
       </c>
       <c r="B363" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -18783,10 +18795,10 @@
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>3438</v>
+        <v>3392</v>
       </c>
       <c r="B364" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -18798,7 +18810,7 @@
         <v>0</v>
       </c>
       <c r="F364" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G364" s="1" t="b">
         <v>0</v>
@@ -18830,10 +18842,10 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>3442</v>
+        <v>3396</v>
       </c>
       <c r="B365" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -18877,13 +18889,13 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>3452</v>
+        <v>3408</v>
       </c>
       <c r="B366" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="C366" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D366" s="1" t="b">
         <v>0</v>
@@ -18892,7 +18904,7 @@
         <v>0</v>
       </c>
       <c r="F366" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G366" s="1" t="b">
         <v>0</v>
@@ -18901,7 +18913,7 @@
         <v>0</v>
       </c>
       <c r="I366" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366" s="1" t="b">
         <v>0</v>
@@ -18924,10 +18936,10 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>3461</v>
+        <v>3423</v>
       </c>
       <c r="B367" t="s">
-        <v>392</v>
+        <v>300</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -18971,10 +18983,10 @@
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>3467</v>
+        <v>3438</v>
       </c>
       <c r="B368" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -18986,7 +18998,7 @@
         <v>0</v>
       </c>
       <c r="F368" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G368" s="1" t="b">
         <v>0</v>
@@ -19018,22 +19030,22 @@
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>3469</v>
+        <v>3442</v>
       </c>
       <c r="B369" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C369" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D369" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E369" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F369" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G369" s="1" t="b">
         <v>0</v>
@@ -19065,10 +19077,10 @@
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>3483</v>
+        <v>3452</v>
       </c>
       <c r="B370" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -19080,7 +19092,7 @@
         <v>0</v>
       </c>
       <c r="F370" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G370" s="1" t="b">
         <v>0</v>
@@ -19112,13 +19124,13 @@
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>3484</v>
+        <v>3461</v>
       </c>
       <c r="B371" t="s">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="C371" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D371" s="1" t="b">
         <v>0</v>
@@ -19127,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="F371" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G371" s="1" t="b">
         <v>0</v>
@@ -19159,10 +19171,10 @@
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>3492</v>
+        <v>3467</v>
       </c>
       <c r="B372" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -19206,16 +19218,16 @@
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>3502</v>
+        <v>3469</v>
       </c>
       <c r="B373" t="s">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="C373" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D373" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E373" s="1" t="b">
         <v>0</v>
@@ -19253,13 +19265,13 @@
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A374">
-        <v>3508</v>
+        <v>3483</v>
       </c>
       <c r="B374" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C374" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D374" s="1" t="b">
         <v>0</v>
@@ -19286,10 +19298,10 @@
         <v>0</v>
       </c>
       <c r="L374" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M374" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N374" s="1" t="b">
         <v>0</v>
@@ -19300,13 +19312,13 @@
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>3516</v>
+        <v>3484</v>
       </c>
       <c r="B375" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C375" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D375" s="1" t="b">
         <v>0</v>
@@ -19315,7 +19327,7 @@
         <v>0</v>
       </c>
       <c r="F375" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G375" s="1" t="b">
         <v>0</v>
@@ -19347,10 +19359,10 @@
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A376">
-        <v>3541</v>
+        <v>3492</v>
       </c>
       <c r="B376" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -19362,7 +19374,7 @@
         <v>0</v>
       </c>
       <c r="F376" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G376" s="1" t="b">
         <v>0</v>
@@ -19394,10 +19406,10 @@
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>3602</v>
+        <v>3502</v>
       </c>
       <c r="B377" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -19409,7 +19421,7 @@
         <v>0</v>
       </c>
       <c r="F377" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G377" s="1" t="b">
         <v>0</v>
@@ -19441,13 +19453,13 @@
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A378">
-        <v>3606</v>
+        <v>3508</v>
       </c>
       <c r="B378" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C378" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D378" s="1" t="b">
         <v>0</v>
@@ -19474,10 +19486,10 @@
         <v>0</v>
       </c>
       <c r="L378" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M378" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N378" s="1" t="b">
         <v>0</v>
@@ -19488,10 +19500,10 @@
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>3622</v>
+        <v>3516</v>
       </c>
       <c r="B379" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -19535,10 +19547,10 @@
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>3633</v>
+        <v>3541</v>
       </c>
       <c r="B380" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -19547,10 +19559,10 @@
         <v>0</v>
       </c>
       <c r="E380" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F380" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G380" s="1" t="b">
         <v>0</v>
@@ -19562,7 +19574,7 @@
         <v>0</v>
       </c>
       <c r="J380" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K380" s="1" t="b">
         <v>0</v>
@@ -19571,7 +19583,7 @@
         <v>0</v>
       </c>
       <c r="M380" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N380" s="1" t="b">
         <v>0</v>
@@ -19582,10 +19594,10 @@
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A381">
-        <v>3637</v>
+        <v>3602</v>
       </c>
       <c r="B381" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -19597,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="F381" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G381" s="1" t="b">
         <v>0</v>
@@ -19629,54 +19641,242 @@
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A382">
+        <v>3606</v>
+      </c>
+      <c r="B382" t="s">
+        <v>309</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F382" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O382" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>3622</v>
+      </c>
+      <c r="B383" t="s">
+        <v>310</v>
+      </c>
+      <c r="C383" t="s">
+        <v>5</v>
+      </c>
+      <c r="D383" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E383" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F383" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G383" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H383" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I383" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J383" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K383" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L383" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M383" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N383" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O383" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>3633</v>
+      </c>
+      <c r="B384" t="s">
+        <v>311</v>
+      </c>
+      <c r="C384" t="s">
+        <v>5</v>
+      </c>
+      <c r="D384" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E384" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F384" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G384" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H384" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I384" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J384" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K384" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L384" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M384" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N384" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O384" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <v>3637</v>
+      </c>
+      <c r="B385" t="s">
+        <v>312</v>
+      </c>
+      <c r="C385" t="s">
+        <v>5</v>
+      </c>
+      <c r="D385" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E385" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F385" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G385" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H385" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I385" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J385" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K385" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L385" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M385" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N385" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O385" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A386">
         <v>3684</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B386" t="s">
         <v>389</v>
       </c>
-      <c r="C382" t="s">
-        <v>5</v>
-      </c>
-      <c r="D382" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E382" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F382" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G382" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H382" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I382" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J382" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K382" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L382" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M382" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N382" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O382" s="1" t="b">
+      <c r="C386" t="s">
+        <v>5</v>
+      </c>
+      <c r="D386" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E386" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F386" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G386" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H386" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I386" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J386" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K386" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L386" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M386" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N386" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O386" s="1" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O382">
-    <sortCondition ref="A2:A382"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O386">
+    <sortCondition ref="A1:A386"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20149,7 +20349,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790A8F57-0B16-477D-8506-F68AF8EF6B65}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -20174,7 +20374,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:C65">_xlfn._xlws.FILTER(all!A:C,all!D:D=TRUE)</f>
+        <f t="array" ref="A2:C66">_xlfn._xlws.FILTER(all!A:C,all!D:D=TRUE)</f>
         <v>45</v>
       </c>
       <c r="B2" t="str">
@@ -20615,10 +20815,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>1140</v>
+        <v>1039</v>
       </c>
       <c r="B42" t="str">
-        <v>stone game ii</v>
+        <v>minimum score triangulation of polygon</v>
       </c>
       <c r="C42" t="str">
         <v>medium</v>
@@ -20626,10 +20826,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>1218</v>
+        <v>1140</v>
       </c>
       <c r="B43" t="str">
-        <v>longest arithmetic subsequence of given difference</v>
+        <v>stone game ii</v>
       </c>
       <c r="C43" t="str">
         <v>medium</v>
@@ -20637,21 +20837,21 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>1406</v>
+        <v>1218</v>
       </c>
       <c r="B44" t="str">
-        <v>stone game iii</v>
+        <v>longest arithmetic subsequence of given difference</v>
       </c>
       <c r="C44" t="str">
-        <v>hard</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>1510</v>
+        <v>1406</v>
       </c>
       <c r="B45" t="str">
-        <v>stone game iv</v>
+        <v>stone game iii</v>
       </c>
       <c r="C45" t="str">
         <v>hard</v>
@@ -20659,21 +20859,21 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>1524</v>
+        <v>1510</v>
       </c>
       <c r="B46" t="str">
-        <v>number of sub arrays with odd sum</v>
+        <v>stone game iv</v>
       </c>
       <c r="C46" t="str">
-        <v>medium</v>
+        <v>hard</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>1594</v>
+        <v>1524</v>
       </c>
       <c r="B47" t="str">
-        <v>maximum non negative product in a matrix</v>
+        <v>number of sub arrays with odd sum</v>
       </c>
       <c r="C47" t="str">
         <v>medium</v>
@@ -20681,10 +20881,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>1621</v>
+        <v>1594</v>
       </c>
       <c r="B48" t="str">
-        <v>number of sets of k non overlapping line segments</v>
+        <v>maximum non negative product in a matrix</v>
       </c>
       <c r="C48" t="str">
         <v>medium</v>
@@ -20692,10 +20892,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>1641</v>
+        <v>1621</v>
       </c>
       <c r="B49" t="str">
-        <v>count sorted vowel strings</v>
+        <v>number of sets of k non overlapping line segments</v>
       </c>
       <c r="C49" t="str">
         <v>medium</v>
@@ -20703,21 +20903,21 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="B50" t="str">
-        <v>get maximum in generated array</v>
+        <v>count sorted vowel strings</v>
       </c>
       <c r="C50" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>1668</v>
+        <v>1646</v>
       </c>
       <c r="B51" t="str">
-        <v>maximum repeating substring</v>
+        <v>get maximum in generated array</v>
       </c>
       <c r="C51" t="str">
         <v>easy</v>
@@ -20725,10 +20925,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>1800</v>
+        <v>1668</v>
       </c>
       <c r="B52" t="str">
-        <v>maximum ascending subarray sum</v>
+        <v>maximum repeating substring</v>
       </c>
       <c r="C52" t="str">
         <v>easy</v>
@@ -20736,10 +20936,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2016</v>
+        <v>1800</v>
       </c>
       <c r="B53" t="str">
-        <v>maximum difference between increasing elements</v>
+        <v>maximum ascending subarray sum</v>
       </c>
       <c r="C53" t="str">
         <v>easy</v>
@@ -20747,43 +20947,43 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2063</v>
+        <v>2016</v>
       </c>
       <c r="B54" t="str">
-        <v>vowels of all substrings</v>
+        <v>maximum difference between increasing elements</v>
       </c>
       <c r="C54" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2138</v>
+        <v>2063</v>
       </c>
       <c r="B55" t="str">
-        <v>divide a string into groups of size k</v>
+        <v>vowels of all substrings</v>
       </c>
       <c r="C55" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2327</v>
+        <v>2138</v>
       </c>
       <c r="B56" t="str">
-        <v>number of people aware of a secret</v>
+        <v>divide a string into groups of size k</v>
       </c>
       <c r="C56" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2501</v>
+        <v>2327</v>
       </c>
       <c r="B57" t="str">
-        <v>longest square streak in an array</v>
+        <v>number of people aware of a secret</v>
       </c>
       <c r="C57" t="str">
         <v>medium</v>
@@ -20791,43 +20991,43 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2765</v>
+        <v>2501</v>
       </c>
       <c r="B58" t="str">
-        <v>longest alternating subarray</v>
+        <v>longest square streak in an array</v>
       </c>
       <c r="C58" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2786</v>
+        <v>2765</v>
       </c>
       <c r="B59" t="str">
-        <v>visit array positions to maximize score</v>
+        <v>longest alternating subarray</v>
       </c>
       <c r="C59" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2873</v>
+        <v>2786</v>
       </c>
       <c r="B60" t="str">
-        <v>maximum value of an ordered triplet i</v>
+        <v>visit array positions to maximize score</v>
       </c>
       <c r="C60" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2900</v>
+        <v>2873</v>
       </c>
       <c r="B61" t="str">
-        <v>longest unequal adjacent groups subsequence i</v>
+        <v>maximum value of an ordered triplet i</v>
       </c>
       <c r="C61" t="str">
         <v>easy</v>
@@ -20835,45 +21035,56 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2944</v>
+        <v>2900</v>
       </c>
       <c r="B62" t="str">
-        <v>minimum number of coins for fruits</v>
+        <v>longest unequal adjacent groups subsequence i</v>
       </c>
       <c r="C62" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>3105</v>
+        <v>2944</v>
       </c>
       <c r="B63" t="str">
-        <v>longest strictly increasing or strictly decreasing subarray</v>
+        <v>minimum number of coins for fruits</v>
       </c>
       <c r="C63" t="str">
-        <v>easy</v>
+        <v>medium</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>3201</v>
+        <v>3105</v>
       </c>
       <c r="B64" t="str">
-        <v>find the maximum length of valid subsequence i</v>
+        <v>longest strictly increasing or strictly decreasing subarray</v>
       </c>
       <c r="C64" t="str">
-        <v>medium</v>
+        <v>easy</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
+        <v>3201</v>
+      </c>
+      <c r="B65" t="str">
+        <v>find the maximum length of valid subsequence i</v>
+      </c>
+      <c r="C65" t="str">
+        <v>medium</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>3469</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B66" t="str">
         <v>find minimum cost to remove array elements</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C66" t="str">
         <v>medium</v>
       </c>
     </row>
